--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB77B9F-53CE-41BA-A0F8-06DE9703D028}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA7ECD7-5B9E-4261-AB3F-C171F539BB48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -387,330 +387,330 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.15426766371935846</v>
+        <v>1.1440386912840304E-2</v>
       </c>
       <c r="B1">
-        <v>12.67311201137495</v>
+        <v>0.49565056258015927</v>
       </c>
       <c r="C1">
-        <v>9.9999999987847171E-2</v>
+        <v>9.9958486403788641E-2</v>
       </c>
       <c r="D1">
-        <v>327645902.52257526</v>
+        <v>295562842.63828558</v>
       </c>
       <c r="E1">
-        <v>30.000003092464514</v>
+        <v>30.007333053017643</v>
       </c>
       <c r="F1">
-        <v>54.433976986894855</v>
+        <v>54.884345453779154</v>
       </c>
       <c r="G1">
-        <v>0.31145978603943369</v>
+        <v>0.37782256432557115</v>
       </c>
       <c r="H1">
-        <v>9.9999999999994564</v>
+        <v>9.9999753171922663</v>
       </c>
       <c r="I1">
-        <v>5.8159546995199735E-2</v>
+        <v>1.5284193793147917E-2</v>
       </c>
       <c r="J1">
-        <v>8.3498312019328849E-2</v>
+        <v>9.347273948898363E-2</v>
       </c>
       <c r="K1">
-        <v>0.97355193826221686</v>
+        <v>0.97574148988616938</v>
       </c>
       <c r="L1">
-        <v>0.93327862685273444</v>
+        <v>0.94357324530498876</v>
       </c>
       <c r="M1">
-        <v>-0.4105555415723916</v>
+        <v>-0.48807107839730191</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3.5378003289125012E-3</v>
+        <v>2.7120401622155203E-3</v>
       </c>
       <c r="B2">
-        <v>-0.26377173905564105</v>
+        <v>-0.36126863009075266</v>
       </c>
       <c r="C2">
-        <v>4.8141329418574581E-2</v>
+        <v>4.8060698575486727E-2</v>
       </c>
       <c r="D2">
-        <v>158418691.64735818</v>
+        <v>154280748.56200033</v>
       </c>
       <c r="E2">
-        <v>36.920310446502185</v>
+        <v>36.517931529860441</v>
       </c>
       <c r="F2">
-        <v>56.6742729850871</v>
+        <v>56.445421243458888</v>
       </c>
       <c r="G2">
-        <v>0.48145207449864663</v>
+        <v>0.46565942347600586</v>
       </c>
       <c r="H2">
-        <v>0.63336806182312455</v>
+        <v>0.63780196842218284</v>
       </c>
       <c r="I2">
-        <v>5.5577486171115139E-5</v>
+        <v>3.4621105853416682E-5</v>
       </c>
       <c r="J2">
-        <v>2.1345200643371566E-4</v>
+        <v>7.5097597061353193E-6</v>
       </c>
       <c r="K2">
-        <v>0.92190218815404712</v>
+        <v>0.92955544593543438</v>
       </c>
       <c r="L2">
-        <v>0.68681721534631435</v>
+        <v>0.66523500227684074</v>
       </c>
       <c r="M2">
-        <v>-1.6360223022976457</v>
+        <v>-2.0961005084669013</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0301742750719139E-2</v>
+        <v>5.6819083470834864E-2</v>
       </c>
       <c r="B3">
-        <v>0.69678225686271766</v>
+        <v>13.302842815715305</v>
       </c>
       <c r="C3">
-        <v>9.996612787806286E-2</v>
+        <v>9.9330058649682404E-2</v>
       </c>
       <c r="D3">
-        <v>284815795.02589571</v>
+        <v>249407203.85844174</v>
       </c>
       <c r="E3">
-        <v>31.844633350088866</v>
+        <v>31.457138454781006</v>
       </c>
       <c r="F3">
-        <v>56.181063034210666</v>
+        <v>56.118050574322375</v>
       </c>
       <c r="G3">
-        <v>0.14547563359081872</v>
+        <v>3.5981354888243465E-2</v>
       </c>
       <c r="H3">
-        <v>0.79966242064639126</v>
+        <v>9.0260406122547927</v>
       </c>
       <c r="I3">
-        <v>4.7148836892297881E-4</v>
+        <v>3.66764977501033E-3</v>
       </c>
       <c r="J3">
-        <v>6.33814337769113E-2</v>
+        <v>9.8167824668004708E-2</v>
       </c>
       <c r="K3">
-        <v>0.92482346543778837</v>
+        <v>0.93027712136451557</v>
       </c>
       <c r="L3">
-        <v>0.86038693797627852</v>
+        <v>0.29651402330969912</v>
       </c>
       <c r="M3">
-        <v>0.49936942532044393</v>
+        <v>0.63637366557889907</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.6093607450338814E-2</v>
+        <v>2.712689489805864E-2</v>
       </c>
       <c r="B4">
-        <v>0.69183930892172585</v>
+        <v>1.3714933383333792</v>
       </c>
       <c r="C4">
-        <v>5.7512203506255008E-2</v>
+        <v>8.7346457802709429E-2</v>
       </c>
       <c r="D4">
-        <v>198489200.4056038</v>
+        <v>200605589.58113173</v>
       </c>
       <c r="E4">
-        <v>36.036586725847542</v>
+        <v>35.582107525914203</v>
       </c>
       <c r="F4">
-        <v>65.494757898919659</v>
+        <v>66.188666613795604</v>
       </c>
       <c r="G4">
-        <v>4.8542745593227569E-3</v>
+        <v>4.6089882936936263E-5</v>
       </c>
       <c r="H4">
-        <v>2.0466586025984705E-3</v>
+        <v>0.81719541243335991</v>
       </c>
       <c r="I4">
-        <v>0.23656037320378731</v>
+        <v>0.10822344540187247</v>
       </c>
       <c r="J4">
-        <v>1.0255949707793671E-2</v>
+        <v>3.1460189547888893E-2</v>
       </c>
       <c r="K4">
-        <v>0.9890262108044322</v>
+        <v>0.99012870726610525</v>
       </c>
       <c r="L4">
-        <v>0.95587376156758908</v>
+        <v>0.97107671097477977</v>
       </c>
       <c r="M4">
-        <v>0.97488696018524612</v>
+        <v>0.99294200560831736</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-1.5129510492690811E-2</v>
+        <v>2.9608641831456684E-5</v>
       </c>
       <c r="B5">
-        <v>3.5386844867145203E-2</v>
+        <v>-0.72281142087069294</v>
       </c>
       <c r="C5">
-        <v>5.8799581810550346E-2</v>
+        <v>5.8871789444177224E-2</v>
       </c>
       <c r="D5">
-        <v>203908965.98699692</v>
+        <v>245534921.51240683</v>
       </c>
       <c r="E5">
-        <v>33.288100333479292</v>
+        <v>30.029572498396881</v>
       </c>
       <c r="F5">
-        <v>53.692792407848735</v>
+        <v>52.965500124559483</v>
       </c>
       <c r="G5">
-        <v>3.2567711814595278E-3</v>
+        <v>6.6205718916834716E-2</v>
       </c>
       <c r="H5">
-        <v>2.7149162849808999E-3</v>
+        <v>8.1888278378098924</v>
       </c>
       <c r="I5">
-        <v>4.3946283770807576E-14</v>
+        <v>2.3969090508505265E-3</v>
       </c>
       <c r="J5">
-        <v>1.0279327210372396E-2</v>
+        <v>4.086985569600337E-2</v>
       </c>
       <c r="K5">
-        <v>0.79660066782838079</v>
+        <v>0.86872676107072355</v>
       </c>
       <c r="L5">
-        <v>-19.764455175813524</v>
+        <v>-0.43521669109845296</v>
       </c>
       <c r="M5">
-        <v>-0.96381569928542654</v>
+        <v>-0.61758975116199988</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.7243689676256647E-3</v>
+        <v>-1.3230881520724387E-5</v>
       </c>
       <c r="B6">
-        <v>-0.52730354889078013</v>
+        <v>-0.78489337783990254</v>
       </c>
       <c r="C6">
-        <v>5.7298905606013653E-2</v>
+        <v>8.710743526393426E-2</v>
       </c>
       <c r="D6">
-        <v>192175407.44396621</v>
+        <v>206166475.98038509</v>
       </c>
       <c r="E6">
-        <v>38.611360540495212</v>
+        <v>35.184319395031473</v>
       </c>
       <c r="F6">
-        <v>55.273586079542063</v>
+        <v>55.432560546964417</v>
       </c>
       <c r="G6">
-        <v>1.4178648460709474E-2</v>
+        <v>4.3194295876404346E-2</v>
       </c>
       <c r="H6">
-        <v>0.53055820470584414</v>
+        <v>0.22490550034772616</v>
       </c>
       <c r="I6">
-        <v>8.9421550312429222E-5</v>
+        <v>4.7791216147433074E-3</v>
       </c>
       <c r="J6">
-        <v>7.462573870631861E-3</v>
+        <v>7.1737755819651625E-2</v>
       </c>
       <c r="K6">
-        <v>0.93066651028005076</v>
+        <v>0.97053154606191161</v>
       </c>
       <c r="L6">
-        <v>0.62785067760423474</v>
+        <v>-0.70522118356909402</v>
       </c>
       <c r="M6">
-        <v>-1.2150166163833842</v>
+        <v>-0.53451576285609681</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3.777096816610525E-2</v>
+        <v>4.0390256405453226E-2</v>
       </c>
       <c r="B7">
-        <v>0.22787716295751134</v>
+        <v>0.3191779890306865</v>
       </c>
       <c r="C7">
-        <v>4.4290971306641128E-2</v>
+        <v>4.6889349217833505E-2</v>
       </c>
       <c r="D7">
-        <v>173495593.38500491</v>
+        <v>177945685.1172958</v>
       </c>
       <c r="E7">
-        <v>39.771417648003045</v>
+        <v>38.68527965278934</v>
       </c>
       <c r="F7">
-        <v>52.96394795617077</v>
+        <v>54.389723143295861</v>
       </c>
       <c r="G7">
-        <v>2.8933074067773065E-2</v>
+        <v>3.8324829743957262E-2</v>
       </c>
       <c r="H7">
-        <v>0.26075362199984714</v>
+        <v>7.5191169398032701E-3</v>
       </c>
       <c r="I7">
-        <v>1.0341901918980665E-2</v>
+        <v>0.15609545590090443</v>
       </c>
       <c r="J7">
-        <v>1.1825266644705911E-4</v>
+        <v>2.9227286724083251E-3</v>
       </c>
       <c r="K7">
-        <v>0.99465456362950222</v>
+        <v>0.99684532175112639</v>
       </c>
       <c r="L7">
-        <v>0.93704452140328021</v>
+        <v>0.93826073361584261</v>
       </c>
       <c r="M7">
-        <v>0.62059975195339701</v>
+        <v>0.79815707058722574</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.1990452722244309E-2</v>
+        <v>3.5433609589332747E-2</v>
       </c>
       <c r="B8">
-        <v>0.7027486149005765</v>
+        <v>0.2248120953199865</v>
       </c>
       <c r="C8">
-        <v>8.5614021912475469E-2</v>
+        <v>8.6814305824355842E-2</v>
       </c>
       <c r="D8">
-        <v>236475493.68493363</v>
+        <v>313736434.43527311</v>
       </c>
       <c r="E8">
-        <v>37.482146757431934</v>
+        <v>34.293200552222373</v>
       </c>
       <c r="F8">
-        <v>58.504489445432405</v>
+        <v>62.606961317250672</v>
       </c>
       <c r="G8">
-        <v>9.5532575187123783E-4</v>
+        <v>0.13340528472058127</v>
       </c>
       <c r="H8">
-        <v>0.82910927739948515</v>
+        <v>1.2200464342299471E-2</v>
       </c>
       <c r="I8">
-        <v>4.1779067437625076E-3</v>
+        <v>2.8267980053705608E-2</v>
       </c>
       <c r="J8">
-        <v>1.9405574350085966E-2</v>
+        <v>3.9927307704885184E-3</v>
       </c>
       <c r="K8">
-        <v>0.99224150607252137</v>
+        <v>0.9974947501641046</v>
       </c>
       <c r="L8">
-        <v>0.67674638378876595</v>
+        <v>0.98018026782951018</v>
       </c>
       <c r="M8">
-        <v>0.77728136300100048</v>
+        <v>0.88487625956443938</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.6534041918436038E-2</v>
+        <v>6.3869368528193804E-2</v>
       </c>
       <c r="L9">
         <v>0.70949125465905305</v>
@@ -756,125 +756,125 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.4033828025664239E-3</v>
+        <v>7.5232950610628815E-3</v>
       </c>
       <c r="B10">
-        <v>0.53374825972116013</v>
+        <v>1.2141083972404731</v>
       </c>
       <c r="C10">
-        <v>4.3344744601923835E-2</v>
+        <v>2.7874915534674586E-2</v>
       </c>
       <c r="D10">
-        <v>100370606.5197733</v>
+        <v>100000359.20397583</v>
       </c>
       <c r="E10">
-        <v>41.172386983016956</v>
+        <v>40.309714392356852</v>
       </c>
       <c r="F10">
-        <v>44.691030957426491</v>
+        <v>45.860540858324214</v>
       </c>
       <c r="G10">
-        <v>3.5779874310533284E-3</v>
+        <v>1.5024779318060649E-3</v>
       </c>
       <c r="H10">
-        <v>3.0057515622690172E-6</v>
+        <v>2.3837407607480294E-6</v>
       </c>
       <c r="I10">
-        <v>4.9030738078151725E-2</v>
+        <v>0.8986371888176754</v>
       </c>
       <c r="J10">
-        <v>9.931551944227264E-2</v>
+        <v>9.9882204667615909E-2</v>
       </c>
       <c r="K10">
-        <v>0.99183617246561706</v>
+        <v>0.99116143178843219</v>
       </c>
       <c r="L10">
-        <v>0.99490563747391925</v>
+        <v>0.99279815658694825</v>
       </c>
       <c r="M10">
-        <v>0.96384195186678989</v>
+        <v>0.96116099727156035</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.22470660184829333</v>
+        <v>0.22762795461504831</v>
       </c>
       <c r="B11">
-        <v>4.2766181661168456</v>
+        <v>4.2535265926058408</v>
       </c>
       <c r="C11">
-        <v>5.410113284140123E-2</v>
+        <v>5.583387189061783E-2</v>
       </c>
       <c r="D11">
-        <v>176814917.9333187</v>
+        <v>192570108.45417479</v>
       </c>
       <c r="E11">
-        <v>30.000082609054683</v>
+        <v>30.000123938224252</v>
       </c>
       <c r="F11">
-        <v>59.028967628251259</v>
+        <v>59.457651373573249</v>
       </c>
       <c r="G11">
-        <v>2.0769023950229717</v>
+        <v>2.2899629476418166</v>
       </c>
       <c r="H11">
-        <v>9.9722768302964546</v>
+        <v>9.9973668218250804</v>
       </c>
       <c r="I11">
-        <v>0.18005148404008489</v>
+        <v>5.3843188760794962E-2</v>
       </c>
       <c r="J11">
-        <v>6.637617244286178E-4</v>
+        <v>5.2842847193436523E-4</v>
       </c>
       <c r="K11">
-        <v>0.9453363345441369</v>
+        <v>0.94492769577785629</v>
       </c>
       <c r="L11">
-        <v>0.94756514395096447</v>
+        <v>0.95166691727919894</v>
       </c>
       <c r="M11">
-        <v>0.83803406005657288</v>
+        <v>0.84653415764886653</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.23157177297907508</v>
+        <v>0.11666514709222116</v>
       </c>
       <c r="B12">
-        <v>10.376144048795501</v>
+        <v>3.0782162999939455</v>
       </c>
       <c r="C12">
-        <v>9.8996652355808235E-2</v>
+        <v>9.9802561563821363E-2</v>
       </c>
       <c r="D12">
-        <v>1102971015.430007</v>
+        <v>978225455.81800199</v>
       </c>
       <c r="E12">
-        <v>30.100837396429892</v>
+        <v>30.020264712271857</v>
       </c>
       <c r="F12">
-        <v>61.32517476011261</v>
+        <v>60.874625319891393</v>
       </c>
       <c r="G12">
-        <v>0.73623591304497005</v>
+        <v>0.69823817773265762</v>
       </c>
       <c r="H12">
-        <v>9.4738211295043158</v>
+        <v>5.2942953206266168</v>
       </c>
       <c r="I12">
-        <v>2.5759970095956632E-3</v>
+        <v>6.2410739733497573E-4</v>
       </c>
       <c r="J12">
-        <v>1.7329187971161708E-3</v>
+        <v>7.7935959548451738E-3</v>
       </c>
       <c r="K12">
-        <v>0.77129535803867644</v>
+        <v>0.77939519750869957</v>
       </c>
       <c r="L12">
-        <v>0.54281784974503888</v>
+        <v>0.77816846083135593</v>
       </c>
       <c r="M12">
-        <v>0.79235277616982902</v>
+        <v>0.88166915610345598</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.10823820219312952</v>
+        <v>0.10601660076756791</v>
       </c>
       <c r="L13">
         <v>-8.5382910294398817E-2</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.4821406027100523E-2</v>
+        <v>7.2690375408132502E-2</v>
       </c>
       <c r="L14">
         <v>-0.20364921711091011</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.6962743916606495E-2</v>
+        <v>5.4130836864196841E-2</v>
       </c>
       <c r="L15">
         <v>-0.17055078819364344</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.35047096196592775</v>
+        <v>0.35146614768476769</v>
       </c>
       <c r="L16">
         <v>0.98368675905432224</v>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA7ECD7-5B9E-4261-AB3F-C171F539BB48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7795D58-4BD9-4E60-91A3-D2079334AC6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -387,330 +387,330 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.1440386912840304E-2</v>
+        <v>5.3700214735372207E-3</v>
       </c>
       <c r="B1">
-        <v>0.49565056258015927</v>
+        <v>6.031231567714964E-2</v>
       </c>
       <c r="C1">
-        <v>9.9958486403788641E-2</v>
+        <v>5.9616172966515397E-2</v>
       </c>
       <c r="D1">
-        <v>295562842.63828558</v>
+        <v>373822858.08407307</v>
       </c>
       <c r="E1">
-        <v>30.007333053017643</v>
+        <v>30.513931577058379</v>
       </c>
       <c r="F1">
-        <v>54.884345453779154</v>
+        <v>54.569847305846679</v>
       </c>
       <c r="G1">
-        <v>0.37782256432557115</v>
+        <v>0.57805375445247453</v>
       </c>
       <c r="H1">
-        <v>9.9999753171922663</v>
+        <v>-0.67081044229684572</v>
       </c>
       <c r="I1">
-        <v>1.5284193793147917E-2</v>
+        <v>0.10404065079506752</v>
       </c>
       <c r="J1">
-        <v>9.347273948898363E-2</v>
+        <v>2.5194354697952101E-3</v>
       </c>
       <c r="K1">
-        <v>0.97574148988616938</v>
+        <v>0.97308344722310613</v>
       </c>
       <c r="L1">
-        <v>0.94357324530498876</v>
+        <v>0.96951613448558283</v>
       </c>
       <c r="M1">
-        <v>-0.48807107839730191</v>
+        <v>0.92740622688626584</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2.7120401622155203E-3</v>
+        <v>3.6756078211207808E-3</v>
       </c>
       <c r="B2">
-        <v>-0.36126863009075266</v>
+        <v>6.1942472936835878E-2</v>
       </c>
       <c r="C2">
-        <v>4.8060698575486727E-2</v>
+        <v>6.1748673777258373E-2</v>
       </c>
       <c r="D2">
-        <v>154280748.56200033</v>
+        <v>664424993.68292713</v>
       </c>
       <c r="E2">
-        <v>36.517931529860441</v>
+        <v>30.000012977443731</v>
       </c>
       <c r="F2">
-        <v>56.445421243458888</v>
+        <v>60.308778481663893</v>
       </c>
       <c r="G2">
-        <v>0.46565942347600586</v>
+        <v>2.4699392214827736</v>
       </c>
       <c r="H2">
-        <v>0.63780196842218284</v>
+        <v>-0.58634649862353205</v>
       </c>
       <c r="I2">
-        <v>3.4621105853416682E-5</v>
+        <v>9.0829942436084915E-3</v>
       </c>
       <c r="J2">
-        <v>7.5097597061353193E-6</v>
+        <v>5.669954560480366E-5</v>
       </c>
       <c r="K2">
-        <v>0.92955544593543438</v>
+        <v>0.98280507900047109</v>
       </c>
       <c r="L2">
-        <v>0.66523500227684074</v>
+        <v>0.99290169765233871</v>
       </c>
       <c r="M2">
-        <v>-2.0961005084669013</v>
+        <v>0.99565823438884493</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5.6819083470834864E-2</v>
+        <v>3.2196896038383133E-2</v>
       </c>
       <c r="B3">
-        <v>13.302842815715305</v>
+        <v>0.60048226353583634</v>
       </c>
       <c r="C3">
-        <v>9.9330058649682404E-2</v>
+        <v>5.9587569613366781E-2</v>
       </c>
       <c r="D3">
-        <v>249407203.85844174</v>
+        <v>190597866.44957572</v>
       </c>
       <c r="E3">
-        <v>31.457138454781006</v>
+        <v>34.731323721982506</v>
       </c>
       <c r="F3">
-        <v>56.118050574322375</v>
+        <v>55.932804241875779</v>
       </c>
       <c r="G3">
-        <v>3.5981354888243465E-2</v>
+        <v>-7.0336604876108752E-2</v>
       </c>
       <c r="H3">
-        <v>9.0260406122547927</v>
+        <v>1.0763392414934478</v>
       </c>
       <c r="I3">
-        <v>3.66764977501033E-3</v>
+        <v>4.3996531695329607E-14</v>
       </c>
       <c r="J3">
-        <v>9.8167824668004708E-2</v>
+        <v>3.8751357771914371E-3</v>
       </c>
       <c r="K3">
-        <v>0.93027712136451557</v>
+        <v>0.87909976389716704</v>
       </c>
       <c r="L3">
-        <v>0.29651402330969912</v>
+        <v>-2.2007522236715942</v>
       </c>
       <c r="M3">
-        <v>0.63637366557889907</v>
+        <v>0.77731674816508478</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.712689489805864E-2</v>
+        <v>3.6131085183917992E-2</v>
       </c>
       <c r="B4">
-        <v>1.3714933383333792</v>
+        <v>1.9409765300790582</v>
       </c>
       <c r="C4">
-        <v>8.7346457802709429E-2</v>
+        <v>4.6617066670816124E-2</v>
       </c>
       <c r="D4">
-        <v>200605589.58113173</v>
+        <v>211953889.13879028</v>
       </c>
       <c r="E4">
-        <v>35.582107525914203</v>
+        <v>36.58619738440516</v>
       </c>
       <c r="F4">
-        <v>66.188666613795604</v>
+        <v>65.18650737554924</v>
       </c>
       <c r="G4">
-        <v>4.6089882936936263E-5</v>
+        <v>2.5729944695814619E-2</v>
       </c>
       <c r="H4">
-        <v>0.81719541243335991</v>
+        <v>1.5483339498430657</v>
       </c>
       <c r="I4">
-        <v>0.10822344540187247</v>
+        <v>4.414529515650702E-14</v>
       </c>
       <c r="J4">
-        <v>3.1460189547888893E-2</v>
+        <v>3.5415718657769713E-3</v>
       </c>
       <c r="K4">
-        <v>0.99012870726610525</v>
+        <v>0.98984639742128433</v>
       </c>
       <c r="L4">
-        <v>0.97107671097477977</v>
+        <v>0.96908258848987472</v>
       </c>
       <c r="M4">
-        <v>0.99294200560831736</v>
+        <v>0.99435079318726083</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2.9608641831456684E-5</v>
+        <v>543.43916993372</v>
       </c>
       <c r="B5">
-        <v>-0.72281142087069294</v>
+        <v>46055.321170788855</v>
       </c>
       <c r="C5">
-        <v>5.8871789444177224E-2</v>
+        <v>4.7096663184076397E-2</v>
       </c>
       <c r="D5">
-        <v>245534921.51240683</v>
+        <v>562716432.91905081</v>
       </c>
       <c r="E5">
-        <v>30.029572498396881</v>
+        <v>30.033065268815015</v>
       </c>
       <c r="F5">
-        <v>52.965500124559483</v>
+        <v>52.628305543698282</v>
       </c>
       <c r="G5">
-        <v>6.6205718916834716E-2</v>
+        <v>-542.77883347094769</v>
       </c>
       <c r="H5">
-        <v>8.1888278378098924</v>
+        <v>25088.34294209825</v>
       </c>
       <c r="I5">
-        <v>2.3969090508505265E-3</v>
+        <v>4.4530672130115355E-14</v>
       </c>
       <c r="J5">
-        <v>4.086985569600337E-2</v>
+        <v>1.0395854339530037E-3</v>
       </c>
       <c r="K5">
-        <v>0.86872676107072355</v>
+        <v>0.87301226533548071</v>
       </c>
       <c r="L5">
-        <v>-0.43521669109845296</v>
+        <v>0.72964413756847835</v>
       </c>
       <c r="M5">
-        <v>-0.61758975116199988</v>
+        <v>-0.1577772855326296</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-1.3230881520724387E-5</v>
+        <v>1.2981550314608736E-2</v>
       </c>
       <c r="B6">
-        <v>-0.78489337783990254</v>
+        <v>0.23054975117875734</v>
       </c>
       <c r="C6">
-        <v>8.710743526393426E-2</v>
+        <v>5.9431684379846438E-2</v>
       </c>
       <c r="D6">
-        <v>206166475.98038509</v>
+        <v>622325727.0002557</v>
       </c>
       <c r="E6">
-        <v>35.184319395031473</v>
+        <v>30.129127296533856</v>
       </c>
       <c r="F6">
-        <v>55.432560546964417</v>
+        <v>60.04628869240981</v>
       </c>
       <c r="G6">
-        <v>4.3194295876404346E-2</v>
+        <v>0.80999267860373247</v>
       </c>
       <c r="H6">
-        <v>0.22490550034772616</v>
+        <v>-0.4991827540591437</v>
       </c>
       <c r="I6">
-        <v>4.7791216147433074E-3</v>
+        <v>2.4311962419741553E-2</v>
       </c>
       <c r="J6">
-        <v>7.1737755819651625E-2</v>
+        <v>4.973827259100643E-3</v>
       </c>
       <c r="K6">
-        <v>0.97053154606191161</v>
+        <v>0.99087509660367112</v>
       </c>
       <c r="L6">
-        <v>-0.70522118356909402</v>
+        <v>0.99037211659580016</v>
       </c>
       <c r="M6">
-        <v>-0.53451576285609681</v>
+        <v>0.98869806614748046</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4.0390256405453226E-2</v>
+        <v>1.6334321738836387E-2</v>
       </c>
       <c r="B7">
-        <v>0.3191779890306865</v>
+        <v>4.7524760895263606E-2</v>
       </c>
       <c r="C7">
-        <v>4.6889349217833505E-2</v>
+        <v>2.8211289689064407E-2</v>
       </c>
       <c r="D7">
-        <v>177945685.1172958</v>
+        <v>362546831.07866794</v>
       </c>
       <c r="E7">
-        <v>38.68527965278934</v>
+        <v>39.216598554015469</v>
       </c>
       <c r="F7">
-        <v>54.389723143295861</v>
+        <v>54.60546133670745</v>
       </c>
       <c r="G7">
-        <v>3.8324829743957262E-2</v>
+        <v>0.55510009030104401</v>
       </c>
       <c r="H7">
-        <v>7.5191169398032701E-3</v>
+        <v>-1.164224233089389</v>
       </c>
       <c r="I7">
-        <v>0.15609545590090443</v>
+        <v>0.62495708850913179</v>
       </c>
       <c r="J7">
-        <v>2.9227286724083251E-3</v>
+        <v>5.635341607033949E-4</v>
       </c>
       <c r="K7">
-        <v>0.99684532175112639</v>
+        <v>0.99707244742260692</v>
       </c>
       <c r="L7">
-        <v>0.93826073361584261</v>
+        <v>0.99299400254021786</v>
       </c>
       <c r="M7">
-        <v>0.79815707058722574</v>
+        <v>0.99651917064530393</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.5433609589332747E-2</v>
+        <v>0.01</v>
       </c>
       <c r="B8">
-        <v>0.2248120953199865</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <v>8.6814305824355842E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D8">
-        <v>313736434.43527311</v>
+        <v>150000000</v>
       </c>
       <c r="E8">
-        <v>34.293200552222373</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>62.606961317250672</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>0.13340528472058127</v>
+        <v>0.15</v>
       </c>
       <c r="H8">
-        <v>1.2200464342299471E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
-        <v>2.8267980053705608E-2</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3.9927307704885184E-3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9974947501641046</v>
+        <v>0.56561337461930816</v>
       </c>
       <c r="L8">
-        <v>0.98018026782951018</v>
+        <v>2.2261346504524937E-2</v>
       </c>
       <c r="M8">
-        <v>0.88487625956443938</v>
+        <v>-0.53575397547099546</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -756,125 +756,125 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.5232950610628815E-3</v>
+        <v>4.5794095407782074E-3</v>
       </c>
       <c r="B10">
-        <v>1.2141083972404731</v>
+        <v>0.19060625142122423</v>
       </c>
       <c r="C10">
-        <v>2.7874915534674586E-2</v>
+        <v>2.7405627391622153E-2</v>
       </c>
       <c r="D10">
-        <v>100000359.20397583</v>
+        <v>100010360.95050086</v>
       </c>
       <c r="E10">
-        <v>40.309714392356852</v>
+        <v>40.307694972198625</v>
       </c>
       <c r="F10">
-        <v>45.860540858324214</v>
+        <v>45.861919799801406</v>
       </c>
       <c r="G10">
-        <v>1.5024779318060649E-3</v>
+        <v>4.4702734088413673E-3</v>
       </c>
       <c r="H10">
-        <v>2.3837407607480294E-6</v>
+        <v>-0.61314262947489273</v>
       </c>
       <c r="I10">
-        <v>0.8986371888176754</v>
+        <v>0.19675108023433113</v>
       </c>
       <c r="J10">
-        <v>9.9882204667615909E-2</v>
+        <v>9.8021794296980963E-2</v>
       </c>
       <c r="K10">
-        <v>0.99116143178843219</v>
+        <v>0.99116214472521824</v>
       </c>
       <c r="L10">
-        <v>0.99279815658694825</v>
+        <v>0.98832563800478934</v>
       </c>
       <c r="M10">
-        <v>0.96116099727156035</v>
+        <v>0.99232176653623505</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.22762795461504831</v>
+        <v>0.14763038207092219</v>
       </c>
       <c r="B11">
-        <v>4.2535265926058408</v>
+        <v>2.6997034173672718</v>
       </c>
       <c r="C11">
-        <v>5.583387189061783E-2</v>
+        <v>6.3175622035278545E-2</v>
       </c>
       <c r="D11">
-        <v>192570108.45417479</v>
+        <v>158960735.03809363</v>
       </c>
       <c r="E11">
-        <v>30.000123938224252</v>
+        <v>30.006276974182075</v>
       </c>
       <c r="F11">
-        <v>59.457651373573249</v>
+        <v>59.464614792551203</v>
       </c>
       <c r="G11">
-        <v>2.2899629476418166</v>
+        <v>1.9249499650673452</v>
       </c>
       <c r="H11">
-        <v>9.9973668218250804</v>
+        <v>6.2915372280705011</v>
       </c>
       <c r="I11">
-        <v>5.3843188760794962E-2</v>
+        <v>6.8389282281395361E-2</v>
       </c>
       <c r="J11">
-        <v>5.2842847193436523E-4</v>
+        <v>1.1939993357467812E-2</v>
       </c>
       <c r="K11">
-        <v>0.94492769577785629</v>
+        <v>0.94487486667667075</v>
       </c>
       <c r="L11">
-        <v>0.95166691727919894</v>
+        <v>0.95169490397420198</v>
       </c>
       <c r="M11">
-        <v>0.84653415764886653</v>
+        <v>0.8466841218274721</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.11666514709222116</v>
+        <v>0.01</v>
       </c>
       <c r="B12">
-        <v>3.0782162999939455</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
-        <v>9.9802561563821363E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="D12">
-        <v>978225455.81800199</v>
+        <v>150000000</v>
       </c>
       <c r="E12">
-        <v>30.020264712271857</v>
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>60.874625319891393</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>0.69823817773265762</v>
+        <v>0.15</v>
       </c>
       <c r="H12">
-        <v>5.2942953206266168</v>
+        <v>0.6</v>
       </c>
       <c r="I12">
-        <v>6.2410739733497573E-4</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.7935959548451738E-3</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.77939519750869957</v>
+        <v>4.9082478487117998E-3</v>
       </c>
       <c r="L12">
-        <v>0.77816846083135593</v>
+        <v>-0.21407264410150395</v>
       </c>
       <c r="M12">
-        <v>0.88166915610345598</v>
+        <v>-0.66416993456433859</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7795D58-4BD9-4E60-91A3-D2079334AC6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3006D-396A-4858-A461-0EABC7A39BCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -387,658 +387,658 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5.3700214735372207E-3</v>
+        <v>1.0000000004200407E-4</v>
       </c>
       <c r="B1">
-        <v>6.031231567714964E-2</v>
+        <v>2.5999199066825449E-2</v>
       </c>
       <c r="C1">
-        <v>5.9616172966515397E-2</v>
+        <v>4.5337094612479381E-2</v>
       </c>
       <c r="D1">
-        <v>373822858.08407307</v>
+        <v>150051042.74125579</v>
       </c>
       <c r="E1">
-        <v>30.513931577058379</v>
+        <v>30.200738390273099</v>
       </c>
       <c r="F1">
-        <v>54.569847305846679</v>
+        <v>52.429561697718796</v>
       </c>
       <c r="G1">
-        <v>0.57805375445247453</v>
+        <v>2.3503953926105909E-14</v>
       </c>
       <c r="H1">
-        <v>-0.67081044229684572</v>
+        <v>0.59544112184144316</v>
       </c>
       <c r="I1">
-        <v>0.10404065079506752</v>
+        <v>6.1535020581943885E-3</v>
       </c>
       <c r="J1">
-        <v>2.5194354697952101E-3</v>
+        <v>6.772723344689259E-6</v>
       </c>
       <c r="K1">
-        <v>0.97308344722310613</v>
+        <v>0.96949840104266327</v>
       </c>
       <c r="L1">
-        <v>0.96951613448558283</v>
+        <v>-0.49306638370346012</v>
       </c>
       <c r="M1">
-        <v>0.92740622688626584</v>
+        <v>-0.69928252362742449</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3.6756078211207808E-3</v>
+        <v>7.2349937893170079E-3</v>
       </c>
       <c r="B2">
-        <v>6.1942472936835878E-2</v>
+        <v>0.31016695466413624</v>
       </c>
       <c r="C2">
-        <v>6.1748673777258373E-2</v>
+        <v>4.8616542313354626E-2</v>
       </c>
       <c r="D2">
-        <v>664424993.68292713</v>
+        <v>254800367.08372283</v>
       </c>
       <c r="E2">
-        <v>30.000012977443731</v>
+        <v>30.025584739404472</v>
       </c>
       <c r="F2">
-        <v>60.308778481663893</v>
+        <v>60.255254748468253</v>
       </c>
       <c r="G2">
-        <v>2.4699392214827736</v>
+        <v>0.8753582519130122</v>
       </c>
       <c r="H2">
-        <v>-0.58634649862353205</v>
+        <v>0.26866431961982734</v>
       </c>
       <c r="I2">
-        <v>9.0829942436084915E-3</v>
+        <v>4.2026759163526443E-6</v>
       </c>
       <c r="J2">
-        <v>5.669954560480366E-5</v>
+        <v>3.483585410102172E-5</v>
       </c>
       <c r="K2">
-        <v>0.98280507900047109</v>
+        <v>0.98257186998833945</v>
       </c>
       <c r="L2">
-        <v>0.99290169765233871</v>
+        <v>0.92755812393150383</v>
       </c>
       <c r="M2">
-        <v>0.99565823438884493</v>
+        <v>0.51595613224007097</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3.2196896038383133E-2</v>
+        <v>1.0000000002225827E-4</v>
       </c>
       <c r="B3">
-        <v>0.60048226353583634</v>
+        <v>1.0165936996063066E-2</v>
       </c>
       <c r="C3">
-        <v>5.9587569613366781E-2</v>
+        <v>4.5445067532555054E-2</v>
       </c>
       <c r="D3">
-        <v>190597866.44957572</v>
+        <v>150000105.93788049</v>
       </c>
       <c r="E3">
-        <v>34.731323721982506</v>
+        <v>36.272455679572722</v>
       </c>
       <c r="F3">
-        <v>55.932804241875779</v>
+        <v>52.287946926810186</v>
       </c>
       <c r="G3">
-        <v>-7.0336604876108752E-2</v>
+        <v>2.3330539731932203E-14</v>
       </c>
       <c r="H3">
-        <v>1.0763392414934478</v>
+        <v>0.59999685189836072</v>
       </c>
       <c r="I3">
-        <v>4.3996531695329607E-14</v>
+        <v>8.1776069520533361E-6</v>
       </c>
       <c r="J3">
-        <v>3.8751357771914371E-3</v>
+        <v>2.1550843287448077E-3</v>
       </c>
       <c r="K3">
-        <v>0.87909976389716704</v>
+        <v>0.77076967697899634</v>
       </c>
       <c r="L3">
-        <v>-2.2007522236715942</v>
+        <v>-0.53911458037838278</v>
       </c>
       <c r="M3">
-        <v>0.77731674816508478</v>
+        <v>-0.73657496101126596</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3.6131085183917992E-2</v>
+        <v>1.0000000002231741E-4</v>
       </c>
       <c r="B4">
-        <v>1.9409765300790582</v>
+        <v>1.0208397609236719E-2</v>
       </c>
       <c r="C4">
-        <v>4.6617066670816124E-2</v>
+        <v>4.5433941259353523E-2</v>
       </c>
       <c r="D4">
-        <v>211953889.13879028</v>
+        <v>150000310.13718903</v>
       </c>
       <c r="E4">
-        <v>36.58619738440516</v>
+        <v>42.080803172244494</v>
       </c>
       <c r="F4">
-        <v>65.18650737554924</v>
+        <v>57.063889827745115</v>
       </c>
       <c r="G4">
-        <v>2.5729944695814619E-2</v>
+        <v>2.4864129457870661E-14</v>
       </c>
       <c r="H4">
-        <v>1.5483339498430657</v>
+        <v>0.59999032808394559</v>
       </c>
       <c r="I4">
-        <v>4.414529515650702E-14</v>
+        <v>1.5002641406479561E-5</v>
       </c>
       <c r="J4">
-        <v>3.5415718657769713E-3</v>
+        <v>2.2040099058255732E-3</v>
       </c>
       <c r="K4">
-        <v>0.98984639742128433</v>
+        <v>0.94096482201741871</v>
       </c>
       <c r="L4">
-        <v>0.96908258848987472</v>
+        <v>-0.51308744140307105</v>
       </c>
       <c r="M4">
-        <v>0.99435079318726083</v>
+        <v>-0.55867789773326226</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>543.43916993372</v>
+        <v>1.0000000002224167E-4</v>
       </c>
       <c r="B5">
-        <v>46055.321170788855</v>
+        <v>1.0358933111103337E-2</v>
       </c>
       <c r="C5">
-        <v>4.7096663184076397E-2</v>
+        <v>4.5455777291659262E-2</v>
       </c>
       <c r="D5">
-        <v>562716432.91905081</v>
+        <v>150000064.36837882</v>
       </c>
       <c r="E5">
-        <v>30.033065268815015</v>
+        <v>35.429475836197291</v>
       </c>
       <c r="F5">
-        <v>52.628305543698282</v>
+        <v>51.282208357383311</v>
       </c>
       <c r="G5">
-        <v>-542.77883347094769</v>
+        <v>2.2959368026583736E-14</v>
       </c>
       <c r="H5">
-        <v>25088.34294209825</v>
+        <v>0.59999708593979983</v>
       </c>
       <c r="I5">
-        <v>4.4530672130115355E-14</v>
+        <v>8.7887515596040539E-7</v>
       </c>
       <c r="J5">
-        <v>1.0395854339530037E-3</v>
+        <v>2.1427824619856097E-3</v>
       </c>
       <c r="K5">
-        <v>0.87301226533548071</v>
+        <v>0.66943611717653306</v>
       </c>
       <c r="L5">
-        <v>0.72964413756847835</v>
+        <v>-0.50931480221125791</v>
       </c>
       <c r="M5">
-        <v>-0.1577772855326296</v>
+        <v>-0.57018565567069657</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.2981550314608736E-2</v>
+        <v>1.0000000002233415E-4</v>
       </c>
       <c r="B6">
-        <v>0.23054975117875734</v>
+        <v>1.0354160372415875E-2</v>
       </c>
       <c r="C6">
-        <v>5.9431684379846438E-2</v>
+        <v>4.5423751631699677E-2</v>
       </c>
       <c r="D6">
-        <v>622325727.0002557</v>
+        <v>150000130.72154206</v>
       </c>
       <c r="E6">
-        <v>30.129127296533856</v>
+        <v>37.223930590336622</v>
       </c>
       <c r="F6">
-        <v>60.04628869240981</v>
+        <v>51.653729351762557</v>
       </c>
       <c r="G6">
-        <v>0.80999267860373247</v>
+        <v>2.5370065585859287E-14</v>
       </c>
       <c r="H6">
-        <v>-0.4991827540591437</v>
+        <v>0.59998906543721109</v>
       </c>
       <c r="I6">
-        <v>2.4311962419741553E-2</v>
+        <v>4.7514536831624372E-6</v>
       </c>
       <c r="J6">
-        <v>4.973827259100643E-3</v>
+        <v>2.146518400025462E-3</v>
       </c>
       <c r="K6">
-        <v>0.99087509660367112</v>
+        <v>0.90595022661523561</v>
       </c>
       <c r="L6">
-        <v>0.99037211659580016</v>
+        <v>-0.55476895706741303</v>
       </c>
       <c r="M6">
-        <v>0.98869806614748046</v>
+        <v>-0.60928128943968973</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.6334321738836387E-2</v>
+        <v>4.3949326748739852E-2</v>
       </c>
       <c r="B7">
-        <v>4.7524760895263606E-2</v>
+        <v>0.52029836992906986</v>
       </c>
       <c r="C7">
-        <v>2.8211289689064407E-2</v>
+        <v>3.5127929606025433E-2</v>
       </c>
       <c r="D7">
-        <v>362546831.07866794</v>
+        <v>167031315.02645785</v>
       </c>
       <c r="E7">
-        <v>39.216598554015469</v>
+        <v>38.921159788497206</v>
       </c>
       <c r="F7">
-        <v>54.60546133670745</v>
+        <v>54.514373093130857</v>
       </c>
       <c r="G7">
-        <v>0.55510009030104401</v>
+        <v>3.3220014007090256E-12</v>
       </c>
       <c r="H7">
-        <v>-1.164224233089389</v>
+        <v>0.24370926095811904</v>
       </c>
       <c r="I7">
-        <v>0.62495708850913179</v>
+        <v>0.41778742603721808</v>
       </c>
       <c r="J7">
-        <v>5.635341607033949E-4</v>
+        <v>4.9692977436049645E-7</v>
       </c>
       <c r="K7">
-        <v>0.99707244742260692</v>
+        <v>0.99702926510373391</v>
       </c>
       <c r="L7">
-        <v>0.99299400254021786</v>
+        <v>0.94411591506115933</v>
       </c>
       <c r="M7">
-        <v>0.99651917064530393</v>
+        <v>0.79693513852082543</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.01</v>
+        <v>1.000000000223847E-4</v>
       </c>
       <c r="B8">
-        <v>0.01</v>
+        <v>9.975837554356189E-3</v>
       </c>
       <c r="C8">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5393023297652463E-2</v>
       </c>
       <c r="D8">
-        <v>150000000</v>
+        <v>150000104.14826077</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>40.694482850043144</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>54.0868539502628</v>
       </c>
       <c r="G8">
-        <v>0.15</v>
+        <v>2.7154321805668484E-14</v>
       </c>
       <c r="H8">
-        <v>0.6</v>
+        <v>0.59999539377279199</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.8921872581286608E-5</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.1842029496302222E-3</v>
       </c>
       <c r="K8">
-        <v>0.56561337461930816</v>
+        <v>0.84843861247920316</v>
       </c>
       <c r="L8">
-        <v>2.2261346504524937E-2</v>
+        <v>-0.49777429643210525</v>
       </c>
       <c r="M8">
-        <v>-0.53575397547099546</v>
+        <v>-0.5485732345049934</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.01</v>
+        <v>1.0000000002221964E-4</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>9.99891074427855E-3</v>
       </c>
       <c r="C9">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5451571721433881E-2</v>
       </c>
       <c r="D9">
-        <v>150000000</v>
+        <v>150000016.99057075</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>43.365238605671117</v>
       </c>
       <c r="F9">
-        <v>60</v>
+        <v>56.082561606948843</v>
       </c>
       <c r="G9">
-        <v>0.15</v>
+        <v>2.2500527573449023E-14</v>
       </c>
       <c r="H9">
-        <v>0.6</v>
+        <v>0.59999975041590137</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.1673589495303797E-6</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.2349114779343406E-3</v>
       </c>
       <c r="K9">
-        <v>6.3869368528193804E-2</v>
+        <v>0.26577405463025205</v>
       </c>
       <c r="L9">
-        <v>0.70949125465905305</v>
+        <v>-0.35818079583001161</v>
       </c>
       <c r="M9">
-        <v>-0.40648773058739929</v>
+        <v>-0.44984185955055822</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4.5794095407782074E-3</v>
+        <v>7.5963745155290113E-3</v>
       </c>
       <c r="B10">
-        <v>0.19060625142122423</v>
+        <v>1.2206981570078006</v>
       </c>
       <c r="C10">
-        <v>2.7405627391622153E-2</v>
+        <v>2.8393264414133448E-2</v>
       </c>
       <c r="D10">
-        <v>100010360.95050086</v>
+        <v>100000821.91427381</v>
       </c>
       <c r="E10">
-        <v>40.307694972198625</v>
+        <v>40.308858307296759</v>
       </c>
       <c r="F10">
-        <v>45.861919799801406</v>
+        <v>45.861540984734944</v>
       </c>
       <c r="G10">
-        <v>4.4702734088413673E-3</v>
+        <v>1.4230610827107152E-3</v>
       </c>
       <c r="H10">
-        <v>-0.61314262947489273</v>
+        <v>9.364078110130427E-3</v>
       </c>
       <c r="I10">
-        <v>0.19675108023433113</v>
+        <v>0.89776261878227415</v>
       </c>
       <c r="J10">
-        <v>9.8021794296980963E-2</v>
+        <v>9.990725774741227E-2</v>
       </c>
       <c r="K10">
-        <v>0.99116214472521824</v>
+        <v>0.99116142296851706</v>
       </c>
       <c r="L10">
-        <v>0.98832563800478934</v>
+        <v>0.99277120216525649</v>
       </c>
       <c r="M10">
-        <v>0.99232176653623505</v>
+        <v>0.96101635938080687</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.14763038207092219</v>
+        <v>3.5288910092637994E-2</v>
       </c>
       <c r="B11">
-        <v>2.6997034173672718</v>
+        <v>0.71282465918158855</v>
       </c>
       <c r="C11">
-        <v>6.3175622035278545E-2</v>
+        <v>3.0373481170051959E-2</v>
       </c>
       <c r="D11">
-        <v>158960735.03809363</v>
+        <v>158506227.79992354</v>
       </c>
       <c r="E11">
-        <v>30.006276974182075</v>
+        <v>30.000281635456471</v>
       </c>
       <c r="F11">
-        <v>59.464614792551203</v>
+        <v>59.448015374730666</v>
       </c>
       <c r="G11">
-        <v>1.9249499650673452</v>
+        <v>2.0311374210082391</v>
       </c>
       <c r="H11">
-        <v>6.2915372280705011</v>
+        <v>0.70163278652370376</v>
       </c>
       <c r="I11">
-        <v>6.8389282281395361E-2</v>
+        <v>0.6761632324664526</v>
       </c>
       <c r="J11">
-        <v>1.1939993357467812E-2</v>
+        <v>1.7736656090081997E-5</v>
       </c>
       <c r="K11">
-        <v>0.94487486667667075</v>
+        <v>0.94492216471923152</v>
       </c>
       <c r="L11">
-        <v>0.95169490397420198</v>
+        <v>0.95345550943150337</v>
       </c>
       <c r="M11">
-        <v>0.8466841218274721</v>
+        <v>0.85268035963861666</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.01</v>
+        <v>1.0000000002228757E-4</v>
       </c>
       <c r="B12">
-        <v>0.01</v>
+        <v>9.9911537807638624E-3</v>
       </c>
       <c r="C12">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5428461085543645E-2</v>
       </c>
       <c r="D12">
-        <v>150000000</v>
+        <v>150000052.37963778</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>39.189724282162636</v>
       </c>
       <c r="F12">
-        <v>60</v>
+        <v>54.945978383292939</v>
       </c>
       <c r="G12">
-        <v>0.15</v>
+        <v>2.404504331169536E-14</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>0.59999753406888989</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.5648983351732598E-6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.1994711996414407E-3</v>
       </c>
       <c r="K12">
-        <v>4.9082478487117998E-3</v>
+        <v>0.28557380543756561</v>
       </c>
       <c r="L12">
-        <v>-0.21407264410150395</v>
+        <v>-0.5620710242423459</v>
       </c>
       <c r="M12">
-        <v>-0.66416993456433859</v>
+        <v>-0.67242711449880543</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.01</v>
+        <v>1.0000000002225485E-4</v>
       </c>
       <c r="B13">
-        <v>0.01</v>
+        <v>9.991967765815948E-3</v>
       </c>
       <c r="C13">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5436017122414338E-2</v>
       </c>
       <c r="D13">
-        <v>150000000</v>
+        <v>150000057.54210895</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>42.31121219943018</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>54.851074934539319</v>
       </c>
       <c r="G13">
-        <v>0.15</v>
+        <v>2.3252119215215031E-14</v>
       </c>
       <c r="H13">
-        <v>0.6</v>
+        <v>0.59997235181215836</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.1517232934883539E-6</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.2213845843792749E-3</v>
       </c>
       <c r="K13">
-        <v>0.10601660076756791</v>
+        <v>0.32840793534052026</v>
       </c>
       <c r="L13">
-        <v>-8.5382910294398817E-2</v>
+        <v>-0.54309227761579648</v>
       </c>
       <c r="M13">
-        <v>-0.58657198030729907</v>
+        <v>-0.60270233357793934</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.01</v>
+        <v>1.0000000002226381E-4</v>
       </c>
       <c r="B14">
-        <v>0.01</v>
+        <v>9.9895163934579298E-3</v>
       </c>
       <c r="C14">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5430826392854173E-2</v>
       </c>
       <c r="D14">
-        <v>150000000</v>
+        <v>150000041.51164338</v>
       </c>
       <c r="E14">
-        <v>45</v>
+        <v>41.326522744433163</v>
       </c>
       <c r="F14">
-        <v>60</v>
+        <v>54.044763907877787</v>
       </c>
       <c r="G14">
-        <v>0.15</v>
+        <v>2.345945196305314E-14</v>
       </c>
       <c r="H14">
-        <v>0.6</v>
+        <v>0.59998340305728659</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7.6018322802250346E-6</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.210087869255555E-3</v>
       </c>
       <c r="K14">
-        <v>7.2690375408132502E-2</v>
+        <v>0.30552119362089014</v>
       </c>
       <c r="L14">
-        <v>-0.20364921711091011</v>
+        <v>-0.58009754217083165</v>
       </c>
       <c r="M14">
-        <v>-0.60379808485855624</v>
+        <v>-0.61782349358467181</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.01</v>
+        <v>1.0000000002226046E-4</v>
       </c>
       <c r="B15">
-        <v>0.01</v>
+        <v>9.9930054925361465E-3</v>
       </c>
       <c r="C15">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5434409547244231E-2</v>
       </c>
       <c r="D15">
-        <v>150000000</v>
+        <v>150000044.5235678</v>
       </c>
       <c r="E15">
-        <v>45</v>
+        <v>41.912374303423633</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>55.190921131135397</v>
       </c>
       <c r="G15">
-        <v>0.15</v>
+        <v>2.3381066737607774E-14</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>0.59999822620323862</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.5066705438810774E-6</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.2187056496047229E-3</v>
       </c>
       <c r="K15">
-        <v>5.4130836864196841E-2</v>
+        <v>0.29411523227446279</v>
       </c>
       <c r="L15">
-        <v>-0.17055078819364344</v>
+        <v>-0.6419429321962038</v>
       </c>
       <c r="M15">
-        <v>-0.69017504269983165</v>
+        <v>-0.69907497269129593</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.01</v>
+        <v>1.0000000002222357E-4</v>
       </c>
       <c r="B16">
-        <v>0.01</v>
+        <v>1.0013624284674887E-2</v>
       </c>
       <c r="C16">
-        <v>4.5454545454545456E-2</v>
+        <v>4.5451775021870866E-2</v>
       </c>
       <c r="D16">
-        <v>150000000</v>
+        <v>150000075.63524768</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>45.938614337129245</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>57.994752503347101</v>
       </c>
       <c r="G16">
-        <v>0.15</v>
+        <v>2.2579824910258041E-14</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.59999966324973553</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.5548494452954616E-6</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.2507764940887043E-3</v>
       </c>
       <c r="K16">
-        <v>0.35146614768476769</v>
+        <v>0.58158663110414355</v>
       </c>
       <c r="L16">
-        <v>0.98368675905432224</v>
+        <v>-0.36120289674096839</v>
       </c>
       <c r="M16">
-        <v>-0.35898968805249787</v>
+        <v>-0.47511415946992241</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3006D-396A-4858-A461-0EABC7A39BCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140716A9-9123-4C5A-A721-6D35E0F81009}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>kPL</t>
+  </si>
+  <si>
+    <t>kMCT4</t>
+  </si>
+  <si>
+    <t>R1L</t>
+  </si>
+  <si>
+    <t>Rinj</t>
+  </si>
+  <si>
+    <t>Tarrival</t>
+  </si>
+  <si>
+    <t>Tbolus</t>
+  </si>
+  <si>
+    <t>RsqP</t>
+  </si>
+  <si>
+    <t>RsqLin</t>
+  </si>
+  <si>
+    <t>RsqLex</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>kLinflux</t>
+  </si>
+  <si>
+    <t>kLP</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,7 +111,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -377,671 +429,1652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0000000004200407E-4</v>
+        <v>1.0000000002263672E-4</v>
       </c>
       <c r="B1">
-        <v>2.5999199066825449E-2</v>
+        <v>0.22951468649190832</v>
       </c>
       <c r="C1">
-        <v>4.5337094612479381E-2</v>
+        <v>4.5775824779844904E-2</v>
       </c>
       <c r="D1">
-        <v>150051042.74125579</v>
+        <v>150070051.10446662</v>
       </c>
       <c r="E1">
-        <v>30.200738390273099</v>
+        <v>30.134240832997389</v>
       </c>
       <c r="F1">
-        <v>52.429561697718796</v>
+        <v>52.642506565330741</v>
       </c>
       <c r="G1">
-        <v>2.3503953926105909E-14</v>
+        <v>1.0010159343973356E-8</v>
       </c>
       <c r="H1">
-        <v>0.59544112184144316</v>
+        <v>0.59371167036385641</v>
       </c>
       <c r="I1">
-        <v>6.1535020581943885E-3</v>
+        <v>3.8515489765632103E-3</v>
       </c>
       <c r="J1">
-        <v>6.772723344689259E-6</v>
+        <v>4.059271175018598E-4</v>
       </c>
       <c r="K1">
-        <v>0.96949840104266327</v>
+        <v>0.97011024416966474</v>
       </c>
       <c r="L1">
-        <v>-0.49306638370346012</v>
+        <v>-0.50366541605000581</v>
       </c>
       <c r="M1">
-        <v>-0.69928252362742449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.69033247787472485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7.2349937893170079E-3</v>
+        <v>8.7794900396407985E-3</v>
       </c>
       <c r="B2">
-        <v>0.31016695466413624</v>
+        <v>0.73610616601384415</v>
       </c>
       <c r="C2">
-        <v>4.8616542313354626E-2</v>
+        <v>5.5954771183635045E-2</v>
       </c>
       <c r="D2">
-        <v>254800367.08372283</v>
+        <v>272940518.28792214</v>
       </c>
       <c r="E2">
-        <v>30.025584739404472</v>
+        <v>30.003135626341017</v>
       </c>
       <c r="F2">
-        <v>60.255254748468253</v>
+        <v>60.292176834946446</v>
       </c>
       <c r="G2">
-        <v>0.8753582519130122</v>
+        <v>0.94996963238692356</v>
       </c>
       <c r="H2">
-        <v>0.26866431961982734</v>
+        <v>0.25852625722468325</v>
       </c>
       <c r="I2">
-        <v>4.2026759163526443E-6</v>
+        <v>7.7032193488074469E-2</v>
       </c>
       <c r="J2">
-        <v>3.483585410102172E-5</v>
+        <v>1.3523373793972431E-4</v>
       </c>
       <c r="K2">
-        <v>0.98257186998833945</v>
+        <v>0.98269683977326971</v>
       </c>
       <c r="L2">
-        <v>0.92755812393150383</v>
+        <v>0.99271139187025903</v>
       </c>
       <c r="M2">
-        <v>0.51595613224007097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.8504350080498555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0000000002225827E-4</v>
+        <v>1.0000000002225819E-4</v>
       </c>
       <c r="B3">
-        <v>1.0165936996063066E-2</v>
+        <v>1.168018464809442E-2</v>
       </c>
       <c r="C3">
-        <v>4.5445067532555054E-2</v>
+        <v>4.5445101740885341E-2</v>
       </c>
       <c r="D3">
-        <v>150000105.93788049</v>
+        <v>150000105.93339941</v>
       </c>
       <c r="E3">
-        <v>36.272455679572722</v>
+        <v>36.272698606305923</v>
       </c>
       <c r="F3">
-        <v>52.287946926810186</v>
+        <v>52.288186731233651</v>
       </c>
       <c r="G3">
-        <v>2.3330539731932203E-14</v>
+        <v>1.0000023328712434E-8</v>
       </c>
       <c r="H3">
-        <v>0.59999685189836072</v>
+        <v>0.59999669580114157</v>
       </c>
       <c r="I3">
-        <v>8.1776069520533361E-6</v>
+        <v>4.4766356973576248E-6</v>
       </c>
       <c r="J3">
-        <v>2.1550843287448077E-3</v>
+        <v>2.1530122834099263E-3</v>
       </c>
       <c r="K3">
-        <v>0.77076967697899634</v>
+        <v>0.7707650049451239</v>
       </c>
       <c r="L3">
-        <v>-0.53911458037838278</v>
+        <v>-0.53919441790267886</v>
       </c>
       <c r="M3">
-        <v>-0.73657496101126596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.73651292611536356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.0000000002231741E-4</v>
+        <v>1.0000000002231725E-4</v>
       </c>
       <c r="B4">
-        <v>1.0208397609236719E-2</v>
+        <v>1.2116164352249756E-2</v>
       </c>
       <c r="C4">
-        <v>4.5433941259353523E-2</v>
+        <v>4.5434014087241174E-2</v>
       </c>
       <c r="D4">
-        <v>150000310.13718903</v>
+        <v>150000310.08742458</v>
       </c>
       <c r="E4">
-        <v>42.080803172244494</v>
+        <v>42.080885527210441</v>
       </c>
       <c r="F4">
-        <v>57.063889827745115</v>
+        <v>57.063935002781996</v>
       </c>
       <c r="G4">
-        <v>2.4864129457870661E-14</v>
+        <v>1.0000024859779956E-8</v>
       </c>
       <c r="H4">
-        <v>0.59999032808394559</v>
+        <v>0.59998978970496408</v>
       </c>
       <c r="I4">
-        <v>1.5002641406479561E-5</v>
+        <v>1.1551012404022376E-5</v>
       </c>
       <c r="J4">
-        <v>2.2040099058255732E-3</v>
+        <v>2.2009773175408697E-3</v>
       </c>
       <c r="K4">
-        <v>0.94096482201741871</v>
+        <v>0.94096473804597303</v>
       </c>
       <c r="L4">
-        <v>-0.51308744140307105</v>
+        <v>-0.51317763533272376</v>
       </c>
       <c r="M4">
-        <v>-0.55867789773326226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.55862908369764464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.0000000002224167E-4</v>
+        <v>1.000000000222416E-4</v>
       </c>
       <c r="B5">
-        <v>1.0358933111103337E-2</v>
+        <v>1.3585653814047038E-2</v>
       </c>
       <c r="C5">
-        <v>4.5455777291659262E-2</v>
+        <v>4.5455805687793872E-2</v>
       </c>
       <c r="D5">
-        <v>150000064.36837882</v>
+        <v>150000064.37008849</v>
       </c>
       <c r="E5">
-        <v>35.429475836197291</v>
+        <v>35.429655879661134</v>
       </c>
       <c r="F5">
-        <v>51.282208357383311</v>
+        <v>51.282399598513621</v>
       </c>
       <c r="G5">
-        <v>2.2959368026583736E-14</v>
+        <v>1.0000022958046178E-8</v>
       </c>
       <c r="H5">
-        <v>0.59999708593979983</v>
+        <v>0.59999671639991425</v>
       </c>
       <c r="I5">
-        <v>8.7887515596040539E-7</v>
+        <v>1.6860939223953463E-6</v>
       </c>
       <c r="J5">
-        <v>2.1427824619856097E-3</v>
+        <v>2.1386812798772537E-3</v>
       </c>
       <c r="K5">
-        <v>0.66943611717653306</v>
+        <v>0.66943168635273931</v>
       </c>
       <c r="L5">
-        <v>-0.50931480221125791</v>
+        <v>-0.50950635809174183</v>
       </c>
       <c r="M5">
-        <v>-0.57018565567069657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.57009609207784995</v>
+      </c>
+      <c r="P5">
+        <f>0.0001</f>
+        <v>1E-4</v>
+      </c>
+      <c r="Q5">
+        <v>1E-4</v>
+      </c>
+      <c r="R5">
+        <f>1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="S5">
+        <f>10^8</f>
+        <v>100000000</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
+      </c>
+      <c r="U5">
+        <v>40</v>
+      </c>
+      <c r="V5">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="W5">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.0000000002233415E-4</v>
+        <v>1.0000000002233401E-4</v>
       </c>
       <c r="B6">
-        <v>1.0354160372415875E-2</v>
+        <v>1.3541616373833136E-2</v>
       </c>
       <c r="C6">
-        <v>4.5423751631699677E-2</v>
+        <v>4.5423844969102845E-2</v>
       </c>
       <c r="D6">
-        <v>150000130.72154206</v>
+        <v>150000130.72193909</v>
       </c>
       <c r="E6">
-        <v>37.223930590336622</v>
+        <v>37.224156774937796</v>
       </c>
       <c r="F6">
-        <v>51.653729351762557</v>
+        <v>51.653981238536204</v>
       </c>
       <c r="G6">
-        <v>2.5370065585859287E-14</v>
+        <v>1.0000025365985005E-8</v>
       </c>
       <c r="H6">
-        <v>0.59998906543721109</v>
+        <v>0.59998744989458219</v>
       </c>
       <c r="I6">
-        <v>4.7514536831624372E-6</v>
+        <v>1.2369020236539698E-5</v>
       </c>
       <c r="J6">
-        <v>2.146518400025462E-3</v>
+        <v>2.1420469005772125E-3</v>
       </c>
       <c r="K6">
-        <v>0.90595022661523561</v>
+        <v>0.90594816183066307</v>
       </c>
       <c r="L6">
-        <v>-0.55476895706741303</v>
+        <v>-0.55486705296461869</v>
       </c>
       <c r="M6">
-        <v>-0.60928128943968973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.60924534508818096</v>
+      </c>
+      <c r="P6">
+        <v>0.08</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="S6">
+        <f>10^100</f>
+        <v>1E+100</v>
+      </c>
+      <c r="T6">
+        <v>60</v>
+      </c>
+      <c r="U6">
+        <f>10^100</f>
+        <v>1E+100</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>0.9</v>
+      </c>
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4.3949326748739852E-2</v>
+        <v>3.9588785955356136E-2</v>
       </c>
       <c r="B7">
-        <v>0.52029836992906986</v>
+        <v>0.44093476926268954</v>
       </c>
       <c r="C7">
-        <v>3.5127929606025433E-2</v>
+        <v>3.1584932544742796E-2</v>
       </c>
       <c r="D7">
-        <v>167031315.02645785</v>
+        <v>201142158.86246035</v>
       </c>
       <c r="E7">
-        <v>38.921159788497206</v>
+        <v>39.02593939503263</v>
       </c>
       <c r="F7">
-        <v>54.514373093130857</v>
+        <v>54.572319758034247</v>
       </c>
       <c r="G7">
-        <v>3.3220014007090256E-12</v>
+        <v>0.10915188541071086</v>
       </c>
       <c r="H7">
-        <v>0.24370926095811904</v>
+        <v>4.6414848479006107E-2</v>
       </c>
       <c r="I7">
-        <v>0.41778742603721808</v>
+        <v>0.45956676775347594</v>
       </c>
       <c r="J7">
-        <v>4.9692977436049645E-7</v>
+        <v>1.7052455938867072E-2</v>
       </c>
       <c r="K7">
-        <v>0.99702926510373391</v>
+        <v>0.9970451409041643</v>
       </c>
       <c r="L7">
-        <v>0.94411591506115933</v>
+        <v>0.94601447753461343</v>
       </c>
       <c r="M7">
-        <v>0.79693513852082543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.80258042931731932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.000000000223847E-4</v>
       </c>
       <c r="B8">
-        <v>9.975837554356189E-3</v>
+        <v>9.9758353647205703E-3</v>
       </c>
       <c r="C8">
-        <v>4.5393023297652463E-2</v>
+        <v>4.5393016648139731E-2</v>
       </c>
       <c r="D8">
-        <v>150000104.14826077</v>
+        <v>150000104.14825433</v>
       </c>
       <c r="E8">
-        <v>40.694482850043144</v>
+        <v>40.69448290515124</v>
       </c>
       <c r="F8">
-        <v>54.0868539502628</v>
+        <v>54.086853900209732</v>
       </c>
       <c r="G8">
-        <v>2.7154321805668484E-14</v>
+        <v>1.0000027154321613E-8</v>
       </c>
       <c r="H8">
-        <v>0.59999539377279199</v>
+        <v>0.59999539439410121</v>
       </c>
       <c r="I8">
-        <v>1.8921872581286608E-5</v>
+        <v>1.8637940493231069E-5</v>
       </c>
       <c r="J8">
-        <v>2.1842029496302222E-3</v>
+        <v>2.1842033952644566E-3</v>
       </c>
       <c r="K8">
-        <v>0.84843861247920316</v>
+        <v>0.8484386003317046</v>
       </c>
       <c r="L8">
-        <v>-0.49777429643210525</v>
+        <v>-0.49777429648278559</v>
       </c>
       <c r="M8">
-        <v>-0.5485732345049934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.54857323450437456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.0000000002221964E-4</v>
       </c>
       <c r="B9">
-        <v>9.99891074427855E-3</v>
+        <v>9.9989099432954715E-3</v>
       </c>
       <c r="C9">
-        <v>4.5451571721433881E-2</v>
+        <v>4.5451568996880021E-2</v>
       </c>
       <c r="D9">
-        <v>150000016.99057075</v>
+        <v>150000016.99057072</v>
       </c>
       <c r="E9">
-        <v>43.365238605671117</v>
+        <v>43.365238516584157</v>
       </c>
       <c r="F9">
-        <v>56.082561606948843</v>
+        <v>56.082561564264026</v>
       </c>
       <c r="G9">
-        <v>2.2500527573449023E-14</v>
+        <v>1.000002250052758E-8</v>
       </c>
       <c r="H9">
-        <v>0.59999975041590137</v>
+        <v>0.59999975037284203</v>
       </c>
       <c r="I9">
-        <v>1.1673589495303797E-6</v>
+        <v>1.1920570599224305E-6</v>
       </c>
       <c r="J9">
-        <v>2.2349114779343406E-3</v>
+        <v>2.2349328744016919E-3</v>
       </c>
       <c r="K9">
-        <v>0.26577405463025205</v>
+        <v>0.26577404181876341</v>
       </c>
       <c r="L9">
-        <v>-0.35818079583001161</v>
+        <v>-0.35818079674493597</v>
       </c>
       <c r="M9">
-        <v>-0.44984185955055822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.44984185963235412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.5963745155290113E-3</v>
+        <v>7.63882618851778E-3</v>
       </c>
       <c r="B10">
-        <v>1.2206981570078006</v>
+        <v>1.2223645190608059</v>
       </c>
       <c r="C10">
-        <v>2.8393264414133448E-2</v>
+        <v>3.4292704072186646E-2</v>
       </c>
       <c r="D10">
-        <v>100000821.91427381</v>
+        <v>100000501.05427535</v>
       </c>
       <c r="E10">
-        <v>40.308858307296759</v>
+        <v>40.309281355605009</v>
       </c>
       <c r="F10">
-        <v>45.861540984734944</v>
+        <v>45.861333067140805</v>
       </c>
       <c r="G10">
-        <v>1.4230610827107152E-3</v>
+        <v>1.3819037508897966E-3</v>
       </c>
       <c r="H10">
-        <v>9.364078110130427E-3</v>
+        <v>1.0934335767538515E-2</v>
       </c>
       <c r="I10">
-        <v>0.89776261878227415</v>
+        <v>0.89987961135078454</v>
       </c>
       <c r="J10">
-        <v>9.990725774741227E-2</v>
+        <v>9.98562442943563E-2</v>
       </c>
       <c r="K10">
-        <v>0.99116142296851706</v>
+        <v>0.99116141785879464</v>
       </c>
       <c r="L10">
-        <v>0.99277120216525649</v>
+        <v>0.99278192521489783</v>
       </c>
       <c r="M10">
-        <v>0.96101635938080687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.96091718398862713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3.5288910092637994E-2</v>
+        <v>2.6231107957965526E-2</v>
       </c>
       <c r="B11">
-        <v>0.71282465918158855</v>
+        <v>0.43430440294003353</v>
       </c>
       <c r="C11">
-        <v>3.0373481170051959E-2</v>
+        <v>2.6316924709073212E-2</v>
       </c>
       <c r="D11">
-        <v>158506227.79992354</v>
+        <v>161355137.08461508</v>
       </c>
       <c r="E11">
-        <v>30.000281635456471</v>
+        <v>30.000013512854949</v>
       </c>
       <c r="F11">
-        <v>59.448015374730666</v>
+        <v>59.456118869918861</v>
       </c>
       <c r="G11">
-        <v>2.0311374210082391</v>
+        <v>2.078062290947623</v>
       </c>
       <c r="H11">
-        <v>0.70163278652370376</v>
+        <v>3.5936948746318212E-2</v>
       </c>
       <c r="I11">
-        <v>0.6761632324664526</v>
+        <v>0.55478952694413142</v>
       </c>
       <c r="J11">
-        <v>1.7736656090081997E-5</v>
+        <v>1.6977555088215337E-8</v>
       </c>
       <c r="K11">
-        <v>0.94492216471923152</v>
+        <v>0.9449246964116641</v>
       </c>
       <c r="L11">
-        <v>0.95345550943150337</v>
+        <v>0.95526463871119494</v>
       </c>
       <c r="M11">
-        <v>0.85268035963861666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.86032786169601416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.0000000002228757E-4</v>
+        <v>1.0000000002228758E-4</v>
       </c>
       <c r="B12">
-        <v>9.9911537807638624E-3</v>
+        <v>9.9911566644613203E-3</v>
       </c>
       <c r="C12">
-        <v>4.5428461085543645E-2</v>
+        <v>4.5428466123157096E-2</v>
       </c>
       <c r="D12">
-        <v>150000052.37963778</v>
+        <v>150000052.37963644</v>
       </c>
       <c r="E12">
-        <v>39.189724282162636</v>
+        <v>39.189724349240656</v>
       </c>
       <c r="F12">
-        <v>54.945978383292939</v>
+        <v>54.945978386528097</v>
       </c>
       <c r="G12">
-        <v>2.404504331169536E-14</v>
+        <v>1.0000024045043238E-8</v>
       </c>
       <c r="H12">
-        <v>0.59999753406888989</v>
+        <v>0.5999975286847643</v>
       </c>
       <c r="I12">
-        <v>6.5648983351732598E-6</v>
+        <v>6.4062076493416227E-6</v>
       </c>
       <c r="J12">
-        <v>2.1994711996414407E-3</v>
+        <v>2.1994919470514273E-3</v>
       </c>
       <c r="K12">
-        <v>0.28557380543756561</v>
+        <v>0.28557379144447981</v>
       </c>
       <c r="L12">
-        <v>-0.5620710242423459</v>
+        <v>-0.5620710246235292</v>
       </c>
       <c r="M12">
-        <v>-0.67242711449880543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.67242711445539016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.0000000002225485E-4</v>
       </c>
       <c r="B13">
-        <v>9.991967765815948E-3</v>
+        <v>9.9919699660476063E-3</v>
       </c>
       <c r="C13">
-        <v>4.5436017122414338E-2</v>
+        <v>4.5436022645032041E-2</v>
       </c>
       <c r="D13">
-        <v>150000057.54210895</v>
+        <v>150000057.54211259</v>
       </c>
       <c r="E13">
-        <v>42.31121219943018</v>
+        <v>42.311212103228257</v>
       </c>
       <c r="F13">
-        <v>54.851074934539319</v>
+        <v>54.851074753491545</v>
       </c>
       <c r="G13">
-        <v>2.3252119215215031E-14</v>
+        <v>1.0000023252119197E-8</v>
       </c>
       <c r="H13">
-        <v>0.59997235181215836</v>
+        <v>0.59999910602994699</v>
       </c>
       <c r="I13">
-        <v>6.1517232934883539E-6</v>
+        <v>6.4741277720463555E-6</v>
       </c>
       <c r="J13">
-        <v>2.2213845843792749E-3</v>
+        <v>2.2213741810585886E-3</v>
       </c>
       <c r="K13">
-        <v>0.32840793534052026</v>
+        <v>0.32840792378048955</v>
       </c>
       <c r="L13">
-        <v>-0.54309227761579648</v>
+        <v>-0.54309227766117907</v>
       </c>
       <c r="M13">
-        <v>-0.60270233357793934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.60270233799741635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.0000000002226381E-4</v>
       </c>
       <c r="B14">
-        <v>9.9895163934579298E-3</v>
+        <v>9.9895132608513095E-3</v>
       </c>
       <c r="C14">
-        <v>4.5430826392854173E-2</v>
+        <v>4.5430823588801246E-2</v>
       </c>
       <c r="D14">
-        <v>150000041.51164338</v>
+        <v>150000041.5116455</v>
       </c>
       <c r="E14">
-        <v>41.326522744433163</v>
+        <v>41.326522620512215</v>
       </c>
       <c r="F14">
-        <v>54.044763907877787</v>
+        <v>54.044763689926299</v>
       </c>
       <c r="G14">
-        <v>2.345945196305314E-14</v>
+        <v>1.000002345945212E-8</v>
       </c>
       <c r="H14">
-        <v>0.59998340305728659</v>
+        <v>0.59999904890012645</v>
       </c>
       <c r="I14">
-        <v>7.6018322802250346E-6</v>
+        <v>7.5257796094178982E-6</v>
       </c>
       <c r="J14">
-        <v>2.210087869255555E-3</v>
+        <v>2.2101061262962823E-3</v>
       </c>
       <c r="K14">
-        <v>0.30552119362089014</v>
+        <v>0.30552118333152123</v>
       </c>
       <c r="L14">
-        <v>-0.58009754217083165</v>
+        <v>-0.58009754236223499</v>
       </c>
       <c r="M14">
-        <v>-0.61782349358467181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.6178234958693114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.0000000002226046E-4</v>
       </c>
       <c r="B15">
-        <v>9.9930054925361465E-3</v>
+        <v>9.9930052007022006E-3</v>
       </c>
       <c r="C15">
-        <v>4.5434409547244231E-2</v>
+        <v>4.5434410750420873E-2</v>
       </c>
       <c r="D15">
-        <v>150000044.5235678</v>
+        <v>150000044.52356648</v>
       </c>
       <c r="E15">
-        <v>41.912374303423633</v>
+        <v>41.912374297185821</v>
       </c>
       <c r="F15">
-        <v>55.190921131135397</v>
+        <v>55.190921108250592</v>
       </c>
       <c r="G15">
-        <v>2.3381066737607774E-14</v>
+        <v>1.000002338106682E-8</v>
       </c>
       <c r="H15">
-        <v>0.59999822620323862</v>
+        <v>0.59999822546205273</v>
       </c>
       <c r="I15">
-        <v>5.5066705438810774E-6</v>
+        <v>5.1971069633912298E-6</v>
       </c>
       <c r="J15">
-        <v>2.2187056496047229E-3</v>
+        <v>2.2187095497162982E-3</v>
       </c>
       <c r="K15">
-        <v>0.29411523227446279</v>
+        <v>0.29411521834903265</v>
       </c>
       <c r="L15">
-        <v>-0.6419429321962038</v>
+        <v>-0.6419429323885566</v>
       </c>
       <c r="M15">
-        <v>-0.69907497269129593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.6990749726692691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1.0000000002222357E-4</v>
+        <v>1.0000000002222356E-4</v>
       </c>
       <c r="B16">
-        <v>1.0013624284674887E-2</v>
+        <v>1.0147310572175711E-2</v>
       </c>
       <c r="C16">
-        <v>4.5451775021870866E-2</v>
+        <v>4.5451776131965202E-2</v>
       </c>
       <c r="D16">
-        <v>150000075.63524768</v>
+        <v>150000075.63443941</v>
       </c>
       <c r="E16">
-        <v>45.938614337129245</v>
+        <v>45.938611386938653</v>
       </c>
       <c r="F16">
-        <v>57.994752503347101</v>
+        <v>57.994757811078131</v>
       </c>
       <c r="G16">
-        <v>2.2579824910258041E-14</v>
+        <v>1.0000022579755664E-8</v>
       </c>
       <c r="H16">
-        <v>0.59999966324973553</v>
+        <v>0.59999966158746143</v>
       </c>
       <c r="I16">
-        <v>1.5548494452954616E-6</v>
+        <v>2.230488874245846E-6</v>
       </c>
       <c r="J16">
-        <v>2.2507764940887043E-3</v>
+        <v>2.250602917560577E-3</v>
       </c>
       <c r="K16">
-        <v>0.58158663110414355</v>
+        <v>0.58158659077802999</v>
       </c>
       <c r="L16">
-        <v>-0.36120289674096839</v>
+        <v>-0.361210014434455</v>
       </c>
       <c r="M16">
-        <v>-0.47511415946992241</v>
+        <v>-0.47509414319800469</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N17" t="str">
+        <f>_xlfn.IFS(ABS(A1-P$5)&lt;=0.01*P$5,"Lower",ABS(A1-P$6)&lt;=0.01*P$6,"Upper",TRUE,"Ok")</f>
+        <v>Lower</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ref="O17:Z32" si="0">_xlfn.IFS(ABS(B1-Q$5)&lt;=0.01*Q$5,"Lower",ABS(B1-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="18" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N18" t="str">
+        <f t="shared" ref="N18:N32" si="1">_xlfn.IFS(ABS(A2-P$5)&lt;=0.01*P$5,"Lower",ABS(A2-P$6)&lt;=0.01*P$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="19" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="20" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="21" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="22" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="23" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="24" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="25" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="26" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="0"/>
+        <v>Upper</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="0"/>
+        <v>Upper</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="27" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="28" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="29" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="30" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="31" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+    </row>
+    <row r="32" spans="14:26" x14ac:dyDescent="0.3">
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N17:Z32">
+    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="Ok">
+      <formula>ISERROR(SEARCH("Ok",N17))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140716A9-9123-4C5A-A721-6D35E0F81009}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716CACF-41EB-40AB-84CB-B586BF1CC6EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,207 +443,207 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0000000002263672E-4</v>
+        <v>1.0000000002246367E-4</v>
       </c>
       <c r="B1">
-        <v>0.22951468649190832</v>
+        <v>1.3285975171052873E-2</v>
       </c>
       <c r="C1">
-        <v>4.5775824779844904E-2</v>
+        <v>4.5410137928182014E-2</v>
       </c>
       <c r="D1">
-        <v>150070051.10446662</v>
+        <v>150000189.85702357</v>
       </c>
       <c r="E1">
-        <v>30.134240832997389</v>
+        <v>27.864607276962733</v>
       </c>
       <c r="F1">
-        <v>52.642506565330741</v>
+        <v>54.780848970299019</v>
       </c>
       <c r="G1">
-        <v>1.0010159343973356E-8</v>
+        <v>1.0000031066132442E-8</v>
       </c>
       <c r="H1">
-        <v>0.59371167036385641</v>
+        <v>0.59997658802644682</v>
       </c>
       <c r="I1">
-        <v>3.8515489765632103E-3</v>
+        <v>3.5252117786944458E-5</v>
       </c>
       <c r="J1">
-        <v>4.059271175018598E-4</v>
+        <v>2.0593439124861734E-3</v>
       </c>
       <c r="K1">
-        <v>0.97011024416966474</v>
+        <v>0.97747298300119134</v>
       </c>
       <c r="L1">
-        <v>-0.50366541605000581</v>
+        <v>-0.49344324702422182</v>
       </c>
       <c r="M1">
-        <v>-0.69033247787472485</v>
+        <v>-0.7000409581160838</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8.7794900396407985E-3</v>
+        <v>8.6661738012672254E-3</v>
       </c>
       <c r="B2">
-        <v>0.73610616601384415</v>
+        <v>0.55138682912517523</v>
       </c>
       <c r="C2">
-        <v>5.5954771183635045E-2</v>
+        <v>2.9037123200575041E-2</v>
       </c>
       <c r="D2">
-        <v>272940518.28792214</v>
+        <v>119779666.15910518</v>
       </c>
       <c r="E2">
-        <v>30.003135626341017</v>
+        <v>23.725269400855069</v>
       </c>
       <c r="F2">
-        <v>60.292176834946446</v>
+        <v>66.797791756301621</v>
       </c>
       <c r="G2">
-        <v>0.94996963238692356</v>
+        <v>0.20082226663264988</v>
       </c>
       <c r="H2">
-        <v>0.25852625722468325</v>
+        <v>9.8559033304461089E-3</v>
       </c>
       <c r="I2">
-        <v>7.7032193488074469E-2</v>
+        <v>5.9333725380924401E-4</v>
       </c>
       <c r="J2">
-        <v>1.3523373793972431E-4</v>
+        <v>2.0300946260441272E-3</v>
       </c>
       <c r="K2">
-        <v>0.98269683977326971</v>
+        <v>0.99574120770731744</v>
       </c>
       <c r="L2">
-        <v>0.99271139187025903</v>
+        <v>0.98234265166820556</v>
       </c>
       <c r="M2">
-        <v>0.8504350080498555</v>
+        <v>0.85119438142528137</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0000000002225819E-4</v>
+        <v>1.0000000002225244E-4</v>
       </c>
       <c r="B3">
-        <v>1.168018464809442E-2</v>
+        <v>1.1276816868432057E-2</v>
       </c>
       <c r="C3">
-        <v>4.5445101740885341E-2</v>
+        <v>4.5445811351612325E-2</v>
       </c>
       <c r="D3">
-        <v>150000105.93339941</v>
+        <v>150000064.9195846</v>
       </c>
       <c r="E3">
-        <v>36.272698606305923</v>
+        <v>31.724804762290479</v>
       </c>
       <c r="F3">
-        <v>52.288186731233651</v>
+        <v>54.138341213074924</v>
       </c>
       <c r="G3">
-        <v>1.0000023328712434E-8</v>
+        <v>1.000002319736726E-8</v>
       </c>
       <c r="H3">
-        <v>0.59999669580114157</v>
+        <v>0.59999767516501779</v>
       </c>
       <c r="I3">
-        <v>4.4766356973576248E-6</v>
+        <v>4.2762327658428232E-6</v>
       </c>
       <c r="J3">
-        <v>2.1530122834099263E-3</v>
+        <v>2.1777410517568661E-3</v>
       </c>
       <c r="K3">
-        <v>0.7707650049451239</v>
+        <v>0.80577342477386971</v>
       </c>
       <c r="L3">
-        <v>-0.53919441790267886</v>
+        <v>-0.53941290306549528</v>
       </c>
       <c r="M3">
-        <v>-0.73651292611536356</v>
+        <v>-0.73654476567460114</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.0000000002231725E-4</v>
+        <v>1.0000000002230694E-4</v>
       </c>
       <c r="B4">
-        <v>1.2116164352249756E-2</v>
+        <v>1.1923457734909134E-2</v>
       </c>
       <c r="C4">
-        <v>4.5434014087241174E-2</v>
+        <v>4.5434921242829877E-2</v>
       </c>
       <c r="D4">
-        <v>150000310.08742458</v>
+        <v>150000239.15305385</v>
       </c>
       <c r="E4">
-        <v>42.080885527210441</v>
+        <v>40.223257240810938</v>
       </c>
       <c r="F4">
-        <v>57.063935002781996</v>
+        <v>58.920625547013493</v>
       </c>
       <c r="G4">
-        <v>1.0000024859779956E-8</v>
+        <v>1.0000024565277651E-8</v>
       </c>
       <c r="H4">
-        <v>0.59998978970496408</v>
+        <v>0.59999191750123682</v>
       </c>
       <c r="I4">
-        <v>1.1551012404022376E-5</v>
+        <v>8.4393671752232924E-6</v>
       </c>
       <c r="J4">
-        <v>2.2009773175408697E-3</v>
+        <v>2.2245635329467745E-3</v>
       </c>
       <c r="K4">
-        <v>0.94096473804597303</v>
+        <v>0.94052103268490395</v>
       </c>
       <c r="L4">
-        <v>-0.51317763533272376</v>
+        <v>-0.5135081540415023</v>
       </c>
       <c r="M4">
-        <v>-0.55862908369764464</v>
+        <v>-0.55863801367132693</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.000000000222416E-4</v>
+        <v>1.0000000002223794E-4</v>
       </c>
       <c r="B5">
-        <v>1.3585653814047038E-2</v>
+        <v>1.2953341672327022E-2</v>
       </c>
       <c r="C5">
-        <v>4.5455805687793872E-2</v>
+        <v>4.5454232198170089E-2</v>
       </c>
       <c r="D5">
-        <v>150000064.37008849</v>
+        <v>150000061.27472425</v>
       </c>
       <c r="E5">
-        <v>35.429655879661134</v>
+        <v>30.13531567047368</v>
       </c>
       <c r="F5">
-        <v>51.282399598513621</v>
+        <v>53.099336295663889</v>
       </c>
       <c r="G5">
-        <v>1.0000022958046178E-8</v>
+        <v>1.0000022878916901E-8</v>
       </c>
       <c r="H5">
-        <v>0.59999671639991425</v>
+        <v>0.59999727561987581</v>
       </c>
       <c r="I5">
-        <v>1.6860939223953463E-6</v>
+        <v>1.1164378939968163E-6</v>
       </c>
       <c r="J5">
-        <v>2.1386812798772537E-3</v>
+        <v>2.1670145505032884E-3</v>
       </c>
       <c r="K5">
-        <v>0.66943168635273931</v>
+        <v>0.72742231695528181</v>
       </c>
       <c r="L5">
-        <v>-0.50950635809174183</v>
+        <v>-0.50812670802918358</v>
       </c>
       <c r="M5">
-        <v>-0.57009609207784995</v>
+        <v>-0.57010968486757618</v>
       </c>
       <c r="P5">
         <f>0.0001</f>
@@ -661,7 +661,7 @@
         <v>100000000</v>
       </c>
       <c r="T5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U5">
         <v>40</v>
@@ -683,43 +683,43 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.0000000002233401E-4</v>
+        <v>1.0000000002232024E-4</v>
       </c>
       <c r="B6">
-        <v>1.3541616373833136E-2</v>
+        <v>1.2754881983591192E-2</v>
       </c>
       <c r="C6">
-        <v>4.5423844969102845E-2</v>
+        <v>4.5426718009964652E-2</v>
       </c>
       <c r="D6">
-        <v>150000130.72193909</v>
+        <v>150000126.61099541</v>
       </c>
       <c r="E6">
-        <v>37.224156774937796</v>
+        <v>33.849702615348249</v>
       </c>
       <c r="F6">
-        <v>51.653981238536204</v>
+        <v>54.057395301640149</v>
       </c>
       <c r="G6">
-        <v>1.0000025365985005E-8</v>
+        <v>1.0000024947115184E-8</v>
       </c>
       <c r="H6">
-        <v>0.59998744989458219</v>
+        <v>0.59998958714933626</v>
       </c>
       <c r="I6">
-        <v>1.2369020236539698E-5</v>
+        <v>3.6852456601258068E-6</v>
       </c>
       <c r="J6">
-        <v>2.1420469005772125E-3</v>
+        <v>2.1771367654063742E-3</v>
       </c>
       <c r="K6">
-        <v>0.90594816183066307</v>
+        <v>0.90983020278869997</v>
       </c>
       <c r="L6">
-        <v>-0.55486705296461869</v>
+        <v>-0.55509703523853116</v>
       </c>
       <c r="M6">
-        <v>-0.60924534508818096</v>
+        <v>-0.60925714656751584</v>
       </c>
       <c r="P6">
         <v>0.08</v>
@@ -757,412 +757,412 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3.9588785955356136E-2</v>
+        <v>1.0838045914027154E-2</v>
       </c>
       <c r="B7">
-        <v>0.44093476926268954</v>
+        <v>6.4573083837011621E-3</v>
       </c>
       <c r="C7">
-        <v>3.1584932544742796E-2</v>
+        <v>3.6328217467279614E-2</v>
       </c>
       <c r="D7">
-        <v>201142158.86246035</v>
+        <v>150167675.68179601</v>
       </c>
       <c r="E7">
-        <v>39.02593939503263</v>
+        <v>39.349767877357422</v>
       </c>
       <c r="F7">
-        <v>54.572319758034247</v>
+        <v>53.622138874369853</v>
       </c>
       <c r="G7">
-        <v>0.10915188541071086</v>
+        <v>1.0000023371612956E-8</v>
       </c>
       <c r="H7">
-        <v>4.6414848479006107E-2</v>
+        <v>0.59093617805999521</v>
       </c>
       <c r="I7">
-        <v>0.45956676775347594</v>
+        <v>4.4722197271424057E-4</v>
       </c>
       <c r="J7">
-        <v>1.7052455938867072E-2</v>
+        <v>1.4842614835726567E-3</v>
       </c>
       <c r="K7">
-        <v>0.9970451409041643</v>
+        <v>0.99519687803839696</v>
       </c>
       <c r="L7">
-        <v>0.94601447753461343</v>
+        <v>0.37065768000301202</v>
       </c>
       <c r="M7">
-        <v>0.80258042931731932</v>
+        <v>-0.4973145661254601</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.000000000223847E-4</v>
+        <v>1.0000000002237555E-4</v>
       </c>
       <c r="B8">
-        <v>9.9758353647205703E-3</v>
+        <v>9.977035289958993E-3</v>
       </c>
       <c r="C8">
-        <v>4.5393016648139731E-2</v>
+        <v>4.5396596646422066E-2</v>
       </c>
       <c r="D8">
-        <v>150000104.14825433</v>
+        <v>150000110.42974392</v>
       </c>
       <c r="E8">
-        <v>40.69448290515124</v>
+        <v>38.052157675133742</v>
       </c>
       <c r="F8">
-        <v>54.086853900209732</v>
+        <v>55.883937936202393</v>
       </c>
       <c r="G8">
-        <v>1.0000027154321613E-8</v>
+        <v>1.0000026799409753E-8</v>
       </c>
       <c r="H8">
-        <v>0.59999539439410121</v>
+        <v>0.59999573435467635</v>
       </c>
       <c r="I8">
-        <v>1.8637940493231069E-5</v>
+        <v>1.8028253437368054E-5</v>
       </c>
       <c r="J8">
-        <v>2.1842033952644566E-3</v>
+        <v>2.2098698077807366E-3</v>
       </c>
       <c r="K8">
-        <v>0.8484386003317046</v>
+        <v>0.84451555542505219</v>
       </c>
       <c r="L8">
-        <v>-0.49777429648278559</v>
+        <v>-0.49791529130878764</v>
       </c>
       <c r="M8">
-        <v>-0.54857323450437456</v>
+        <v>-0.54857722322415126</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.0000000002221964E-4</v>
+        <v>1.000000000222197E-4</v>
       </c>
       <c r="B9">
-        <v>9.9989099432954715E-3</v>
+        <v>9.9988362889332147E-3</v>
       </c>
       <c r="C9">
-        <v>4.5451568996880021E-2</v>
+        <v>4.5451423246041685E-2</v>
       </c>
       <c r="D9">
-        <v>150000016.99057072</v>
+        <v>150000066.6048401</v>
       </c>
       <c r="E9">
-        <v>43.365238516584157</v>
+        <v>39.698431270358313</v>
       </c>
       <c r="F9">
-        <v>56.082561564264026</v>
+        <v>57.076034214667722</v>
       </c>
       <c r="G9">
-        <v>1.000002250052758E-8</v>
+        <v>1.0000022501492048E-8</v>
       </c>
       <c r="H9">
-        <v>0.59999975037284203</v>
+        <v>0.59999965956140111</v>
       </c>
       <c r="I9">
-        <v>1.1920570599224305E-6</v>
+        <v>1.1366127428115871E-6</v>
       </c>
       <c r="J9">
-        <v>2.2349328744016919E-3</v>
+        <v>2.2461344756480044E-3</v>
       </c>
       <c r="K9">
-        <v>0.26577404181876341</v>
+        <v>0.26439263722395356</v>
       </c>
       <c r="L9">
-        <v>-0.35818079674493597</v>
+        <v>-0.35804828516822207</v>
       </c>
       <c r="M9">
-        <v>-0.44984185963235412</v>
+        <v>-0.44984156059141367</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.63882618851778E-3</v>
+        <v>7.5375029476333838E-3</v>
       </c>
       <c r="B10">
-        <v>1.2223645190608059</v>
+        <v>1.2160449333588226</v>
       </c>
       <c r="C10">
-        <v>3.4292704072186646E-2</v>
+        <v>2.6395590591137646E-2</v>
       </c>
       <c r="D10">
-        <v>100000501.05427535</v>
+        <v>100000000.19232847</v>
       </c>
       <c r="E10">
-        <v>40.309281355605009</v>
+        <v>40.308698710908992</v>
       </c>
       <c r="F10">
-        <v>45.861333067140805</v>
+        <v>45.861777643223306</v>
       </c>
       <c r="G10">
-        <v>1.3819037508897966E-3</v>
+        <v>1.4771705413739111E-3</v>
       </c>
       <c r="H10">
-        <v>1.0934335767538515E-2</v>
+        <v>2.8504565668281689E-4</v>
       </c>
       <c r="I10">
-        <v>0.89987961135078454</v>
+        <v>0.89867699189212102</v>
       </c>
       <c r="J10">
-        <v>9.98562442943563E-2</v>
+        <v>9.9994127085341236E-2</v>
       </c>
       <c r="K10">
-        <v>0.99116141785879464</v>
+        <v>0.99116143819587532</v>
       </c>
       <c r="L10">
-        <v>0.99278192521489783</v>
+        <v>0.9927631432494205</v>
       </c>
       <c r="M10">
-        <v>0.96091718398862713</v>
+        <v>0.96119607482708536</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2.6231107957965526E-2</v>
+        <v>2.6209723748675851E-2</v>
       </c>
       <c r="B11">
-        <v>0.43430440294003353</v>
+        <v>0.52934684405812649</v>
       </c>
       <c r="C11">
-        <v>2.6316924709073212E-2</v>
+        <v>2.6594247555100314E-2</v>
       </c>
       <c r="D11">
-        <v>161355137.08461508</v>
+        <v>150142161.52967486</v>
       </c>
       <c r="E11">
-        <v>30.000013512854949</v>
+        <v>20.001489305243467</v>
       </c>
       <c r="F11">
-        <v>59.456118869918861</v>
+        <v>71.114467047765714</v>
       </c>
       <c r="G11">
-        <v>2.078062290947623</v>
+        <v>1.734657631652692</v>
       </c>
       <c r="H11">
-        <v>3.5936948746318212E-2</v>
+        <v>8.5423133097486362E-4</v>
       </c>
       <c r="I11">
-        <v>0.55478952694413142</v>
+        <v>0.81815536921747956</v>
       </c>
       <c r="J11">
-        <v>1.6977555088215337E-8</v>
+        <v>4.3704411573062795E-5</v>
       </c>
       <c r="K11">
-        <v>0.9449246964116641</v>
+        <v>0.98366025995805773</v>
       </c>
       <c r="L11">
-        <v>0.95526463871119494</v>
+        <v>0.95713040570866215</v>
       </c>
       <c r="M11">
-        <v>0.86032786169601416</v>
+        <v>0.88037277833742988</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.0000000002228758E-4</v>
+        <v>1.0000000002228612E-4</v>
       </c>
       <c r="B12">
-        <v>9.9911566644613203E-3</v>
+        <v>9.990825750683453E-3</v>
       </c>
       <c r="C12">
-        <v>4.5428466123157096E-2</v>
+        <v>4.5428033194248714E-2</v>
       </c>
       <c r="D12">
-        <v>150000052.37963644</v>
+        <v>150000052.14751464</v>
       </c>
       <c r="E12">
-        <v>39.189724349240656</v>
+        <v>33.522864423273056</v>
       </c>
       <c r="F12">
-        <v>54.945978386528097</v>
+        <v>55.62635282915371</v>
       </c>
       <c r="G12">
-        <v>1.0000024045043238E-8</v>
+        <v>1.0000024007651981E-8</v>
       </c>
       <c r="H12">
-        <v>0.5999975286847643</v>
+        <v>0.59999760960633708</v>
       </c>
       <c r="I12">
-        <v>6.4062076493416227E-6</v>
+        <v>6.7542007776368318E-6</v>
       </c>
       <c r="J12">
-        <v>2.1994919470514273E-3</v>
+        <v>2.2066719671406535E-3</v>
       </c>
       <c r="K12">
-        <v>0.28557379144447981</v>
+        <v>0.34276506061467971</v>
       </c>
       <c r="L12">
-        <v>-0.5620710246235292</v>
+        <v>-0.56161187672943491</v>
       </c>
       <c r="M12">
-        <v>-0.67242711445539016</v>
+        <v>-0.67242145913056861</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.0000000002225485E-4</v>
+        <v>1.0000000002225389E-4</v>
       </c>
       <c r="B13">
-        <v>9.9919699660476063E-3</v>
+        <v>9.9920626871110967E-3</v>
       </c>
       <c r="C13">
-        <v>4.5436022645032041E-2</v>
+        <v>4.5436405686289788E-2</v>
       </c>
       <c r="D13">
-        <v>150000057.54211259</v>
+        <v>150000045.57887048</v>
       </c>
       <c r="E13">
-        <v>42.311212103228257</v>
+        <v>38.51605222815131</v>
       </c>
       <c r="F13">
-        <v>54.851074753491545</v>
+        <v>55.940495420089682</v>
       </c>
       <c r="G13">
-        <v>1.0000023252119197E-8</v>
+        <v>1.0000023230178751E-8</v>
       </c>
       <c r="H13">
-        <v>0.59999910602994699</v>
+        <v>0.59999920660193795</v>
       </c>
       <c r="I13">
-        <v>6.4741277720463555E-6</v>
+        <v>6.170544489694359E-6</v>
       </c>
       <c r="J13">
-        <v>2.2213741810585886E-3</v>
+        <v>2.2331315235188075E-3</v>
       </c>
       <c r="K13">
-        <v>0.32840792378048955</v>
+        <v>0.32960756924186119</v>
       </c>
       <c r="L13">
-        <v>-0.54309227766117907</v>
+        <v>-0.54316690902499243</v>
       </c>
       <c r="M13">
-        <v>-0.60270233799741635</v>
+        <v>-0.60270975135112992</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1.0000000002226381E-4</v>
+        <v>1.0000000002226187E-4</v>
       </c>
       <c r="B14">
-        <v>9.9895132608513095E-3</v>
+        <v>9.9899014004585958E-3</v>
       </c>
       <c r="C14">
-        <v>4.5430823588801246E-2</v>
+        <v>4.5431861195288276E-2</v>
       </c>
       <c r="D14">
-        <v>150000041.5116455</v>
+        <v>150000058.63665292</v>
       </c>
       <c r="E14">
-        <v>41.326522620512215</v>
+        <v>37.376388175555164</v>
       </c>
       <c r="F14">
-        <v>54.044763689926299</v>
+        <v>55.115057197678439</v>
       </c>
       <c r="G14">
-        <v>1.000002345945212E-8</v>
+        <v>1.000002341418302E-8</v>
       </c>
       <c r="H14">
-        <v>0.59999904890012645</v>
+        <v>0.59999908789323131</v>
       </c>
       <c r="I14">
-        <v>7.5257796094178982E-6</v>
+        <v>7.4512182206618473E-6</v>
       </c>
       <c r="J14">
-        <v>2.2101061262962823E-3</v>
+        <v>2.2245317278717274E-3</v>
       </c>
       <c r="K14">
-        <v>0.30552118333152123</v>
+        <v>0.31097626356553654</v>
       </c>
       <c r="L14">
-        <v>-0.58009754236223499</v>
+        <v>-0.58019565790975869</v>
       </c>
       <c r="M14">
-        <v>-0.6178234958693114</v>
+        <v>-0.6178308567205304</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1.0000000002226046E-4</v>
+        <v>1.0000000002225956E-4</v>
       </c>
       <c r="B15">
-        <v>9.9930052007022006E-3</v>
+        <v>9.9928864554518874E-3</v>
       </c>
       <c r="C15">
-        <v>4.5434410750420873E-2</v>
+        <v>4.5434609385371853E-2</v>
       </c>
       <c r="D15">
-        <v>150000044.52356648</v>
+        <v>150000066.6664634</v>
       </c>
       <c r="E15">
-        <v>41.912374297185821</v>
+        <v>37.656203632759429</v>
       </c>
       <c r="F15">
-        <v>55.190921108250592</v>
+        <v>56.175773159118464</v>
       </c>
       <c r="G15">
-        <v>1.000002338106682E-8</v>
+        <v>1.0000023360201194E-8</v>
       </c>
       <c r="H15">
-        <v>0.59999822546205273</v>
+        <v>0.59999829022618767</v>
       </c>
       <c r="I15">
-        <v>5.1971069633912298E-6</v>
+        <v>5.4986632366613223E-6</v>
       </c>
       <c r="J15">
-        <v>2.2187095497162982E-3</v>
+        <v>2.229600533894139E-3</v>
       </c>
       <c r="K15">
-        <v>0.29411521834903265</v>
+        <v>0.30353902707807179</v>
       </c>
       <c r="L15">
-        <v>-0.6419429323885566</v>
+        <v>-0.64191603743893677</v>
       </c>
       <c r="M15">
-        <v>-0.6990749726692691</v>
+        <v>-0.69907881706239472</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1.0000000002222356E-4</v>
+        <v>1.0000000002222338E-4</v>
       </c>
       <c r="B16">
-        <v>1.0147310572175711E-2</v>
+        <v>1.0172533382061075E-2</v>
       </c>
       <c r="C16">
-        <v>4.5451776131965202E-2</v>
+        <v>4.5451845117286858E-2</v>
       </c>
       <c r="D16">
-        <v>150000075.63443941</v>
+        <v>150000074.01884153</v>
       </c>
       <c r="E16">
-        <v>45.938611386938653</v>
+        <v>43.264765786440861</v>
       </c>
       <c r="F16">
-        <v>57.994757811078131</v>
+        <v>59.369875287587526</v>
       </c>
       <c r="G16">
-        <v>1.0000022579755664E-8</v>
+        <v>1.0000022576001589E-8</v>
       </c>
       <c r="H16">
-        <v>0.59999966158746143</v>
+        <v>0.59999965856787663</v>
       </c>
       <c r="I16">
-        <v>2.230488874245846E-6</v>
+        <v>1.4269196932959207E-6</v>
       </c>
       <c r="J16">
-        <v>2.250602917560577E-3</v>
+        <v>2.2662815923935853E-3</v>
       </c>
       <c r="K16">
-        <v>0.58158659077802999</v>
+        <v>0.56852519020501635</v>
       </c>
       <c r="L16">
-        <v>-0.361210014434455</v>
+        <v>-0.36182202498591076</v>
       </c>
       <c r="M16">
-        <v>-0.47509414319800469</v>
+        <v>-0.47512930455471092</v>
       </c>
       <c r="N16" t="s">
         <v>0</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="0"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="0"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="0"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="0"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="0"/>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7716CACF-41EB-40AB-84CB-B586BF1CC6EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0FB178-AD32-43A6-9B69-B4FFC313D940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
   <si>
     <t>kPL</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>kLP</t>
+  </si>
+  <si>
+    <t>HK-2</t>
+  </si>
+  <si>
+    <t>UMRC6</t>
+  </si>
+  <si>
+    <t>UOK262</t>
+  </si>
+  <si>
+    <t>UOK + DIDS</t>
+  </si>
+  <si>
+    <t>Kpl</t>
+  </si>
+  <si>
+    <t>KMCT4</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,207 +461,207 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0000000002246367E-4</v>
+        <v>6.9136536695066303E-3</v>
       </c>
       <c r="B1">
-        <v>1.3285975171052873E-2</v>
+        <v>0.65434724066387473</v>
       </c>
       <c r="C1">
-        <v>4.5410137928182014E-2</v>
+        <v>3.082274900810672E-2</v>
       </c>
       <c r="D1">
-        <v>150000189.85702357</v>
+        <v>1018498511.2426976</v>
       </c>
       <c r="E1">
-        <v>27.864607276962733</v>
+        <v>24.135636818838965</v>
       </c>
       <c r="F1">
-        <v>54.780848970299019</v>
+        <v>61.896517394008413</v>
       </c>
       <c r="G1">
-        <v>1.0000031066132442E-8</v>
+        <v>1.7462093943114396</v>
       </c>
       <c r="H1">
-        <v>0.59997658802644682</v>
+        <v>1.0739930953490389E-3</v>
       </c>
       <c r="I1">
-        <v>3.5252117786944458E-5</v>
+        <v>0.53506830791041093</v>
       </c>
       <c r="J1">
-        <v>2.0593439124861734E-3</v>
+        <v>3.7306929113602879E-5</v>
       </c>
       <c r="K1">
-        <v>0.97747298300119134</v>
+        <v>0.9915837210261762</v>
       </c>
       <c r="L1">
-        <v>-0.49344324702422182</v>
+        <v>0.93110716162743778</v>
       </c>
       <c r="M1">
-        <v>-0.7000409581160838</v>
+        <v>0.86631510473754825</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8.6661738012672254E-3</v>
+        <v>6.0234202777238264E-3</v>
       </c>
       <c r="B2">
-        <v>0.55138682912517523</v>
+        <v>0.72537547180529116</v>
       </c>
       <c r="C2">
-        <v>2.9037123200575041E-2</v>
+        <v>4.1807771958779723E-2</v>
       </c>
       <c r="D2">
-        <v>119779666.15910518</v>
+        <v>980128913.68996525</v>
       </c>
       <c r="E2">
-        <v>23.725269400855069</v>
+        <v>23.934025567960202</v>
       </c>
       <c r="F2">
-        <v>66.797791756301621</v>
+        <v>66.859347728849357</v>
       </c>
       <c r="G2">
-        <v>0.20082226663264988</v>
+        <v>3.4543045748955548</v>
       </c>
       <c r="H2">
-        <v>9.8559033304461089E-3</v>
+        <v>8.1492704035017113E-3</v>
       </c>
       <c r="I2">
-        <v>5.9333725380924401E-4</v>
+        <v>0.348039537420955</v>
       </c>
       <c r="J2">
-        <v>2.0300946260441272E-3</v>
+        <v>3.0848971223918719E-3</v>
       </c>
       <c r="K2">
-        <v>0.99574120770731744</v>
+        <v>0.99572897949254002</v>
       </c>
       <c r="L2">
-        <v>0.98234265166820556</v>
+        <v>0.98252748020239711</v>
       </c>
       <c r="M2">
-        <v>0.85119438142528137</v>
+        <v>0.83644635726892969</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0000000002225244E-4</v>
+        <v>7.4696274363658458E-3</v>
       </c>
       <c r="B3">
-        <v>1.1276816868432057E-2</v>
+        <v>0.36278127845346386</v>
       </c>
       <c r="C3">
-        <v>4.5445811351612325E-2</v>
+        <v>8.837619763955408E-2</v>
       </c>
       <c r="D3">
-        <v>150000064.9195846</v>
+        <v>1623482816.5312405</v>
       </c>
       <c r="E3">
-        <v>31.724804762290479</v>
+        <v>20.081334056953313</v>
       </c>
       <c r="F3">
-        <v>54.138341213074924</v>
+        <v>68.272541130328079</v>
       </c>
       <c r="G3">
-        <v>1.000002319736726E-8</v>
+        <v>1.9493857828869956</v>
       </c>
       <c r="H3">
-        <v>0.59999767516501779</v>
+        <v>2.5690219908660758E-6</v>
       </c>
       <c r="I3">
-        <v>4.2762327658428232E-6</v>
+        <v>2.5317083707811277E-5</v>
       </c>
       <c r="J3">
-        <v>2.1777410517568661E-3</v>
+        <v>2.6977573352209678E-6</v>
       </c>
       <c r="K3">
-        <v>0.80577342477386971</v>
+        <v>0.99165568603271359</v>
       </c>
       <c r="L3">
-        <v>-0.53941290306549528</v>
+        <v>0.96940250391659233</v>
       </c>
       <c r="M3">
-        <v>-0.73654476567460114</v>
+        <v>0.80497199946786857</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1.0000000002230694E-4</v>
+        <v>1.7712398565932166E-2</v>
       </c>
       <c r="B4">
-        <v>1.1923457734909134E-2</v>
+        <v>0.9449223059630345</v>
       </c>
       <c r="C4">
-        <v>4.5434921242829877E-2</v>
+        <v>7.2395911716633704E-2</v>
       </c>
       <c r="D4">
-        <v>150000239.15305385</v>
+        <v>962664435.49775565</v>
       </c>
       <c r="E4">
-        <v>40.223257240810938</v>
+        <v>36.012720786445179</v>
       </c>
       <c r="F4">
-        <v>58.920625547013493</v>
+        <v>66.262135540445726</v>
       </c>
       <c r="G4">
-        <v>1.0000024565277651E-8</v>
+        <v>1.4321917152300456</v>
       </c>
       <c r="H4">
-        <v>0.59999191750123682</v>
+        <v>0.56898127550021582</v>
       </c>
       <c r="I4">
-        <v>8.4393671752232924E-6</v>
+        <v>3.750999782884344E-14</v>
       </c>
       <c r="J4">
-        <v>2.2245635329467745E-3</v>
+        <v>2.8869205548873542E-2</v>
       </c>
       <c r="K4">
-        <v>0.94052103268490395</v>
+        <v>0.9900292648873189</v>
       </c>
       <c r="L4">
-        <v>-0.5135081540415023</v>
+        <v>0.97310222564107141</v>
       </c>
       <c r="M4">
-        <v>-0.55863801367132693</v>
+        <v>0.99449259930589695</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1.0000000002223794E-4</v>
+        <v>1.024335642752784E-2</v>
       </c>
       <c r="B5">
-        <v>1.2953341672327022E-2</v>
+        <v>1.1152687301566693</v>
       </c>
       <c r="C5">
-        <v>4.5454232198170089E-2</v>
+        <v>5.2374001839734494E-2</v>
       </c>
       <c r="D5">
-        <v>150000061.27472425</v>
+        <v>1992449963.5574374</v>
       </c>
       <c r="E5">
-        <v>30.13531567047368</v>
+        <v>20.000008710944737</v>
       </c>
       <c r="F5">
-        <v>53.099336295663889</v>
+        <v>62.502875166459049</v>
       </c>
       <c r="G5">
-        <v>1.0000022878916901E-8</v>
+        <v>2.3606490976106</v>
       </c>
       <c r="H5">
-        <v>0.59999727561987581</v>
+        <v>0.49568250876129932</v>
       </c>
       <c r="I5">
-        <v>1.1164378939968163E-6</v>
+        <v>7.0304178359063357E-2</v>
       </c>
       <c r="J5">
-        <v>2.1670145505032884E-3</v>
+        <v>2.479966751042492E-4</v>
       </c>
       <c r="K5">
-        <v>0.72742231695528181</v>
+        <v>0.975165888914725</v>
       </c>
       <c r="L5">
-        <v>-0.50812670802918358</v>
+        <v>0.97307742683391629</v>
       </c>
       <c r="M5">
-        <v>-0.57010968486757618</v>
+        <v>0.98797313519992624</v>
       </c>
       <c r="P5">
         <f>0.0001</f>
@@ -683,43 +701,43 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.0000000002232024E-4</v>
+        <v>2.2283875092810386E-2</v>
       </c>
       <c r="B6">
-        <v>1.2754881983591192E-2</v>
+        <v>0.76088081606892377</v>
       </c>
       <c r="C6">
-        <v>4.5426718009964652E-2</v>
+        <v>2.6438513734614838E-2</v>
       </c>
       <c r="D6">
-        <v>150000126.61099541</v>
+        <v>708183002.10621393</v>
       </c>
       <c r="E6">
-        <v>33.849702615348249</v>
+        <v>27.745802166505612</v>
       </c>
       <c r="F6">
-        <v>54.057395301640149</v>
+        <v>62.581297296313004</v>
       </c>
       <c r="G6">
-        <v>1.0000024947115184E-8</v>
+        <v>0.91720773165160985</v>
       </c>
       <c r="H6">
-        <v>0.59998958714933626</v>
+        <v>7.3901420704613924E-5</v>
       </c>
       <c r="I6">
-        <v>3.6852456601258068E-6</v>
+        <v>1.1644409474917893E-3</v>
       </c>
       <c r="J6">
-        <v>2.1771367654063742E-3</v>
+        <v>3.2822589709025589E-4</v>
       </c>
       <c r="K6">
-        <v>0.90983020278869997</v>
+        <v>0.99274784246464076</v>
       </c>
       <c r="L6">
-        <v>-0.55509703523853116</v>
+        <v>0.99619568212029752</v>
       </c>
       <c r="M6">
-        <v>-0.60925714656751584</v>
+        <v>0.96261722780743508</v>
       </c>
       <c r="P6">
         <v>0.08</v>
@@ -757,412 +775,412 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.0838045914027154E-2</v>
+        <v>2.7814969175240036E-2</v>
       </c>
       <c r="B7">
-        <v>6.4573083837011621E-3</v>
+        <v>0.55104786884348655</v>
       </c>
       <c r="C7">
-        <v>3.6328217467279614E-2</v>
+        <v>2.6350601727476927E-2</v>
       </c>
       <c r="D7">
-        <v>150167675.68179601</v>
+        <v>934291287.93717039</v>
       </c>
       <c r="E7">
-        <v>39.349767877357422</v>
+        <v>39.28707048040372</v>
       </c>
       <c r="F7">
-        <v>53.622138874369853</v>
+        <v>54.636363329700018</v>
       </c>
       <c r="G7">
-        <v>1.0000023371612956E-8</v>
+        <v>1.7319841808989835</v>
       </c>
       <c r="H7">
-        <v>0.59093617805999521</v>
+        <v>1.8500203987033524E-2</v>
       </c>
       <c r="I7">
-        <v>4.4722197271424057E-4</v>
+        <v>0.89594548732232437</v>
       </c>
       <c r="J7">
-        <v>1.4842614835726567E-3</v>
+        <v>2.8928409993310563E-6</v>
       </c>
       <c r="K7">
-        <v>0.99519687803839696</v>
+        <v>0.99707944425867268</v>
       </c>
       <c r="L7">
-        <v>0.37065768000301202</v>
+        <v>0.94434036691829126</v>
       </c>
       <c r="M7">
-        <v>-0.4973145661254601</v>
+        <v>0.79032025575929366</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1.0000000002237555E-4</v>
+        <v>2.5703100976456124E-2</v>
       </c>
       <c r="B8">
-        <v>9.977035289958993E-3</v>
+        <v>0.31167992720347504</v>
       </c>
       <c r="C8">
-        <v>4.5396596646422066E-2</v>
+        <v>2.9393195059055827E-2</v>
       </c>
       <c r="D8">
-        <v>150000110.42974392</v>
+        <v>999396107.8119067</v>
       </c>
       <c r="E8">
-        <v>38.052157675133742</v>
+        <v>34.542454048738776</v>
       </c>
       <c r="F8">
-        <v>55.883937936202393</v>
+        <v>62.650369110883283</v>
       </c>
       <c r="G8">
-        <v>1.0000026799409753E-8</v>
+        <v>1.1976583717168294</v>
       </c>
       <c r="H8">
-        <v>0.59999573435467635</v>
+        <v>4.6811716265920981E-3</v>
       </c>
       <c r="I8">
-        <v>1.8028253437368054E-5</v>
+        <v>0.29810716284998812</v>
       </c>
       <c r="J8">
-        <v>2.2098698077807366E-3</v>
+        <v>9.0615415146892114E-8</v>
       </c>
       <c r="K8">
-        <v>0.84451555542505219</v>
+        <v>0.99752262698515248</v>
       </c>
       <c r="L8">
-        <v>-0.49791529130878764</v>
+        <v>0.98071965788080173</v>
       </c>
       <c r="M8">
-        <v>-0.54857722322415126</v>
+        <v>0.88003964109000599</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1.000000000222197E-4</v>
+        <v>6.1255734514533118E-3</v>
       </c>
       <c r="B9">
-        <v>9.9988362889332147E-3</v>
+        <v>0.47538706960793403</v>
       </c>
       <c r="C9">
-        <v>4.5451423246041685E-2</v>
+        <v>5.258670666395629E-2</v>
       </c>
       <c r="D9">
-        <v>150000066.6048401</v>
+        <v>997214452.99972153</v>
       </c>
       <c r="E9">
-        <v>39.698431270358313</v>
+        <v>32.97889125690358</v>
       </c>
       <c r="F9">
-        <v>57.076034214667722</v>
+        <v>68.828488158881854</v>
       </c>
       <c r="G9">
-        <v>1.0000022501492048E-8</v>
+        <v>0.40223830042938258</v>
       </c>
       <c r="H9">
-        <v>0.59999965956140111</v>
+        <v>0.93224490884288458</v>
       </c>
       <c r="I9">
-        <v>1.1366127428115871E-6</v>
+        <v>3.9916348057140581E-14</v>
       </c>
       <c r="J9">
-        <v>2.2461344756480044E-3</v>
+        <v>3.9987820833624092E-3</v>
       </c>
       <c r="K9">
-        <v>0.26439263722395356</v>
+        <v>0.99565546655475778</v>
       </c>
       <c r="L9">
-        <v>-0.35804828516822207</v>
+        <v>0.93873162621762507</v>
       </c>
       <c r="M9">
-        <v>-0.44984156059141367</v>
+        <v>0.973122667106468</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.5375029476333838E-3</v>
+        <v>4.5242940401677674E-3</v>
       </c>
       <c r="B10">
-        <v>1.2160449333588226</v>
+        <v>0.41444434239166855</v>
       </c>
       <c r="C10">
-        <v>2.6395590591137646E-2</v>
+        <v>2.7203574844276712E-2</v>
       </c>
       <c r="D10">
-        <v>100000000.19232847</v>
+        <v>946020071.96062279</v>
       </c>
       <c r="E10">
-        <v>40.308698710908992</v>
+        <v>40.702741912507385</v>
       </c>
       <c r="F10">
-        <v>45.861777643223306</v>
+        <v>46.00783620549867</v>
       </c>
       <c r="G10">
-        <v>1.4771705413739111E-3</v>
+        <v>2.7986650544906229</v>
       </c>
       <c r="H10">
-        <v>2.8504565668281689E-4</v>
+        <v>1.308133649476105E-3</v>
       </c>
       <c r="I10">
-        <v>0.89867699189212102</v>
+        <v>3.0308465528381136E-3</v>
       </c>
       <c r="J10">
-        <v>9.9994127085341236E-2</v>
+        <v>4.6361659021882853E-3</v>
       </c>
       <c r="K10">
-        <v>0.99116143819587532</v>
+        <v>0.99087489193466494</v>
       </c>
       <c r="L10">
-        <v>0.9927631432494205</v>
+        <v>0.99331153179057219</v>
       </c>
       <c r="M10">
-        <v>0.96119607482708536</v>
+        <v>0.96134424901816062</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2.6209723748675851E-2</v>
+        <v>4.2418355067693599E-2</v>
       </c>
       <c r="B11">
-        <v>0.52934684405812649</v>
+        <v>0.89129782709755345</v>
       </c>
       <c r="C11">
-        <v>2.6594247555100314E-2</v>
+        <v>4.913815001194978E-2</v>
       </c>
       <c r="D11">
-        <v>150142161.52967486</v>
+        <v>842238714.84136331</v>
       </c>
       <c r="E11">
-        <v>20.001489305243467</v>
+        <v>20.001120632920255</v>
       </c>
       <c r="F11">
-        <v>71.114467047765714</v>
+        <v>71.115256756157066</v>
       </c>
       <c r="G11">
-        <v>1.734657631652692</v>
+        <v>9.9680762264950893</v>
       </c>
       <c r="H11">
-        <v>8.5423133097486362E-4</v>
+        <v>1.3604551793670192</v>
       </c>
       <c r="I11">
-        <v>0.81815536921747956</v>
+        <v>0.56607153986661818</v>
       </c>
       <c r="J11">
-        <v>4.3704411573062795E-5</v>
+        <v>1.5795247902816193E-3</v>
       </c>
       <c r="K11">
-        <v>0.98366025995805773</v>
+        <v>0.98366164941327594</v>
       </c>
       <c r="L11">
-        <v>0.95713040570866215</v>
+        <v>0.95226262565760122</v>
       </c>
       <c r="M11">
-        <v>0.88037277833742988</v>
+        <v>0.86722456957405569</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.0000000002228612E-4</v>
+        <v>5.042241771151016E-2</v>
       </c>
       <c r="B12">
-        <v>9.990825750683453E-3</v>
+        <v>1.2137656288722338</v>
       </c>
       <c r="C12">
-        <v>4.5428033194248714E-2</v>
+        <v>3.607207044550402E-2</v>
       </c>
       <c r="D12">
-        <v>150000052.14751464</v>
+        <v>1481939197.4083221</v>
       </c>
       <c r="E12">
-        <v>33.522864423273056</v>
+        <v>20.000238382081928</v>
       </c>
       <c r="F12">
-        <v>55.62635282915371</v>
+        <v>69.194784193675389</v>
       </c>
       <c r="G12">
-        <v>1.0000024007651981E-8</v>
+        <v>1.1229159598214458</v>
       </c>
       <c r="H12">
-        <v>0.59999760960633708</v>
+        <v>2.2495359208808985</v>
       </c>
       <c r="I12">
-        <v>6.7542007776368318E-6</v>
+        <v>1.87220879834473E-4</v>
       </c>
       <c r="J12">
-        <v>2.2066719671406535E-3</v>
+        <v>4.9982942411450022E-5</v>
       </c>
       <c r="K12">
-        <v>0.34276506061467971</v>
+        <v>0.91689095183777636</v>
       </c>
       <c r="L12">
-        <v>-0.56161187672943491</v>
+        <v>0.9107362457797018</v>
       </c>
       <c r="M12">
-        <v>-0.67242145913056861</v>
+        <v>0.98050072487381523</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.0000000002225389E-4</v>
+        <v>1.7555714259145157E-2</v>
       </c>
       <c r="B13">
-        <v>9.9920626871110967E-3</v>
+        <v>0.29256659599574791</v>
       </c>
       <c r="C13">
-        <v>4.5436405686289788E-2</v>
+        <v>2.7101052612234562E-2</v>
       </c>
       <c r="D13">
-        <v>150000045.57887048</v>
+        <v>597167837.01600289</v>
       </c>
       <c r="E13">
-        <v>38.51605222815131</v>
+        <v>33.144009206350951</v>
       </c>
       <c r="F13">
-        <v>55.940495420089682</v>
+        <v>63.170967958347838</v>
       </c>
       <c r="G13">
-        <v>1.0000023230178751E-8</v>
+        <v>0.10651095331067559</v>
       </c>
       <c r="H13">
-        <v>0.59999920660193795</v>
+        <v>1.5889883872670572E-2</v>
       </c>
       <c r="I13">
-        <v>6.170544489694359E-6</v>
+        <v>0.58493618840519868</v>
       </c>
       <c r="J13">
-        <v>2.2331315235188075E-3</v>
+        <v>1.4990277632309377E-5</v>
       </c>
       <c r="K13">
-        <v>0.32960756924186119</v>
+        <v>0.99777797601659834</v>
       </c>
       <c r="L13">
-        <v>-0.54316690902499243</v>
+        <v>0.98201039360123632</v>
       </c>
       <c r="M13">
-        <v>-0.60270975135112992</v>
+        <v>0.75524386469984528</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1.0000000002226187E-4</v>
+        <v>1.8095268557853303E-2</v>
       </c>
       <c r="B14">
-        <v>9.9899014004585958E-3</v>
+        <v>0.3157258596425993</v>
       </c>
       <c r="C14">
-        <v>4.5431861195288276E-2</v>
+        <v>2.9096184713078666E-2</v>
       </c>
       <c r="D14">
-        <v>150000058.63665292</v>
+        <v>1146799888.9335432</v>
       </c>
       <c r="E14">
-        <v>37.376388175555164</v>
+        <v>33.310876663586349</v>
       </c>
       <c r="F14">
-        <v>55.115057197678439</v>
+        <v>59.364682503964353</v>
       </c>
       <c r="G14">
-        <v>1.000002341418302E-8</v>
+        <v>0.55811545058347567</v>
       </c>
       <c r="H14">
-        <v>0.59999908789323131</v>
+        <v>3.7924734959255552E-2</v>
       </c>
       <c r="I14">
-        <v>7.4512182206618473E-6</v>
+        <v>0.83781188451790078</v>
       </c>
       <c r="J14">
-        <v>2.2245317278717274E-3</v>
+        <v>4.5986091883456993E-4</v>
       </c>
       <c r="K14">
-        <v>0.31097626356553654</v>
+        <v>0.99716999440744558</v>
       </c>
       <c r="L14">
-        <v>-0.58019565790975869</v>
+        <v>0.92145542703057903</v>
       </c>
       <c r="M14">
-        <v>-0.6178308567205304</v>
+        <v>0.66324152723977903</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1.0000000002225956E-4</v>
+        <v>2.8399763479961902E-2</v>
       </c>
       <c r="B15">
-        <v>9.9928864554518874E-3</v>
+        <v>0.54343958615847388</v>
       </c>
       <c r="C15">
-        <v>4.5434609385371853E-2</v>
+        <v>7.6219058419520813E-2</v>
       </c>
       <c r="D15">
-        <v>150000066.6664634</v>
+        <v>692867037.09136713</v>
       </c>
       <c r="E15">
-        <v>37.656203632759429</v>
+        <v>23.49687355461749</v>
       </c>
       <c r="F15">
-        <v>56.175773159118464</v>
+        <v>73.570853727913274</v>
       </c>
       <c r="G15">
-        <v>1.0000023360201194E-8</v>
+        <v>0.18138078849669231</v>
       </c>
       <c r="H15">
-        <v>0.59999829022618767</v>
+        <v>0.48028891679294045</v>
       </c>
       <c r="I15">
-        <v>5.4986632366613223E-6</v>
+        <v>0.10644097251155447</v>
       </c>
       <c r="J15">
-        <v>2.229600533894139E-3</v>
+        <v>6.5827422630521156E-3</v>
       </c>
       <c r="K15">
-        <v>0.30353902707807179</v>
+        <v>0.9972200160501562</v>
       </c>
       <c r="L15">
-        <v>-0.64191603743893677</v>
+        <v>0.99400119516600871</v>
       </c>
       <c r="M15">
-        <v>-0.69907881706239472</v>
+        <v>0.76170923806672786</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1.0000000002222338E-4</v>
+        <v>1.0437760019427022E-2</v>
       </c>
       <c r="B16">
-        <v>1.0172533382061075E-2</v>
+        <v>1.2144742270629458</v>
       </c>
       <c r="C16">
-        <v>4.5451845117286858E-2</v>
+        <v>5.3568119488334245E-2</v>
       </c>
       <c r="D16">
-        <v>150000074.01884153</v>
+        <v>1063009032.3709875</v>
       </c>
       <c r="E16">
-        <v>43.264765786440861</v>
+        <v>42.550377053656106</v>
       </c>
       <c r="F16">
-        <v>59.369875287587526</v>
+        <v>67.313604245222635</v>
       </c>
       <c r="G16">
-        <v>1.0000022576001589E-8</v>
+        <v>0.87188440550080648</v>
       </c>
       <c r="H16">
-        <v>0.59999965856787663</v>
+        <v>6.1895791725902916</v>
       </c>
       <c r="I16">
-        <v>1.4269196932959207E-6</v>
+        <v>3.9113098006434108E-14</v>
       </c>
       <c r="J16">
-        <v>2.2662815923935853E-3</v>
+        <v>1.3523072512673408E-2</v>
       </c>
       <c r="K16">
-        <v>0.56852519020501635</v>
+        <v>0.99375153430378216</v>
       </c>
       <c r="L16">
-        <v>-0.36182202498591076</v>
+        <v>0.96427442125304763</v>
       </c>
       <c r="M16">
-        <v>-0.47512930455471092</v>
+        <v>0.89643729705960273</v>
       </c>
       <c r="N16" t="s">
         <v>0</v>
@@ -1204,10 +1222,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
       <c r="N17" t="str">
         <f>_xlfn.IFS(ABS(A1-P$5)&lt;=0.01*P$5,"Lower",ABS(A1-P$6)&lt;=0.01*P$6,"Upper",TRUE,"Ok")</f>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" ref="O17:Z32" si="0">_xlfn.IFS(ABS(B1-Q$5)&lt;=0.01*Q$5,"Lower",ABS(B1-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
@@ -1231,7 +1261,7 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="0"/>
@@ -1258,7 +1288,26 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="18" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(A$1:A$3)</f>
+        <v>6.8022337945321011E-3</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(A$4:A$6)</f>
+        <v>1.6746543362090131E-2</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(A$7:A$12)</f>
+        <v>2.6168118403753497E-2</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(A$13:A$16)</f>
+        <v>1.8622126579096846E-2</v>
+      </c>
       <c r="N18" t="str">
         <f t="shared" ref="N18:N32" si="1">_xlfn.IFS(ABS(A2-P$5)&lt;=0.01*P$5,"Lower",ABS(A2-P$6)&lt;=0.01*P$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
@@ -1312,34 +1361,50 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="19" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
+        <v>4.2118466964478522E-4</v>
+      </c>
+      <c r="C19">
+        <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
+        <v>3.5091869731865158E-3</v>
+      </c>
+      <c r="D19">
+        <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
+        <v>7.5838168193029416E-3</v>
+      </c>
+      <c r="E19">
+        <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
+        <v>3.6968551269839821E-3</v>
+      </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
-      <c r="O19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="S19" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="0"/>
@@ -1366,10 +1431,10 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="20" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N20" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
@@ -1393,7 +1458,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="0"/>
@@ -1420,34 +1485,46 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="21" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
-      <c r="O21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="S21" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="0"/>
@@ -1474,19 +1551,38 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="22" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(B$1:B$3)</f>
+        <v>0.58083466364087666</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B$4:B$6)</f>
+        <v>0.94035728406287589</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(B$7:B$12)</f>
+        <v>0.64293711066939185</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(B$13:B$16)</f>
+        <v>0.59155156721494173</v>
+      </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="Q22" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -1501,7 +1597,7 @@
       </c>
       <c r="T22" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="0"/>
@@ -1528,7 +1624,23 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="23" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
+        <v>0.11093798793100179</v>
+      </c>
+      <c r="D23">
+        <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
+        <v>0.10232843850656829</v>
+      </c>
+      <c r="E23">
+        <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
+        <v>0.13975993207811596</v>
+      </c>
+      <c r="F23">
+        <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
+        <v>0.21521679706093569</v>
+      </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
         <v>Ok</v>
@@ -1539,7 +1651,7 @@
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="0"/>
@@ -1555,7 +1667,7 @@
       </c>
       <c r="T23" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="0"/>
@@ -1563,7 +1675,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="0"/>
@@ -1582,10 +1694,10 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="24" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N24" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
@@ -1609,7 +1721,7 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="0"/>
@@ -1636,10 +1748,22 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="25" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="0"/>
@@ -1663,7 +1787,7 @@
       </c>
       <c r="T25" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="0"/>
@@ -1690,7 +1814,26 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="26" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(C$1:C$3)</f>
+        <v>5.3668906202146836E-2</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(C$4:C$6)</f>
+        <v>5.040280909699435E-2</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(C$7:C$12)</f>
+        <v>3.6790716458703264E-2</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(C$13:C$16)</f>
+        <v>4.6496103808292069E-2</v>
+      </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
         <v>Ok</v>
@@ -1701,11 +1844,11 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="0"/>
@@ -1725,11 +1868,11 @@
       </c>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="X26" t="str">
         <f t="shared" si="0"/>
@@ -1744,7 +1887,23 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="27" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
+        <v>1.7641000930574063E-2</v>
+      </c>
+      <c r="E27">
+        <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
+        <v>1.3303317981380821E-2</v>
+      </c>
+      <c r="F27">
+        <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
+        <v>4.6837359618259614E-3</v>
+      </c>
+      <c r="G27">
+        <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
+        <v>1.1591637186701999E-2</v>
+      </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
         <v>Ok</v>
@@ -1771,7 +1930,7 @@
       </c>
       <c r="T27" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="0"/>
@@ -1798,34 +1957,34 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="28" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N28" t="str">
         <f t="shared" si="1"/>
+        <v>Ok</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ok</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="0"/>
         <v>Lower</v>
       </c>
-      <c r="O28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
       <c r="S28" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="0"/>
@@ -1852,10 +2011,22 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="29" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="0"/>
@@ -1879,7 +2050,7 @@
       </c>
       <c r="T29" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="0"/>
@@ -1906,10 +2077,29 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="30" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(D$1:D$3)</f>
+        <v>1207370080.4879677</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(D$4:D$6)</f>
+        <v>1221099133.720469</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(D$7:D$12)</f>
+        <v>1033516638.8265177</v>
+      </c>
+      <c r="H30">
+        <f>AVERAGE(D$13:D$16)</f>
+        <v>874960948.85297513</v>
+      </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="0"/>
@@ -1933,7 +2123,7 @@
       </c>
       <c r="T30" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="0"/>
@@ -1960,10 +2150,26 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="31" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
+        <v>208350996.57961234</v>
+      </c>
+      <c r="F31">
+        <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
+        <v>392609550.31807703</v>
+      </c>
+      <c r="G31">
+        <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
+        <v>92673875.14901875</v>
+      </c>
+      <c r="H31">
+        <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
+        <v>135273086.9832198</v>
+      </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +2193,7 @@
       </c>
       <c r="T31" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="0"/>
@@ -2014,10 +2220,10 @@
         <v>Ok</v>
       </c>
     </row>
-    <row r="32" spans="14:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N32" t="str">
         <f t="shared" si="1"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2247,7 @@
       </c>
       <c r="T32" t="str">
         <f t="shared" si="0"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="0"/>
@@ -2066,6 +2272,483 @@
       <c r="Z32" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <f>AVERAGE(E$1:E$3)</f>
+        <v>22.716998814584159</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(E$4:E$6)</f>
+        <v>27.919510554631842</v>
+      </c>
+      <c r="H34">
+        <f>AVERAGE(E$7:E$12)</f>
+        <v>31.252086118925941</v>
+      </c>
+      <c r="I34">
+        <f>AVERAGE(E$13:E$16)</f>
+        <v>33.125534119552725</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
+        <v>1.3191169154758013</v>
+      </c>
+      <c r="G35">
+        <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
+        <v>4.6232877174978269</v>
+      </c>
+      <c r="H35">
+        <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
+        <v>3.7455420060673283</v>
+      </c>
+      <c r="I35">
+        <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
+        <v>3.8898742674058817</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>AVERAGE(F$1:F$3)</f>
+        <v>65.676135417728617</v>
+      </c>
+      <c r="H38">
+        <f>AVERAGE(F$4:F$6)</f>
+        <v>63.78210266773926</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(F$7:F$12)</f>
+        <v>62.072182959132711</v>
+      </c>
+      <c r="J38">
+        <f>AVERAGE(F$13:F$16)</f>
+        <v>65.855027108862018</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
+        <v>1.9333402185008477</v>
+      </c>
+      <c r="H39">
+        <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
+        <v>1.2402230706464632</v>
+      </c>
+      <c r="I39">
+        <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
+        <v>4.049054380985857</v>
+      </c>
+      <c r="J39">
+        <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
+        <v>3.0412466507963063</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(G$1:G$3)</f>
+        <v>2.3832999173646634</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(G$4:G$6)</f>
+        <v>1.5700161814974185</v>
+      </c>
+      <c r="J42">
+        <f>AVERAGE(G$7:G$12)</f>
+        <v>2.8702563489753921</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(G$13:G$16)</f>
+        <v>0.42947289947291256</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
+        <v>0.53870474088573417</v>
+      </c>
+      <c r="I43">
+        <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
+        <v>0.42234560566231549</v>
+      </c>
+      <c r="J43">
+        <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
+        <v>1.4562707094129634</v>
+      </c>
+      <c r="K43">
+        <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
+        <v>0.17751313585658005</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(H$1:H$3)</f>
+        <v>3.0752775069472055E-3</v>
+      </c>
+      <c r="J46">
+        <f>AVERAGE(H$4:H$6)</f>
+        <v>0.35491256189407322</v>
+      </c>
+      <c r="K46">
+        <f>AVERAGE(H$7:H$12)</f>
+        <v>0.76112091972565066</v>
+      </c>
+      <c r="L46">
+        <f>AVERAGE(H$13:H$16)</f>
+        <v>1.6809206770537894</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
+        <v>2.5557803975796412E-3</v>
+      </c>
+      <c r="J47">
+        <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
+        <v>0.17867664791111951</v>
+      </c>
+      <c r="K47">
+        <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
+        <v>0.37880805517343397</v>
+      </c>
+      <c r="L47">
+        <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
+        <v>1.5066873503678246</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <f>AVERAGE(I$1:I$3)</f>
+        <v>0.29437772080502456</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE(I$4:I$6)</f>
+        <v>2.3822873102197554E-2</v>
+      </c>
+      <c r="L50">
+        <f>AVERAGE(I$7:I$12)</f>
+        <v>0.29389037624527392</v>
+      </c>
+      <c r="M50">
+        <f>AVERAGE(I$13:I$16)</f>
+        <v>0.38229726135867326</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
+        <v>0.15676675182160196</v>
+      </c>
+      <c r="K51">
+        <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
+        <v>2.324308344767308E-2</v>
+      </c>
+      <c r="L51">
+        <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
+        <v>0.15207488140470185</v>
+      </c>
+      <c r="M51">
+        <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
+        <v>0.19807490056484464</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <f>AVERAGE(J$1:J$3)</f>
+        <v>1.0416339362802319E-3</v>
+      </c>
+      <c r="L54">
+        <f>AVERAGE(J$4:J$6)</f>
+        <v>9.8151427070226824E-3</v>
+      </c>
+      <c r="M54">
+        <f>AVERAGE(J$7:J$12)</f>
+        <v>1.7112398624430402E-3</v>
+      </c>
+      <c r="N54">
+        <f>AVERAGE(J$13:J$16)</f>
+        <v>5.1451664930481002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
+        <v>1.0216804432701572E-3</v>
+      </c>
+      <c r="L55">
+        <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
+        <v>9.5270595720455872E-3</v>
+      </c>
+      <c r="M55">
+        <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
+        <v>8.6432336649997659E-4</v>
+      </c>
+      <c r="N55">
+        <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
+        <v>3.1692103339942441E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="K58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58">
+        <f>AVERAGE(K$1:K$3)</f>
+        <v>0.9929894621838099</v>
+      </c>
+      <c r="M58">
+        <f>AVERAGE(K$4:K$6)</f>
+        <v>0.98598099875556156</v>
+      </c>
+      <c r="N58">
+        <f>AVERAGE(K$7:K$12)</f>
+        <v>0.98028083849738323</v>
+      </c>
+      <c r="O58">
+        <f>AVERAGE(K$13:K$16)</f>
+        <v>0.99647988019449563</v>
+      </c>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
+        <v>1.3699161840742028E-3</v>
+      </c>
+      <c r="M59">
+        <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
+        <v>5.4642052384282162E-3</v>
+      </c>
+      <c r="N59">
+        <f>STDEV(K$7:K$12)/SQRT(COUNT(K$7:K$12))</f>
+        <v>1.2855340258794673E-2</v>
+      </c>
+      <c r="O59">
+        <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
+        <v>9.1982710216302534E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="M61" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <f>AVERAGE(L$1:L$3)</f>
+        <v>0.96101238191547578</v>
+      </c>
+      <c r="N62">
+        <f>AVERAGE(L$4:L$6)</f>
+        <v>0.98079177819842833</v>
+      </c>
+      <c r="O62">
+        <f>AVERAGE(L$7:L$12)</f>
+        <v>0.95335034237409877</v>
+      </c>
+      <c r="P62">
+        <f>AVERAGE(L$13:L$16)</f>
+        <v>0.96543535926271795</v>
+      </c>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
+        <v>1.5425173159295947E-2</v>
+      </c>
+      <c r="N63">
+        <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
+        <v>7.7019552879088243E-3</v>
+      </c>
+      <c r="O63">
+        <f>STDEV(L$7:L$12)/SQRT(COUNT(L$7:L$12))</f>
+        <v>1.2190169491403665E-2</v>
+      </c>
+      <c r="P63">
+        <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
+        <v>1.5880598646311132E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>13</v>
+      </c>
+      <c r="O65" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <f>AVERAGE(M$1:M$3)</f>
+        <v>0.8359111538247822</v>
+      </c>
+      <c r="O66">
+        <f>AVERAGE(M$4:M$6)</f>
+        <v>0.98169432077108609</v>
+      </c>
+      <c r="P66">
+        <f>AVERAGE(M$7:M$12)</f>
+        <v>0.90875868457029985</v>
+      </c>
+      <c r="Q66">
+        <f>AVERAGE(M$13:M$16)</f>
+        <v>0.76915798176648875</v>
+      </c>
+    </row>
+    <row r="67" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
+        <v>1.7710251015318045E-2</v>
+      </c>
+      <c r="O67">
+        <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
+        <v>9.7224389946675652E-3</v>
+      </c>
+      <c r="P67">
+        <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
+        <v>3.0893587128125007E-2</v>
+      </c>
+      <c r="Q67">
+        <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
+        <v>4.8016842424855724E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0FB178-AD32-43A6-9B69-B4FFC313D940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824550E-C948-494C-9FFC-E9C465E68573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824550E-C948-494C-9FFC-E9C465E68573}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B6443-1462-48D1-B1C1-4BA8AFB2D1A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B6443-1462-48D1-B1C1-4BA8AFB2D1A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B396024-7C12-4DC6-A29C-8164A338E4F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B396024-7C12-4DC6-A29C-8164A338E4F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50997F2E-33F7-41D4-876E-85896CBB02B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,13 +123,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -450,7 +458,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M16"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,39 +671,39 @@
       <c r="M5">
         <v>0.98797313519992624</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f>0.0001</f>
         <v>1E-4</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1E-4</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f>1/38</f>
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f>10^8</f>
         <v>100000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>20</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>40</v>
-      </c>
-      <c r="V5">
-        <f>0.00000001</f>
-        <v>1E-8</v>
       </c>
       <c r="W5">
         <f>0.00000001</f>
         <v>1E-8</v>
       </c>
       <c r="X5">
+        <f>0.00000001</f>
+        <v>1E-8</v>
+      </c>
+      <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0</v>
       </c>
     </row>
@@ -739,37 +747,37 @@
       <c r="M6">
         <v>0.96261722780743508</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.08</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f>10^100</f>
         <v>1E+100</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>60</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f>10^100</f>
         <v>1E+100</v>
       </c>
-      <c r="V6">
-        <v>10</v>
-      </c>
       <c r="W6">
         <v>10</v>
       </c>
       <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
         <v>0.9</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.1</v>
       </c>
     </row>
@@ -1182,45 +1190,6 @@
       <c r="M16">
         <v>0.89643729705960273</v>
       </c>
-      <c r="N16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>3</v>
-      </c>
-      <c r="R16" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V16" t="s">
-        <v>11</v>
-      </c>
-      <c r="W16" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1236,57 +1205,48 @@
         <v>16</v>
       </c>
       <c r="N17" t="str">
-        <f>_xlfn.IFS(ABS(A1-P$5)&lt;=0.01*P$5,"Lower",ABS(A1-P$6)&lt;=0.01*P$6,"Upper",TRUE,"Ok")</f>
+        <f>_xlfn.IFS(ABS(A1-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A1-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" ref="O17:Z32" si="0">_xlfn.IFS(ABS(B1-Q$5)&lt;=0.01*Q$5,"Lower",ABS(B1-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f>_xlfn.IFS(ABS(B1-R$5)&lt;=0.01*R$5,"Lower",ABS(B1-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C1-S$5)&lt;=0.01*S$5,"Lower",ABS(C1-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D1-T$5)&lt;=0.01*T$5,"Lower",ABS(D1-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E1-U$5)&lt;=0.01*U$5,"Lower",ABS(E1-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F1-V$5)&lt;=0.01*V$5,"Lower",ABS(F1-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G1-W$5)&lt;=0.01*W$5,"Lower",ABS(G1-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H1-X$5)&lt;=0.01*X$5,"Lower",ABS(H1-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I1-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I1-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X17" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y17" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z17" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J1-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J1-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1309,57 +1269,48 @@
         <v>1.8622126579096846E-2</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" ref="N18:N32" si="1">_xlfn.IFS(ABS(A2-P$5)&lt;=0.01*P$5,"Lower",ABS(A2-P$6)&lt;=0.01*P$6,"Upper",TRUE,"Ok")</f>
+        <f>_xlfn.IFS(ABS(A2-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A2-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B2-R$5)&lt;=0.01*R$5,"Lower",ABS(B2-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C2-S$5)&lt;=0.01*S$5,"Lower",ABS(C2-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D2-T$5)&lt;=0.01*T$5,"Lower",ABS(D2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E2-U$5)&lt;=0.01*U$5,"Lower",ABS(E2-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F2-V$5)&lt;=0.01*V$5,"Lower",ABS(F2-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G2-W$5)&lt;=0.01*W$5,"Lower",ABS(G2-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H2-X$5)&lt;=0.01*X$5,"Lower",ABS(H2-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I2-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I2-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X18" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y18" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z18" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J2-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J2-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19">
@@ -1379,111 +1330,93 @@
         <v>3.6968551269839821E-3</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A3-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A3-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B3-R$5)&lt;=0.01*R$5,"Lower",ABS(B3-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C3-S$5)&lt;=0.01*S$5,"Lower",ABS(C3-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D3-T$5)&lt;=0.01*T$5,"Lower",ABS(D3-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E3-U$5)&lt;=0.01*U$5,"Lower",ABS(E3-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F3-V$5)&lt;=0.01*V$5,"Lower",ABS(F3-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G3-W$5)&lt;=0.01*W$5,"Lower",ABS(G3-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H3-X$5)&lt;=0.01*X$5,"Lower",ABS(H3-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I3-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I3-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z19" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J3-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J3-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A4-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A4-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B4-R$5)&lt;=0.01*R$5,"Lower",ABS(B4-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C4-S$5)&lt;=0.01*S$5,"Lower",ABS(C4-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D4-T$5)&lt;=0.01*T$5,"Lower",ABS(D4-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E4-U$5)&lt;=0.01*U$5,"Lower",ABS(E4-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F4-V$5)&lt;=0.01*V$5,"Lower",ABS(F4-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G4-W$5)&lt;=0.01*W$5,"Lower",ABS(G4-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H4-X$5)&lt;=0.01*X$5,"Lower",ABS(H4-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I4-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I4-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z20" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J4-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J4-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
@@ -1499,57 +1432,48 @@
         <v>16</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A5-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A5-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B5-R$5)&lt;=0.01*R$5,"Lower",ABS(B5-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C5-S$5)&lt;=0.01*S$5,"Lower",ABS(C5-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D5-T$5)&lt;=0.01*T$5,"Lower",ABS(D5-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E5-U$5)&lt;=0.01*U$5,"Lower",ABS(E5-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F5-V$5)&lt;=0.01*V$5,"Lower",ABS(F5-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G5-W$5)&lt;=0.01*W$5,"Lower",ABS(G5-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H5-X$5)&lt;=0.01*X$5,"Lower",ABS(H5-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I5-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I5-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z21" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J5-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J5-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -1572,57 +1496,48 @@
         <v>0.59155156721494173</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A6-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A6-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B6-R$5)&lt;=0.01*R$5,"Lower",ABS(B6-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C6-S$5)&lt;=0.01*S$5,"Lower",ABS(C6-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D6-T$5)&lt;=0.01*T$5,"Lower",ABS(D6-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E6-U$5)&lt;=0.01*U$5,"Lower",ABS(E6-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F6-V$5)&lt;=0.01*V$5,"Lower",ABS(F6-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G6-W$5)&lt;=0.01*W$5,"Lower",ABS(G6-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H6-X$5)&lt;=0.01*X$5,"Lower",ABS(H6-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I6-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I6-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z22" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J6-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J6-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C23">
@@ -1642,111 +1557,93 @@
         <v>0.21521679706093569</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A7-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A7-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B7-R$5)&lt;=0.01*R$5,"Lower",ABS(B7-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C7-S$5)&lt;=0.01*S$5,"Lower",ABS(C7-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D7-T$5)&lt;=0.01*T$5,"Lower",ABS(D7-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E7-U$5)&lt;=0.01*U$5,"Lower",ABS(E7-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F7-V$5)&lt;=0.01*V$5,"Lower",ABS(F7-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G7-W$5)&lt;=0.01*W$5,"Lower",ABS(G7-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H7-X$5)&lt;=0.01*X$5,"Lower",ABS(H7-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I7-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I7-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z23" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J7-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J7-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N24" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A8-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A8-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B8-R$5)&lt;=0.01*R$5,"Lower",ABS(B8-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C8-S$5)&lt;=0.01*S$5,"Lower",ABS(C8-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D8-T$5)&lt;=0.01*T$5,"Lower",ABS(D8-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E8-U$5)&lt;=0.01*U$5,"Lower",ABS(E8-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F8-V$5)&lt;=0.01*V$5,"Lower",ABS(F8-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G8-W$5)&lt;=0.01*W$5,"Lower",ABS(G8-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H8-X$5)&lt;=0.01*X$5,"Lower",ABS(H8-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I8-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I8-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z24" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J8-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J8-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
@@ -1762,57 +1659,48 @@
         <v>16</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A9-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A9-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B9-R$5)&lt;=0.01*R$5,"Lower",ABS(B9-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C9-S$5)&lt;=0.01*S$5,"Lower",ABS(C9-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D9-T$5)&lt;=0.01*T$5,"Lower",ABS(D9-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E9-U$5)&lt;=0.01*U$5,"Lower",ABS(E9-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F9-V$5)&lt;=0.01*V$5,"Lower",ABS(F9-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G9-W$5)&lt;=0.01*W$5,"Lower",ABS(G9-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H9-X$5)&lt;=0.01*X$5,"Lower",ABS(H9-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I9-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I9-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z25" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J9-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J9-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
@@ -1835,57 +1723,48 @@
         <v>4.6496103808292069E-2</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A10-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A10-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B10-R$5)&lt;=0.01*R$5,"Lower",ABS(B10-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C10-S$5)&lt;=0.01*S$5,"Lower",ABS(C10-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D10-T$5)&lt;=0.01*T$5,"Lower",ABS(D10-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E10-U$5)&lt;=0.01*U$5,"Lower",ABS(E10-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F10-V$5)&lt;=0.01*V$5,"Lower",ABS(F10-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G10-W$5)&lt;=0.01*W$5,"Lower",ABS(G10-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H10-X$5)&lt;=0.01*X$5,"Lower",ABS(H10-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I10-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I10-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z26" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J10-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J10-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27">
@@ -1905,111 +1784,93 @@
         <v>1.1591637186701999E-2</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A11-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A11-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B11-R$5)&lt;=0.01*R$5,"Lower",ABS(B11-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C11-S$5)&lt;=0.01*S$5,"Lower",ABS(C11-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D11-T$5)&lt;=0.01*T$5,"Lower",ABS(D11-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E11-U$5)&lt;=0.01*U$5,"Lower",ABS(E11-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F11-V$5)&lt;=0.01*V$5,"Lower",ABS(F11-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G11-W$5)&lt;=0.01*W$5,"Lower",ABS(G11-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Upper</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H11-X$5)&lt;=0.01*X$5,"Lower",ABS(H11-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I11-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I11-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z27" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J11-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J11-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N28" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A12-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A12-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B12-R$5)&lt;=0.01*R$5,"Lower",ABS(B12-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C12-S$5)&lt;=0.01*S$5,"Lower",ABS(C12-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D12-T$5)&lt;=0.01*T$5,"Lower",ABS(D12-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E12-U$5)&lt;=0.01*U$5,"Lower",ABS(E12-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Lower</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F12-V$5)&lt;=0.01*V$5,"Lower",ABS(F12-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G12-W$5)&lt;=0.01*W$5,"Lower",ABS(G12-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H12-X$5)&lt;=0.01*X$5,"Lower",ABS(H12-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I12-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I12-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z28" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J12-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J12-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
@@ -2025,57 +1886,48 @@
         <v>16</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A13-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A13-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B13-R$5)&lt;=0.01*R$5,"Lower",ABS(B13-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C13-S$5)&lt;=0.01*S$5,"Lower",ABS(C13-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D13-T$5)&lt;=0.01*T$5,"Lower",ABS(D13-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E13-U$5)&lt;=0.01*U$5,"Lower",ABS(E13-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F13-V$5)&lt;=0.01*V$5,"Lower",ABS(F13-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G13-W$5)&lt;=0.01*W$5,"Lower",ABS(G13-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H13-X$5)&lt;=0.01*X$5,"Lower",ABS(H13-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I13-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I13-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z29" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J13-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J13-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
@@ -2098,57 +1950,48 @@
         <v>874960948.85297513</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A14-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A14-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B14-R$5)&lt;=0.01*R$5,"Lower",ABS(B14-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C14-S$5)&lt;=0.01*S$5,"Lower",ABS(C14-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D14-T$5)&lt;=0.01*T$5,"Lower",ABS(D14-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E14-U$5)&lt;=0.01*U$5,"Lower",ABS(E14-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F14-V$5)&lt;=0.01*V$5,"Lower",ABS(F14-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G14-W$5)&lt;=0.01*W$5,"Lower",ABS(G14-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H14-X$5)&lt;=0.01*X$5,"Lower",ABS(H14-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I14-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I14-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J14-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J14-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E31">
@@ -2168,113 +2011,95 @@
         <v>135273086.9832198</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A15-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A15-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B15-R$5)&lt;=0.01*R$5,"Lower",ABS(B15-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C15-S$5)&lt;=0.01*S$5,"Lower",ABS(C15-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D15-T$5)&lt;=0.01*T$5,"Lower",ABS(D15-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E15-U$5)&lt;=0.01*U$5,"Lower",ABS(E15-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F15-V$5)&lt;=0.01*V$5,"Lower",ABS(F15-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G15-W$5)&lt;=0.01*W$5,"Lower",ABS(G15-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H15-X$5)&lt;=0.01*X$5,"Lower",ABS(H15-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I15-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I15-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z31" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
+        <f>_xlfn.IFS(ABS(J15-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J15-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N32" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.IFS(ABS(A16-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A16-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(B16-R$5)&lt;=0.01*R$5,"Lower",ABS(B16-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(C16-S$5)&lt;=0.01*S$5,"Lower",ABS(C16-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(D16-T$5)&lt;=0.01*T$5,"Lower",ABS(D16-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(E16-U$5)&lt;=0.01*U$5,"Lower",ABS(E16-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(F16-V$5)&lt;=0.01*V$5,"Lower",ABS(F16-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(G16-W$5)&lt;=0.01*W$5,"Lower",ABS(G16-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(H16-X$5)&lt;=0.01*X$5,"Lower",ABS(H16-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.IFS(ABS(I16-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I16-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="X32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Y32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-      <c r="Z32" t="str">
-        <f t="shared" si="0"/>
-        <v>Ok</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.3">
+        <f>_xlfn.IFS(ABS(J16-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J16-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <v>Ok</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="5:26" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>13</v>
       </c>
@@ -2287,8 +2112,47 @@
       <c r="I33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U33" t="s">
+        <v>10</v>
+      </c>
+      <c r="V33" t="s">
+        <v>11</v>
+      </c>
+      <c r="W33" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2173,7 @@
         <v>33.125534119552725</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:26" x14ac:dyDescent="0.3">
       <c r="F35">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
         <v>1.3191169154758013</v>
@@ -2327,7 +2191,7 @@
         <v>3.8898742674058817</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:26" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>13</v>
       </c>
@@ -2341,7 +2205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:26" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2226,7 @@
         <v>65.855027108862018</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:26" x14ac:dyDescent="0.3">
       <c r="G39">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
         <v>1.9333402185008477</v>
@@ -2380,7 +2244,7 @@
         <v>3.0412466507963063</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:26" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>13</v>
       </c>
@@ -2394,7 +2258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:26" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>9</v>
       </c>
@@ -2415,7 +2279,7 @@
         <v>0.42947289947291256</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:26" x14ac:dyDescent="0.3">
       <c r="H43">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
         <v>0.53870474088573417</v>
@@ -2433,7 +2297,7 @@
         <v>0.17751313585658005</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:26" x14ac:dyDescent="0.3">
       <c r="I45" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:26" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>10</v>
       </c>
@@ -2468,7 +2332,7 @@
         <v>1.6809206770537894</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:26" x14ac:dyDescent="0.3">
       <c r="I47">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
         <v>2.5557803975796412E-3</v>
@@ -2752,8 +2616,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N17:Z32">
-    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="Ok">
+  <conditionalFormatting sqref="N17:W32">
+    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="Ok">
       <formula>ISERROR(SEARCH("Ok",N17))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50997F2E-33F7-41D4-876E-85896CBB02B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE69C8-C3E4-41C2-BE3B-F96509230825}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -130,7 +130,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -458,7 +472,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,6 +521,15 @@
       <c r="M1">
         <v>0.86631510473754825</v>
       </c>
+      <c r="N1">
+        <v>9.1280426073093765E-2</v>
+      </c>
+      <c r="O1">
+        <v>0.2611587830972501</v>
+      </c>
+      <c r="P1">
+        <v>0.36379671014156689</v>
+      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -548,6 +571,15 @@
       <c r="M2">
         <v>0.83644635726892969</v>
       </c>
+      <c r="N2">
+        <v>6.5025458878698705E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.13152108043818253</v>
+      </c>
+      <c r="P2">
+        <v>0.40239048982767922</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -589,6 +621,15 @@
       <c r="M3">
         <v>0.80497199946786857</v>
       </c>
+      <c r="N3">
+        <v>9.0889332859327154E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.17404459521218574</v>
+      </c>
+      <c r="P3">
+        <v>0.43940609978334416</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -630,6 +671,15 @@
       <c r="M4">
         <v>0.99449259930589695</v>
       </c>
+      <c r="N4">
+        <v>9.9353046060773789E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.16318332211148098</v>
+      </c>
+      <c r="P4">
+        <v>7.3839871933543161E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -671,6 +721,15 @@
       <c r="M5">
         <v>0.98797313519992624</v>
       </c>
+      <c r="N5">
+        <v>0.15679850118678521</v>
+      </c>
+      <c r="O5">
+        <v>0.16325852943850397</v>
+      </c>
+      <c r="P5">
+        <v>0.10911735037139131</v>
+      </c>
       <c r="Q5">
         <f>0.0001</f>
         <v>1E-4</v>
@@ -747,6 +806,15 @@
       <c r="M6">
         <v>0.96261722780743508</v>
       </c>
+      <c r="N6">
+        <v>8.4732732518228507E-2</v>
+      </c>
+      <c r="O6">
+        <v>6.1369982083307177E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.19237708925607355</v>
+      </c>
       <c r="Q6">
         <v>0.08</v>
       </c>
@@ -821,6 +889,15 @@
       <c r="M7">
         <v>0.79032025575929366</v>
       </c>
+      <c r="N7">
+        <v>5.3771276569503562E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.23474036029386103</v>
+      </c>
+      <c r="P7">
+        <v>0.45561271579961338</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -862,6 +939,15 @@
       <c r="M8">
         <v>0.88003964109000599</v>
       </c>
+      <c r="N8">
+        <v>4.9526200835072927E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.13816456724779552</v>
+      </c>
+      <c r="P8">
+        <v>0.3446340560422787</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -903,6 +989,15 @@
       <c r="M9">
         <v>0.973122667106468</v>
       </c>
+      <c r="N9">
+        <v>6.5582681485204214E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.24628375919770104</v>
+      </c>
+      <c r="P9">
+        <v>0.1631213032212431</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -944,6 +1039,15 @@
       <c r="M10">
         <v>0.96134424901816062</v>
       </c>
+      <c r="N10">
+        <v>9.5046604277489441E-2</v>
+      </c>
+      <c r="O10">
+        <v>8.1373113049296272E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.19562513507221158</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -985,6 +1089,15 @@
       <c r="M11">
         <v>0.86722456957405569</v>
       </c>
+      <c r="N11">
+        <v>0.12718084400119686</v>
+      </c>
+      <c r="O11">
+        <v>0.21739365353886214</v>
+      </c>
+      <c r="P11">
+        <v>0.3625571349755578</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1026,6 +1139,15 @@
       <c r="M12">
         <v>0.98050072487381523</v>
       </c>
+      <c r="N12">
+        <v>0.28684134583529175</v>
+      </c>
+      <c r="O12">
+        <v>0.29727279841602594</v>
+      </c>
+      <c r="P12">
+        <v>0.13893985164423836</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1067,6 +1189,15 @@
       <c r="M13">
         <v>0.75524386469984528</v>
       </c>
+      <c r="N13">
+        <v>4.6902065450976152E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.13345302669769621</v>
+      </c>
+      <c r="P13">
+        <v>0.49224848800900661</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1108,6 +1239,15 @@
       <c r="M14">
         <v>0.66324152723977903</v>
       </c>
+      <c r="N14">
+        <v>5.2931139574251378E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.27885323602161544</v>
+      </c>
+      <c r="P14">
+        <v>0.57740011086993981</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1149,6 +1289,15 @@
       <c r="M15">
         <v>0.76170923806672786</v>
       </c>
+      <c r="N15">
+        <v>5.2461262950345797E-2</v>
+      </c>
+      <c r="O15">
+        <v>7.7063718997017833E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.48570346335386516</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1190,6 +1339,15 @@
       <c r="M16">
         <v>0.89643729705960273</v>
       </c>
+      <c r="N16">
+        <v>7.8651007871836168E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.18806467759651954</v>
+      </c>
+      <c r="P16">
+        <v>0.32019849454829319</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1205,43 +1363,43 @@
         <v>16</v>
       </c>
       <c r="N17" t="str">
-        <f>_xlfn.IFS(ABS(A1-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A1-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="N17:N32" si="0">_xlfn.IFS(ABS(A1-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A1-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="O17" t="str">
-        <f>_xlfn.IFS(ABS(B1-R$5)&lt;=0.01*R$5,"Lower",ABS(B1-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="O17:O32" si="1">_xlfn.IFS(ABS(B1-R$5)&lt;=0.01*R$5,"Lower",ABS(B1-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="P17" t="str">
-        <f>_xlfn.IFS(ABS(C1-S$5)&lt;=0.01*S$5,"Lower",ABS(C1-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="P17:P32" si="2">_xlfn.IFS(ABS(C1-S$5)&lt;=0.01*S$5,"Lower",ABS(C1-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="Q17" t="str">
-        <f>_xlfn.IFS(ABS(D1-T$5)&lt;=0.01*T$5,"Lower",ABS(D1-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="Q17:Q32" si="3">_xlfn.IFS(ABS(D1-T$5)&lt;=0.01*T$5,"Lower",ABS(D1-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="R17" t="str">
-        <f>_xlfn.IFS(ABS(E1-U$5)&lt;=0.01*U$5,"Lower",ABS(E1-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="R17:R32" si="4">_xlfn.IFS(ABS(E1-U$5)&lt;=0.01*U$5,"Lower",ABS(E1-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="S17" t="str">
-        <f>_xlfn.IFS(ABS(F1-V$5)&lt;=0.01*V$5,"Lower",ABS(F1-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="S17:S32" si="5">_xlfn.IFS(ABS(F1-V$5)&lt;=0.01*V$5,"Lower",ABS(F1-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="T17" t="str">
-        <f>_xlfn.IFS(ABS(G1-W$5)&lt;=0.01*W$5,"Lower",ABS(G1-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="T17:T32" si="6">_xlfn.IFS(ABS(G1-W$5)&lt;=0.01*W$5,"Lower",ABS(G1-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="U17" t="str">
-        <f>_xlfn.IFS(ABS(H1-X$5)&lt;=0.01*X$5,"Lower",ABS(H1-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="U17:U32" si="7">_xlfn.IFS(ABS(H1-X$5)&lt;=0.01*X$5,"Lower",ABS(H1-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="V17" t="str">
-        <f>_xlfn.IFS(ABS(I1-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I1-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="V17:V32" si="8">_xlfn.IFS(ABS(I1-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I1-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="W17" t="str">
-        <f>_xlfn.IFS(ABS(J1-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J1-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" ref="W17:W32" si="9">_xlfn.IFS(ABS(J1-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J1-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
         <v>Ok</v>
       </c>
       <c r="X17" s="1"/>
@@ -1269,43 +1427,43 @@
         <v>1.8622126579096846E-2</v>
       </c>
       <c r="N18" t="str">
-        <f>_xlfn.IFS(ABS(A2-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A2-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O18" t="str">
-        <f>_xlfn.IFS(ABS(B2-R$5)&lt;=0.01*R$5,"Lower",ABS(B2-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P18" t="str">
-        <f>_xlfn.IFS(ABS(C2-S$5)&lt;=0.01*S$5,"Lower",ABS(C2-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q18" t="str">
-        <f>_xlfn.IFS(ABS(D2-T$5)&lt;=0.01*T$5,"Lower",ABS(D2-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R18" t="str">
-        <f>_xlfn.IFS(ABS(E2-U$5)&lt;=0.01*U$5,"Lower",ABS(E2-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S18" t="str">
-        <f>_xlfn.IFS(ABS(F2-V$5)&lt;=0.01*V$5,"Lower",ABS(F2-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T18" t="str">
-        <f>_xlfn.IFS(ABS(G2-W$5)&lt;=0.01*W$5,"Lower",ABS(G2-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U18" t="str">
-        <f>_xlfn.IFS(ABS(H2-X$5)&lt;=0.01*X$5,"Lower",ABS(H2-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V18" t="str">
-        <f>_xlfn.IFS(ABS(I2-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I2-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W18" t="str">
-        <f>_xlfn.IFS(ABS(J2-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J2-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X18" s="1"/>
@@ -1330,43 +1488,43 @@
         <v>3.6968551269839821E-3</v>
       </c>
       <c r="N19" t="str">
-        <f>_xlfn.IFS(ABS(A3-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A3-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O19" t="str">
-        <f>_xlfn.IFS(ABS(B3-R$5)&lt;=0.01*R$5,"Lower",ABS(B3-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P19" t="str">
-        <f>_xlfn.IFS(ABS(C3-S$5)&lt;=0.01*S$5,"Lower",ABS(C3-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q19" t="str">
-        <f>_xlfn.IFS(ABS(D3-T$5)&lt;=0.01*T$5,"Lower",ABS(D3-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R19" t="str">
-        <f>_xlfn.IFS(ABS(E3-U$5)&lt;=0.01*U$5,"Lower",ABS(E3-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Lower</v>
       </c>
       <c r="S19" t="str">
-        <f>_xlfn.IFS(ABS(F3-V$5)&lt;=0.01*V$5,"Lower",ABS(F3-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T19" t="str">
-        <f>_xlfn.IFS(ABS(G3-W$5)&lt;=0.01*W$5,"Lower",ABS(G3-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U19" t="str">
-        <f>_xlfn.IFS(ABS(H3-X$5)&lt;=0.01*X$5,"Lower",ABS(H3-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V19" t="str">
-        <f>_xlfn.IFS(ABS(I3-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I3-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W19" t="str">
-        <f>_xlfn.IFS(ABS(J3-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J3-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X19" s="1"/>
@@ -1375,43 +1533,43 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N20" t="str">
-        <f>_xlfn.IFS(ABS(A4-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A4-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O20" t="str">
-        <f>_xlfn.IFS(ABS(B4-R$5)&lt;=0.01*R$5,"Lower",ABS(B4-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P20" t="str">
-        <f>_xlfn.IFS(ABS(C4-S$5)&lt;=0.01*S$5,"Lower",ABS(C4-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q20" t="str">
-        <f>_xlfn.IFS(ABS(D4-T$5)&lt;=0.01*T$5,"Lower",ABS(D4-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R20" t="str">
-        <f>_xlfn.IFS(ABS(E4-U$5)&lt;=0.01*U$5,"Lower",ABS(E4-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S20" t="str">
-        <f>_xlfn.IFS(ABS(F4-V$5)&lt;=0.01*V$5,"Lower",ABS(F4-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T20" t="str">
-        <f>_xlfn.IFS(ABS(G4-W$5)&lt;=0.01*W$5,"Lower",ABS(G4-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U20" t="str">
-        <f>_xlfn.IFS(ABS(H4-X$5)&lt;=0.01*X$5,"Lower",ABS(H4-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V20" t="str">
-        <f>_xlfn.IFS(ABS(I4-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I4-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W20" t="str">
-        <f>_xlfn.IFS(ABS(J4-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J4-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X20" s="1"/>
@@ -1432,43 +1590,43 @@
         <v>16</v>
       </c>
       <c r="N21" t="str">
-        <f>_xlfn.IFS(ABS(A5-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A5-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O21" t="str">
-        <f>_xlfn.IFS(ABS(B5-R$5)&lt;=0.01*R$5,"Lower",ABS(B5-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P21" t="str">
-        <f>_xlfn.IFS(ABS(C5-S$5)&lt;=0.01*S$5,"Lower",ABS(C5-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q21" t="str">
-        <f>_xlfn.IFS(ABS(D5-T$5)&lt;=0.01*T$5,"Lower",ABS(D5-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R21" t="str">
-        <f>_xlfn.IFS(ABS(E5-U$5)&lt;=0.01*U$5,"Lower",ABS(E5-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Lower</v>
       </c>
       <c r="S21" t="str">
-        <f>_xlfn.IFS(ABS(F5-V$5)&lt;=0.01*V$5,"Lower",ABS(F5-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T21" t="str">
-        <f>_xlfn.IFS(ABS(G5-W$5)&lt;=0.01*W$5,"Lower",ABS(G5-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U21" t="str">
-        <f>_xlfn.IFS(ABS(H5-X$5)&lt;=0.01*X$5,"Lower",ABS(H5-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V21" t="str">
-        <f>_xlfn.IFS(ABS(I5-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I5-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W21" t="str">
-        <f>_xlfn.IFS(ABS(J5-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J5-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X21" s="1"/>
@@ -1496,43 +1654,43 @@
         <v>0.59155156721494173</v>
       </c>
       <c r="N22" t="str">
-        <f>_xlfn.IFS(ABS(A6-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A6-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O22" t="str">
-        <f>_xlfn.IFS(ABS(B6-R$5)&lt;=0.01*R$5,"Lower",ABS(B6-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P22" t="str">
-        <f>_xlfn.IFS(ABS(C6-S$5)&lt;=0.01*S$5,"Lower",ABS(C6-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Lower</v>
       </c>
       <c r="Q22" t="str">
-        <f>_xlfn.IFS(ABS(D6-T$5)&lt;=0.01*T$5,"Lower",ABS(D6-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R22" t="str">
-        <f>_xlfn.IFS(ABS(E6-U$5)&lt;=0.01*U$5,"Lower",ABS(E6-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S22" t="str">
-        <f>_xlfn.IFS(ABS(F6-V$5)&lt;=0.01*V$5,"Lower",ABS(F6-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T22" t="str">
-        <f>_xlfn.IFS(ABS(G6-W$5)&lt;=0.01*W$5,"Lower",ABS(G6-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U22" t="str">
-        <f>_xlfn.IFS(ABS(H6-X$5)&lt;=0.01*X$5,"Lower",ABS(H6-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V22" t="str">
-        <f>_xlfn.IFS(ABS(I6-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I6-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W22" t="str">
-        <f>_xlfn.IFS(ABS(J6-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J6-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X22" s="1"/>
@@ -1557,43 +1715,43 @@
         <v>0.21521679706093569</v>
       </c>
       <c r="N23" t="str">
-        <f>_xlfn.IFS(ABS(A7-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A7-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O23" t="str">
-        <f>_xlfn.IFS(ABS(B7-R$5)&lt;=0.01*R$5,"Lower",ABS(B7-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P23" t="str">
-        <f>_xlfn.IFS(ABS(C7-S$5)&lt;=0.01*S$5,"Lower",ABS(C7-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Lower</v>
       </c>
       <c r="Q23" t="str">
-        <f>_xlfn.IFS(ABS(D7-T$5)&lt;=0.01*T$5,"Lower",ABS(D7-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R23" t="str">
-        <f>_xlfn.IFS(ABS(E7-U$5)&lt;=0.01*U$5,"Lower",ABS(E7-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S23" t="str">
-        <f>_xlfn.IFS(ABS(F7-V$5)&lt;=0.01*V$5,"Lower",ABS(F7-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T23" t="str">
-        <f>_xlfn.IFS(ABS(G7-W$5)&lt;=0.01*W$5,"Lower",ABS(G7-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U23" t="str">
-        <f>_xlfn.IFS(ABS(H7-X$5)&lt;=0.01*X$5,"Lower",ABS(H7-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V23" t="str">
-        <f>_xlfn.IFS(ABS(I7-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I7-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Upper</v>
       </c>
       <c r="W23" t="str">
-        <f>_xlfn.IFS(ABS(J7-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J7-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X23" s="1"/>
@@ -1602,43 +1760,43 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N24" t="str">
-        <f>_xlfn.IFS(ABS(A8-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A8-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O24" t="str">
-        <f>_xlfn.IFS(ABS(B8-R$5)&lt;=0.01*R$5,"Lower",ABS(B8-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P24" t="str">
-        <f>_xlfn.IFS(ABS(C8-S$5)&lt;=0.01*S$5,"Lower",ABS(C8-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q24" t="str">
-        <f>_xlfn.IFS(ABS(D8-T$5)&lt;=0.01*T$5,"Lower",ABS(D8-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R24" t="str">
-        <f>_xlfn.IFS(ABS(E8-U$5)&lt;=0.01*U$5,"Lower",ABS(E8-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S24" t="str">
-        <f>_xlfn.IFS(ABS(F8-V$5)&lt;=0.01*V$5,"Lower",ABS(F8-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T24" t="str">
-        <f>_xlfn.IFS(ABS(G8-W$5)&lt;=0.01*W$5,"Lower",ABS(G8-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U24" t="str">
-        <f>_xlfn.IFS(ABS(H8-X$5)&lt;=0.01*X$5,"Lower",ABS(H8-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V24" t="str">
-        <f>_xlfn.IFS(ABS(I8-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I8-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W24" t="str">
-        <f>_xlfn.IFS(ABS(J8-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J8-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X24" s="1"/>
@@ -1659,43 +1817,43 @@
         <v>16</v>
       </c>
       <c r="N25" t="str">
-        <f>_xlfn.IFS(ABS(A9-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A9-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O25" t="str">
-        <f>_xlfn.IFS(ABS(B9-R$5)&lt;=0.01*R$5,"Lower",ABS(B9-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P25" t="str">
-        <f>_xlfn.IFS(ABS(C9-S$5)&lt;=0.01*S$5,"Lower",ABS(C9-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q25" t="str">
-        <f>_xlfn.IFS(ABS(D9-T$5)&lt;=0.01*T$5,"Lower",ABS(D9-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R25" t="str">
-        <f>_xlfn.IFS(ABS(E9-U$5)&lt;=0.01*U$5,"Lower",ABS(E9-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S25" t="str">
-        <f>_xlfn.IFS(ABS(F9-V$5)&lt;=0.01*V$5,"Lower",ABS(F9-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T25" t="str">
-        <f>_xlfn.IFS(ABS(G9-W$5)&lt;=0.01*W$5,"Lower",ABS(G9-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U25" t="str">
-        <f>_xlfn.IFS(ABS(H9-X$5)&lt;=0.01*X$5,"Lower",ABS(H9-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V25" t="str">
-        <f>_xlfn.IFS(ABS(I9-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I9-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W25" t="str">
-        <f>_xlfn.IFS(ABS(J9-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J9-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X25" s="1"/>
@@ -1723,43 +1881,43 @@
         <v>4.6496103808292069E-2</v>
       </c>
       <c r="N26" t="str">
-        <f>_xlfn.IFS(ABS(A10-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A10-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O26" t="str">
-        <f>_xlfn.IFS(ABS(B10-R$5)&lt;=0.01*R$5,"Lower",ABS(B10-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P26" t="str">
-        <f>_xlfn.IFS(ABS(C10-S$5)&lt;=0.01*S$5,"Lower",ABS(C10-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q26" t="str">
-        <f>_xlfn.IFS(ABS(D10-T$5)&lt;=0.01*T$5,"Lower",ABS(D10-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R26" t="str">
-        <f>_xlfn.IFS(ABS(E10-U$5)&lt;=0.01*U$5,"Lower",ABS(E10-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S26" t="str">
-        <f>_xlfn.IFS(ABS(F10-V$5)&lt;=0.01*V$5,"Lower",ABS(F10-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T26" t="str">
-        <f>_xlfn.IFS(ABS(G10-W$5)&lt;=0.01*W$5,"Lower",ABS(G10-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U26" t="str">
-        <f>_xlfn.IFS(ABS(H10-X$5)&lt;=0.01*X$5,"Lower",ABS(H10-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V26" t="str">
-        <f>_xlfn.IFS(ABS(I10-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I10-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W26" t="str">
-        <f>_xlfn.IFS(ABS(J10-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J10-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X26" s="1"/>
@@ -1784,43 +1942,43 @@
         <v>1.1591637186701999E-2</v>
       </c>
       <c r="N27" t="str">
-        <f>_xlfn.IFS(ABS(A11-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A11-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O27" t="str">
-        <f>_xlfn.IFS(ABS(B11-R$5)&lt;=0.01*R$5,"Lower",ABS(B11-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P27" t="str">
-        <f>_xlfn.IFS(ABS(C11-S$5)&lt;=0.01*S$5,"Lower",ABS(C11-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q27" t="str">
-        <f>_xlfn.IFS(ABS(D11-T$5)&lt;=0.01*T$5,"Lower",ABS(D11-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R27" t="str">
-        <f>_xlfn.IFS(ABS(E11-U$5)&lt;=0.01*U$5,"Lower",ABS(E11-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Lower</v>
       </c>
       <c r="S27" t="str">
-        <f>_xlfn.IFS(ABS(F11-V$5)&lt;=0.01*V$5,"Lower",ABS(F11-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T27" t="str">
-        <f>_xlfn.IFS(ABS(G11-W$5)&lt;=0.01*W$5,"Lower",ABS(G11-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Upper</v>
       </c>
       <c r="U27" t="str">
-        <f>_xlfn.IFS(ABS(H11-X$5)&lt;=0.01*X$5,"Lower",ABS(H11-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V27" t="str">
-        <f>_xlfn.IFS(ABS(I11-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I11-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W27" t="str">
-        <f>_xlfn.IFS(ABS(J11-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J11-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X27" s="1"/>
@@ -1829,43 +1987,43 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N28" t="str">
-        <f>_xlfn.IFS(ABS(A12-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A12-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O28" t="str">
-        <f>_xlfn.IFS(ABS(B12-R$5)&lt;=0.01*R$5,"Lower",ABS(B12-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P28" t="str">
-        <f>_xlfn.IFS(ABS(C12-S$5)&lt;=0.01*S$5,"Lower",ABS(C12-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q28" t="str">
-        <f>_xlfn.IFS(ABS(D12-T$5)&lt;=0.01*T$5,"Lower",ABS(D12-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R28" t="str">
-        <f>_xlfn.IFS(ABS(E12-U$5)&lt;=0.01*U$5,"Lower",ABS(E12-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Lower</v>
       </c>
       <c r="S28" t="str">
-        <f>_xlfn.IFS(ABS(F12-V$5)&lt;=0.01*V$5,"Lower",ABS(F12-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T28" t="str">
-        <f>_xlfn.IFS(ABS(G12-W$5)&lt;=0.01*W$5,"Lower",ABS(G12-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U28" t="str">
-        <f>_xlfn.IFS(ABS(H12-X$5)&lt;=0.01*X$5,"Lower",ABS(H12-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V28" t="str">
-        <f>_xlfn.IFS(ABS(I12-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I12-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W28" t="str">
-        <f>_xlfn.IFS(ABS(J12-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J12-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X28" s="1"/>
@@ -1886,43 +2044,43 @@
         <v>16</v>
       </c>
       <c r="N29" t="str">
-        <f>_xlfn.IFS(ABS(A13-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A13-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O29" t="str">
-        <f>_xlfn.IFS(ABS(B13-R$5)&lt;=0.01*R$5,"Lower",ABS(B13-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P29" t="str">
-        <f>_xlfn.IFS(ABS(C13-S$5)&lt;=0.01*S$5,"Lower",ABS(C13-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q29" t="str">
-        <f>_xlfn.IFS(ABS(D13-T$5)&lt;=0.01*T$5,"Lower",ABS(D13-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R29" t="str">
-        <f>_xlfn.IFS(ABS(E13-U$5)&lt;=0.01*U$5,"Lower",ABS(E13-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S29" t="str">
-        <f>_xlfn.IFS(ABS(F13-V$5)&lt;=0.01*V$5,"Lower",ABS(F13-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T29" t="str">
-        <f>_xlfn.IFS(ABS(G13-W$5)&lt;=0.01*W$5,"Lower",ABS(G13-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U29" t="str">
-        <f>_xlfn.IFS(ABS(H13-X$5)&lt;=0.01*X$5,"Lower",ABS(H13-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V29" t="str">
-        <f>_xlfn.IFS(ABS(I13-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I13-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W29" t="str">
-        <f>_xlfn.IFS(ABS(J13-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J13-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X29" s="1"/>
@@ -1950,43 +2108,43 @@
         <v>874960948.85297513</v>
       </c>
       <c r="N30" t="str">
-        <f>_xlfn.IFS(ABS(A14-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A14-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O30" t="str">
-        <f>_xlfn.IFS(ABS(B14-R$5)&lt;=0.01*R$5,"Lower",ABS(B14-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P30" t="str">
-        <f>_xlfn.IFS(ABS(C14-S$5)&lt;=0.01*S$5,"Lower",ABS(C14-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q30" t="str">
-        <f>_xlfn.IFS(ABS(D14-T$5)&lt;=0.01*T$5,"Lower",ABS(D14-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R30" t="str">
-        <f>_xlfn.IFS(ABS(E14-U$5)&lt;=0.01*U$5,"Lower",ABS(E14-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S30" t="str">
-        <f>_xlfn.IFS(ABS(F14-V$5)&lt;=0.01*V$5,"Lower",ABS(F14-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T30" t="str">
-        <f>_xlfn.IFS(ABS(G14-W$5)&lt;=0.01*W$5,"Lower",ABS(G14-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U30" t="str">
-        <f>_xlfn.IFS(ABS(H14-X$5)&lt;=0.01*X$5,"Lower",ABS(H14-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V30" t="str">
-        <f>_xlfn.IFS(ABS(I14-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I14-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W30" t="str">
-        <f>_xlfn.IFS(ABS(J14-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J14-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X30" s="1"/>
@@ -2011,43 +2169,43 @@
         <v>135273086.9832198</v>
       </c>
       <c r="N31" t="str">
-        <f>_xlfn.IFS(ABS(A15-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A15-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O31" t="str">
-        <f>_xlfn.IFS(ABS(B15-R$5)&lt;=0.01*R$5,"Lower",ABS(B15-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P31" t="str">
-        <f>_xlfn.IFS(ABS(C15-S$5)&lt;=0.01*S$5,"Lower",ABS(C15-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q31" t="str">
-        <f>_xlfn.IFS(ABS(D15-T$5)&lt;=0.01*T$5,"Lower",ABS(D15-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R31" t="str">
-        <f>_xlfn.IFS(ABS(E15-U$5)&lt;=0.01*U$5,"Lower",ABS(E15-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S31" t="str">
-        <f>_xlfn.IFS(ABS(F15-V$5)&lt;=0.01*V$5,"Lower",ABS(F15-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T31" t="str">
-        <f>_xlfn.IFS(ABS(G15-W$5)&lt;=0.01*W$5,"Lower",ABS(G15-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U31" t="str">
-        <f>_xlfn.IFS(ABS(H15-X$5)&lt;=0.01*X$5,"Lower",ABS(H15-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V31" t="str">
-        <f>_xlfn.IFS(ABS(I15-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I15-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W31" t="str">
-        <f>_xlfn.IFS(ABS(J15-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J15-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X31" s="1"/>
@@ -2056,43 +2214,43 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N32" t="str">
-        <f>_xlfn.IFS(ABS(A16-Q$5)&lt;=0.01*Q$5,"Lower",ABS(A16-Q$6)&lt;=0.01*Q$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="0"/>
         <v>Ok</v>
       </c>
       <c r="O32" t="str">
-        <f>_xlfn.IFS(ABS(B16-R$5)&lt;=0.01*R$5,"Lower",ABS(B16-R$6)&lt;=0.01*R$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
       <c r="P32" t="str">
-        <f>_xlfn.IFS(ABS(C16-S$5)&lt;=0.01*S$5,"Lower",ABS(C16-S$6)&lt;=0.01*S$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="2"/>
         <v>Ok</v>
       </c>
       <c r="Q32" t="str">
-        <f>_xlfn.IFS(ABS(D16-T$5)&lt;=0.01*T$5,"Lower",ABS(D16-T$6)&lt;=0.01*T$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="3"/>
         <v>Ok</v>
       </c>
       <c r="R32" t="str">
-        <f>_xlfn.IFS(ABS(E16-U$5)&lt;=0.01*U$5,"Lower",ABS(E16-U$6)&lt;=0.01*U$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="4"/>
         <v>Ok</v>
       </c>
       <c r="S32" t="str">
-        <f>_xlfn.IFS(ABS(F16-V$5)&lt;=0.01*V$5,"Lower",ABS(F16-V$6)&lt;=0.01*V$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="5"/>
         <v>Ok</v>
       </c>
       <c r="T32" t="str">
-        <f>_xlfn.IFS(ABS(G16-W$5)&lt;=0.01*W$5,"Lower",ABS(G16-W$6)&lt;=0.01*W$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>Ok</v>
       </c>
       <c r="U32" t="str">
-        <f>_xlfn.IFS(ABS(H16-X$5)&lt;=0.01*X$5,"Lower",ABS(H16-X$6)&lt;=0.01*X$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="7"/>
         <v>Ok</v>
       </c>
       <c r="V32" t="str">
-        <f>_xlfn.IFS(ABS(I16-Y$5)&lt;=0.01*Y$5,"Lower",ABS(I16-Y$6)&lt;=0.01*Y$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="8"/>
         <v>Ok</v>
       </c>
       <c r="W32" t="str">
-        <f>_xlfn.IFS(ABS(J16-Z$5)&lt;=0.01*Z$5,"Lower",ABS(J16-Z$6)&lt;=0.01*Z$6,"Upper",TRUE,"Ok")</f>
+        <f t="shared" si="9"/>
         <v>Ok</v>
       </c>
       <c r="X32" s="1"/>
@@ -2617,8 +2775,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N17:W32">
-    <cfRule type="notContainsText" dxfId="1" priority="1" operator="notContains" text="Ok">
+    <cfRule type="notContainsText" dxfId="1" priority="4" operator="notContains" text="Ok">
       <formula>ISERROR(SEARCH("Ok",N17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE69C8-C3E4-41C2-BE3B-F96509230825}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C21686-B458-4A94-AF09-15EAB84B143F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,28 +130,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -472,7 +451,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2754,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N17:W32">
-    <cfRule type="notContainsText" dxfId="1" priority="4" operator="notContains" text="Ok">
+    <cfRule type="notContainsText" dxfId="0" priority="4" operator="notContains" text="Ok">
       <formula>ISERROR(SEARCH("Ok",N17))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C21686-B458-4A94-AF09-15EAB84B143F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0243E18-C733-4F28-81C8-3992D5256054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -747,52 +747,52 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2.2283875092810386E-2</v>
+        <v>2.8485153009081172E-2</v>
       </c>
       <c r="B6">
-        <v>0.76088081606892377</v>
+        <v>0.86297334996570385</v>
       </c>
       <c r="C6">
-        <v>2.6438513734614838E-2</v>
+        <v>2.6344747351444719E-2</v>
       </c>
       <c r="D6">
-        <v>708183002.10621393</v>
+        <v>220283961.18990496</v>
       </c>
       <c r="E6">
-        <v>27.745802166505612</v>
+        <v>27.385372260478452</v>
       </c>
       <c r="F6">
-        <v>62.581297296313004</v>
+        <v>62.484846405793988</v>
       </c>
       <c r="G6">
-        <v>0.91720773165160985</v>
+        <v>5.1341982211688406E-3</v>
       </c>
       <c r="H6">
-        <v>7.3901420704613924E-5</v>
+        <v>1.0689880108764041E-5</v>
       </c>
       <c r="I6">
-        <v>1.1644409474917893E-3</v>
+        <v>1.70599990405285E-4</v>
       </c>
       <c r="J6">
-        <v>3.2822589709025589E-4</v>
+        <v>5.7371436298185564E-4</v>
       </c>
       <c r="K6">
-        <v>0.99274784246464076</v>
+        <v>0.99284636329150489</v>
       </c>
       <c r="L6">
-        <v>0.99619568212029752</v>
+        <v>0.9961313371698316</v>
       </c>
       <c r="M6">
-        <v>0.96261722780743508</v>
+        <v>0.96572359980665112</v>
       </c>
       <c r="N6">
-        <v>8.4732732518228507E-2</v>
+        <v>8.4155215770682495E-2</v>
       </c>
       <c r="O6">
-        <v>6.1369982083307177E-2</v>
+        <v>6.1886801515886339E-2</v>
       </c>
       <c r="P6">
-        <v>0.19237708925607355</v>
+        <v>0.1842108471057429</v>
       </c>
       <c r="Q6">
         <v>0.08</v>
@@ -1130,52 +1130,52 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.7555714259145157E-2</v>
+        <v>1.8161402303727852E-2</v>
       </c>
       <c r="B13">
-        <v>0.29256659599574791</v>
+        <v>0.29768615002318066</v>
       </c>
       <c r="C13">
-        <v>2.7101052612234562E-2</v>
+        <v>2.6815875178212798E-2</v>
       </c>
       <c r="D13">
-        <v>597167837.01600289</v>
+        <v>492855589.35860401</v>
       </c>
       <c r="E13">
-        <v>33.144009206350951</v>
+        <v>33.011665073474873</v>
       </c>
       <c r="F13">
-        <v>63.170967958347838</v>
+        <v>63.143880638923228</v>
       </c>
       <c r="G13">
-        <v>0.10651095331067559</v>
+        <v>1.1279517962478399E-3</v>
       </c>
       <c r="H13">
-        <v>1.5889883872670572E-2</v>
+        <v>9.0448712362826405E-3</v>
       </c>
       <c r="I13">
-        <v>0.58493618840519868</v>
+        <v>0.60102695522390481</v>
       </c>
       <c r="J13">
-        <v>1.4990277632309377E-5</v>
+        <v>2.8734711070142958E-6</v>
       </c>
       <c r="K13">
-        <v>0.99777797601659834</v>
+        <v>0.99779842035800714</v>
       </c>
       <c r="L13">
-        <v>0.98201039360123632</v>
+        <v>0.98224323259105983</v>
       </c>
       <c r="M13">
-        <v>0.75524386469984528</v>
+        <v>0.7564785955631903</v>
       </c>
       <c r="N13">
-        <v>4.6902065450976152E-2</v>
+        <v>4.6685799185329745E-2</v>
       </c>
       <c r="O13">
-        <v>0.13345302669769621</v>
+        <v>0.13258657448946634</v>
       </c>
       <c r="P13">
-        <v>0.49224848800900661</v>
+        <v>0.49100528550356926</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -1230,52 +1230,52 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2.8399763479961902E-2</v>
+        <v>2.4964693400963234E-2</v>
       </c>
       <c r="B15">
-        <v>0.54343958615847388</v>
+        <v>0.35337765057996651</v>
       </c>
       <c r="C15">
-        <v>7.6219058419520813E-2</v>
+        <v>4.1409677904350399E-2</v>
       </c>
       <c r="D15">
-        <v>692867037.09136713</v>
+        <v>505562080.06205565</v>
       </c>
       <c r="E15">
-        <v>23.49687355461749</v>
+        <v>23.311738782413769</v>
       </c>
       <c r="F15">
-        <v>73.570853727913274</v>
+        <v>73.531399846732299</v>
       </c>
       <c r="G15">
-        <v>0.18138078849669231</v>
+        <v>3.6134982773081098E-3</v>
       </c>
       <c r="H15">
-        <v>0.48028891679294045</v>
+        <v>0.12884805991454981</v>
       </c>
       <c r="I15">
-        <v>0.10644097251155447</v>
+        <v>1.5890966837976868E-3</v>
       </c>
       <c r="J15">
-        <v>6.5827422630521156E-3</v>
+        <v>4.1593658086928869E-3</v>
       </c>
       <c r="K15">
-        <v>0.9972200160501562</v>
+        <v>0.99724616386640075</v>
       </c>
       <c r="L15">
-        <v>0.99400119516600871</v>
+        <v>0.99443910669687763</v>
       </c>
       <c r="M15">
-        <v>0.76170923806672786</v>
+        <v>0.77735570342480309</v>
       </c>
       <c r="N15">
-        <v>5.2461262950345797E-2</v>
+        <v>5.2213961468780483E-2</v>
       </c>
       <c r="O15">
-        <v>7.7063718997017833E-2</v>
+        <v>7.4197603533342857E-2</v>
       </c>
       <c r="P15">
-        <v>0.48570346335386516</v>
+        <v>0.4694867981205062</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C18">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>1.6746543362090131E-2</v>
+        <v>1.881363600084706E-2</v>
       </c>
       <c r="D18">
         <f>AVERAGE(A$7:A$12)</f>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E18">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>1.8622126579096846E-2</v>
+        <v>1.7914781070492852E-2</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C19">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>3.5091869731865158E-3</v>
+        <v>5.2946617313018246E-3</v>
       </c>
       <c r="D19">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E19">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>3.6968551269839821E-3</v>
+        <v>2.9678907413511688E-3</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D22">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.94035728406287589</v>
+        <v>0.9743881286951358</v>
       </c>
       <c r="E22">
         <f>AVERAGE(B$7:B$12)</f>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F22">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.59155156721494173</v>
+        <v>0.54531597182717306</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D23">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>0.10232843850656829</v>
+        <v>7.4306607486337189E-2</v>
       </c>
       <c r="E23">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F23">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.21521679706093569</v>
+        <v>0.22335421008885226</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="E26">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.040280909699435E-2</v>
+        <v>5.0371553635937642E-2</v>
       </c>
       <c r="F26">
         <f>AVERAGE(C$7:C$12)</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="G26">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>4.6496103808292069E-2</v>
+        <v>3.7722464320994027E-2</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="E27">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>1.3303317981380821E-2</v>
+        <v>1.3331476336776308E-2</v>
       </c>
       <c r="F27">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="G27">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.1591637186701999E-2</v>
+        <v>6.1782327455275942E-3</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="F30">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>1221099133.720469</v>
+        <v>1058466120.0816994</v>
       </c>
       <c r="G30">
         <f>AVERAGE(D$7:D$12)</f>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="H30">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>874960948.85297513</v>
+        <v>802056647.68129754</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F31">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>392609550.31807703</v>
+        <v>513817917.51023734</v>
       </c>
       <c r="G31">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="H31">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>135273086.9832198</v>
+        <v>175702962.54378095</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="G34">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>27.919510554631842</v>
+        <v>27.799367252622787</v>
       </c>
       <c r="H34">
         <f>AVERAGE(E$7:E$12)</f>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="I34">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>33.125534119552725</v>
+        <v>33.046164393282773</v>
       </c>
     </row>
     <row r="35" spans="5:26" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G35">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>4.6232877174978269</v>
+        <v>4.6271042381947707</v>
       </c>
       <c r="H35">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="I35">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>3.8898742674058817</v>
+        <v>3.9281077193336191</v>
       </c>
     </row>
     <row r="37" spans="5:26" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="H38">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>63.78210266773926</v>
+        <v>63.749952370899585</v>
       </c>
       <c r="I38">
         <f>AVERAGE(F$7:F$12)</f>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J38">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>65.855027108862018</v>
+        <v>65.838391808710625</v>
       </c>
     </row>
     <row r="39" spans="5:26" x14ac:dyDescent="0.3">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="H39">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>1.2402230706464632</v>
+        <v>1.2561023667236075</v>
       </c>
       <c r="I39">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="J39">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>3.0412466507963063</v>
+        <v>3.0349070141215928</v>
       </c>
     </row>
     <row r="41" spans="5:26" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="I42">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>1.5700161814974185</v>
+        <v>1.265991670353938</v>
       </c>
       <c r="J42">
         <f>AVERAGE(G$7:G$12)</f>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="K42">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.42947289947291256</v>
+        <v>0.3586853265394595</v>
       </c>
     </row>
     <row r="43" spans="5:26" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="I43">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.42234560566231549</v>
+        <v>0.68503757840939317</v>
       </c>
       <c r="J43">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K43">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.17751313585658005</v>
+        <v>0.21545860942063225</v>
       </c>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="J46">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.35491256189407322</v>
+        <v>0.35489149138054127</v>
       </c>
       <c r="K46">
         <f>AVERAGE(H$7:H$12)</f>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="L46">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>1.6809206770537894</v>
+        <v>1.591349209675095</v>
       </c>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.3">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="J47">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>0.17867664791111951</v>
+        <v>0.17869757017239454</v>
       </c>
       <c r="K47">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="L47">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>1.5066873503678246</v>
+        <v>1.5329558327783637</v>
       </c>
     </row>
     <row r="49" spans="9:16" x14ac:dyDescent="0.3">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="K50">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>2.3822873102197554E-2</v>
+        <v>2.3491592783168716E-2</v>
       </c>
       <c r="L50">
         <f>AVERAGE(I$7:I$12)</f>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="M50">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>0.38229726135867326</v>
+        <v>0.36010698410641057</v>
       </c>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.3">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="K51">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>2.324308344767308E-2</v>
+        <v>2.3406344597954085E-2</v>
       </c>
       <c r="L51">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="M51">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>0.19807490056484464</v>
+        <v>0.21300557894973979</v>
       </c>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="L54">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>9.8151427070226824E-3</v>
+        <v>9.8969721956532163E-3</v>
       </c>
       <c r="M54">
         <f>AVERAGE(J$7:J$12)</f>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="N54">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>5.1451664930481002E-3</v>
+        <v>4.5362931778269696E-3</v>
       </c>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.3">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="L55">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>9.5270595720455872E-3</v>
+        <v>9.4865826620168028E-3</v>
       </c>
       <c r="M55">
         <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="N55">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>3.1692103339942441E-3</v>
+        <v>3.1367907067343008E-3</v>
       </c>
     </row>
     <row r="57" spans="9:16" x14ac:dyDescent="0.3">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="M58">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.98598099875556156</v>
+        <v>0.986013839031183</v>
       </c>
       <c r="N58">
         <f>AVERAGE(K$7:K$12)</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="O58">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99647988019449563</v>
+        <v>0.99649152823390885</v>
       </c>
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="M59">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>5.4642052384282162E-3</v>
+        <v>5.4846004762299852E-3</v>
       </c>
       <c r="N59">
         <f>STDEV(K$7:K$12)/SQRT(COUNT(K$7:K$12))</f>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="O59">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>9.1982710216302534E-4</v>
+        <v>9.2400058836657325E-4</v>
       </c>
     </row>
     <row r="61" spans="9:16" x14ac:dyDescent="0.3">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="N62">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.98079177819842833</v>
+        <v>0.98077032988160651</v>
       </c>
       <c r="O62">
         <f>AVERAGE(L$7:L$12)</f>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="P62">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.96543535926271795</v>
+        <v>0.965603046892891</v>
       </c>
     </row>
     <row r="63" spans="9:16" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="N63">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>7.7019552879088243E-3</v>
+        <v>7.6805069803776429E-3</v>
       </c>
       <c r="O63">
         <f>STDEV(L$7:L$12)/SQRT(COUNT(L$7:L$12))</f>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="P63">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>1.5880598646311132E-2</v>
+        <v>1.5966610240036046E-2</v>
       </c>
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="O66">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.98169432077108609</v>
+        <v>0.98272977810415807</v>
       </c>
       <c r="P66">
         <f>AVERAGE(M$7:M$12)</f>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="Q66">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.76915798176648875</v>
+        <v>0.77337828082184379</v>
       </c>
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="O67">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>9.7224389946675652E-3</v>
+        <v>8.7088734111098482E-3</v>
       </c>
       <c r="P67">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="Q67">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>4.8016842424855724E-2</v>
+        <v>4.7936629365762005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0243E18-C733-4F28-81C8-3992D5256054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34168D1-DD8F-422C-BD06-D776C9ED798C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34168D1-DD8F-422C-BD06-D776C9ED798C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC059F3-7718-4E3C-BA36-3165879AAE0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,1877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kpl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$19:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.2118466964478522E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2946617313018246E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.5838168193029416E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9678907413511688E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$19:$E$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.2118466964478522E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2946617313018246E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.5838168193029416E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9678907413511688E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$17:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8022337945321011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.881363600084706E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6168118403753497E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7914781070492852E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C98D-4292-8C4E-2B7EA950A520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="536602040"/>
+        <c:axId val="536601056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="536602040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536601056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="536601056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536602040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMCT4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$23:$F$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.11093798793100179</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.4306607486337189E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13975993207811596</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.22335421008885226</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$23:$F$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.11093798793100179</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.4306607486337189E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13975993207811596</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.22335421008885226</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$21:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.58083466364087666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9743881286951358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64293711066939185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54531597182717306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01F2-4E3D-A669-2EA217E533B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="303917064"/>
+        <c:axId val="397073928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="303917064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397073928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397073928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303917064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21F5171-6A3C-46AA-8744-E284A0A3B430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D92116-571C-49B0-A789-356F3AB2A79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +2322,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2796,5 +4667,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC059F3-7718-4E3C-BA36-3165879AAE0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27BE54-808B-476D-9D51-AEE2887FFBB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27BE54-808B-476D-9D51-AEE2887FFBB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC059F3-7718-4E3C-BA36-3165879AAE0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:W33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27BE54-808B-476D-9D51-AEE2887FFBB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B76AAA-2D1F-4C77-BB32-360C2D905B57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,16 +237,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.2118466964478522E-4</c:v>
+                    <c:v>4.2666771363197775E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.2946617313018246E-3</c:v>
+                    <c:v>5.9392984180439623E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.5838168193029416E-3</c:v>
+                    <c:v>5.7185710840118907E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.9678907413511688E-3</c:v>
+                    <c:v>3.7708783250834685E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -258,16 +258,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.2118466964478522E-4</c:v>
+                    <c:v>4.2666771363197775E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.2946617313018246E-3</c:v>
+                    <c:v>5.9392984180439623E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.5838168193029416E-3</c:v>
+                    <c:v>5.7185710840118907E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.9678907413511688E-3</c:v>
+                    <c:v>3.7708783250834685E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -313,16 +313,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.8022337945321011E-3</c:v>
+                  <c:v>1.1550560550268181E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.881363600084706E-2</c:v>
+                  <c:v>2.1377594092198759E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6168118403753497E-2</c:v>
+                  <c:v>2.2791352636146955E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7914781070492852E-2</c:v>
+                  <c:v>1.618642561101408E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,16 +591,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.11093798793100179</c:v>
+                    <c:v>0.41503778125067359</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4306607486337189E-2</c:v>
+                    <c:v>0.22931976591253844</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.13975993207811596</c:v>
+                    <c:v>0.10557903479951711</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.22335421008885226</c:v>
+                    <c:v>3.7972869506846606E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -612,16 +612,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.11093798793100179</c:v>
+                    <c:v>0.41503778125067359</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4306607486337189E-2</c:v>
+                    <c:v>0.22931976591253844</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.13975993207811596</c:v>
+                    <c:v>0.10557903479951711</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.22335421008885226</c:v>
+                    <c:v>3.7972869506846606E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -667,16 +667,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.58083466364087666</c:v>
+                  <c:v>0.9306280512786107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9743881286951358</c:v>
+                  <c:v>1.1202397866771421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64293711066939185</c:v>
+                  <c:v>0.62746721845947739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54531597182717306</c:v>
+                  <c:v>0.35953878509459564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,264 +2321,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:W33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>6.9136536695066303E-3</v>
+        <v>2.0083537461702335E-2</v>
       </c>
       <c r="B1">
-        <v>0.65434724066387473</v>
+        <v>1.7520409173765616</v>
       </c>
       <c r="C1">
-        <v>3.082274900810672E-2</v>
+        <v>4.8772518781053681E-2</v>
       </c>
       <c r="D1">
-        <v>1018498511.2426976</v>
+        <v>1042001816.0722967</v>
       </c>
       <c r="E1">
-        <v>24.135636818838965</v>
+        <v>24.133423092011881</v>
       </c>
       <c r="F1">
-        <v>61.896517394008413</v>
+        <v>61.89926138989793</v>
       </c>
       <c r="G1">
-        <v>1.7462093943114396</v>
+        <v>1.7749106169855366</v>
       </c>
       <c r="H1">
-        <v>1.0739930953490389E-3</v>
+        <v>2.2694660889443252</v>
       </c>
       <c r="I1">
-        <v>0.53506830791041093</v>
+        <v>0.20986370632692153</v>
       </c>
       <c r="J1">
-        <v>3.7306929113602879E-5</v>
+        <v>7.8609807320098764E-3</v>
       </c>
       <c r="K1">
-        <v>0.9915837210261762</v>
+        <v>0.99158378035703953</v>
       </c>
       <c r="L1">
-        <v>0.93110716162743778</v>
+        <v>0.92328399814140283</v>
       </c>
       <c r="M1">
-        <v>0.86631510473754825</v>
+        <v>0.8483400771693872</v>
       </c>
       <c r="N1">
-        <v>9.1280426073093765E-2</v>
+        <v>9.1280104330192444E-2</v>
       </c>
       <c r="O1">
-        <v>0.2611587830972501</v>
+        <v>0.27558817434717919</v>
       </c>
       <c r="P1">
-        <v>0.36379671014156689</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.38748332041819128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6.0234202777238264E-3</v>
+        <v>7.2145729687972636E-3</v>
       </c>
       <c r="B2">
-        <v>0.72537547180529116</v>
+        <v>0.6235061593205159</v>
       </c>
       <c r="C2">
-        <v>4.1807771958779723E-2</v>
+        <v>3.1403069980343527E-2</v>
       </c>
       <c r="D2">
-        <v>980128913.68996525</v>
+        <v>947356857.48649359</v>
       </c>
       <c r="E2">
-        <v>23.934025567960202</v>
+        <v>23.929520032436475</v>
       </c>
       <c r="F2">
-        <v>66.859347728849357</v>
+        <v>66.8602992418474</v>
       </c>
       <c r="G2">
-        <v>3.4543045748955548</v>
+        <v>3.3366546055048589</v>
       </c>
       <c r="H2">
-        <v>8.1492704035017113E-3</v>
+        <v>0.2757629136960012</v>
       </c>
       <c r="I2">
-        <v>0.348039537420955</v>
+        <v>5.7584184494687918E-14</v>
       </c>
       <c r="J2">
-        <v>3.0848971223918719E-3</v>
+        <v>4.3683630308126534E-4</v>
       </c>
       <c r="K2">
-        <v>0.99572897949254002</v>
+        <v>0.99572901539698111</v>
       </c>
       <c r="L2">
-        <v>0.98252748020239711</v>
+        <v>0.98132214986591138</v>
       </c>
       <c r="M2">
-        <v>0.83644635726892969</v>
+        <v>0.8312292259538947</v>
       </c>
       <c r="N2">
-        <v>6.5025458878698705E-2</v>
+        <v>6.5025185559048362E-2</v>
       </c>
       <c r="O2">
-        <v>0.13152108043818253</v>
+        <v>0.13598187979560988</v>
       </c>
       <c r="P2">
-        <v>0.40239048982767922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.40875795564813683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.4696274363658458E-3</v>
+        <v>7.3535712203049476E-3</v>
       </c>
       <c r="B3">
-        <v>0.36278127845346386</v>
+        <v>0.41633707713875429</v>
       </c>
       <c r="C3">
-        <v>8.837619763955408E-2</v>
+        <v>3.0147826496029609E-2</v>
       </c>
       <c r="D3">
-        <v>1623482816.5312405</v>
+        <v>1269541488.7111399</v>
       </c>
       <c r="E3">
-        <v>20.081334056953313</v>
+        <v>20.002366415970741</v>
       </c>
       <c r="F3">
-        <v>68.272541130328079</v>
+        <v>68.360306721480967</v>
       </c>
       <c r="G3">
-        <v>1.9493857828869956</v>
+        <v>1.5078909586551996</v>
       </c>
       <c r="H3">
-        <v>2.5690219908660758E-6</v>
+        <v>1.7964027276374795E-2</v>
       </c>
       <c r="I3">
-        <v>2.5317083707811277E-5</v>
+        <v>6.3728025625702719E-2</v>
       </c>
       <c r="J3">
-        <v>2.6977573352209678E-6</v>
+        <v>1.1551315743698435E-4</v>
       </c>
       <c r="K3">
-        <v>0.99165568603271359</v>
+        <v>0.99167713936550184</v>
       </c>
       <c r="L3">
-        <v>0.96940250391659233</v>
+        <v>0.96988699420073454</v>
       </c>
       <c r="M3">
-        <v>0.80497199946786857</v>
+        <v>0.80439510477198328</v>
       </c>
       <c r="N3">
-        <v>9.0889332859327154E-2</v>
+        <v>9.0772418873538846E-2</v>
       </c>
       <c r="O3">
-        <v>0.17404459521218574</v>
+        <v>0.17266115875110061</v>
       </c>
       <c r="P3">
-        <v>0.43940609978334416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.44005550363077678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.7712398565932166E-2</v>
+        <v>2.5865503354066031E-2</v>
       </c>
       <c r="B4">
-        <v>0.9449223059630345</v>
+        <v>1.5779536931204228</v>
       </c>
       <c r="C4">
-        <v>7.2395911716633704E-2</v>
+        <v>2.6773771721534632E-2</v>
       </c>
       <c r="D4">
-        <v>962664435.49775565</v>
+        <v>957718484.97486377</v>
       </c>
       <c r="E4">
-        <v>36.012720786445179</v>
+        <v>36.012713462860596</v>
       </c>
       <c r="F4">
-        <v>66.262135540445726</v>
+        <v>66.262414427125492</v>
       </c>
       <c r="G4">
-        <v>1.4321917152300456</v>
+        <v>1.4158012128441702</v>
       </c>
       <c r="H4">
-        <v>0.56898127550021582</v>
+        <v>1.3465727753346182</v>
       </c>
       <c r="I4">
-        <v>3.750999782884344E-14</v>
+        <v>1.1355673767005428E-5</v>
       </c>
       <c r="J4">
-        <v>2.8869205548873542E-2</v>
+        <v>5.9470989490642461E-3</v>
       </c>
       <c r="K4">
-        <v>0.9900292648873189</v>
+        <v>0.99002928683186231</v>
       </c>
       <c r="L4">
-        <v>0.97310222564107141</v>
+        <v>0.97332521214223489</v>
       </c>
       <c r="M4">
-        <v>0.99449259930589695</v>
+        <v>0.99490742768045848</v>
       </c>
       <c r="N4">
-        <v>9.9353046060773789E-2</v>
+        <v>9.9352936727890862E-2</v>
       </c>
       <c r="O4">
-        <v>0.16318332211148098</v>
+        <v>0.16250550753493687</v>
       </c>
       <c r="P4">
-        <v>7.3839871933543161E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+        <v>7.1004553349388155E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.024335642752784E-2</v>
+        <v>9.608945243670881E-3</v>
       </c>
       <c r="B5">
-        <v>1.1152687301566693</v>
+        <v>0.91660484766665473</v>
       </c>
       <c r="C5">
-        <v>5.2374001839734494E-2</v>
+        <v>9.519122410113777E-2</v>
       </c>
       <c r="D5">
-        <v>1992449963.5574374</v>
+        <v>2068435770.9756751</v>
       </c>
       <c r="E5">
-        <v>20.000008710944737</v>
+        <v>20.000005533322046</v>
       </c>
       <c r="F5">
-        <v>62.502875166459049</v>
+        <v>62.508380372378724</v>
       </c>
       <c r="G5">
-        <v>2.3606490976106</v>
+        <v>2.4527505469497157</v>
       </c>
       <c r="H5">
-        <v>0.49568250876129932</v>
+        <v>0.37278804329475718</v>
       </c>
       <c r="I5">
-        <v>7.0304178359063357E-2</v>
+        <v>2.6039253972868322E-5</v>
       </c>
       <c r="J5">
-        <v>2.479966751042492E-4</v>
+        <v>2.4593872524668699E-4</v>
       </c>
       <c r="K5">
-        <v>0.975165888914725</v>
+        <v>0.97516634558211046</v>
       </c>
       <c r="L5">
-        <v>0.97307742683391629</v>
+        <v>0.97319491830659366</v>
       </c>
       <c r="M5">
-        <v>0.98797313519992624</v>
+        <v>0.98843032055060298</v>
       </c>
       <c r="N5">
-        <v>0.15679850118678521</v>
+        <v>0.15679705951869968</v>
       </c>
       <c r="O5">
-        <v>0.16325852943850397</v>
+        <v>0.16290190568704935</v>
       </c>
       <c r="P5">
-        <v>0.10911735037139131</v>
+        <v>0.1070232809014143</v>
       </c>
       <c r="Q5">
         <f>0.0001</f>
@@ -2616,54 +2616,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.8485153009081172E-2</v>
+        <v>2.8658333678859355E-2</v>
       </c>
       <c r="B6">
-        <v>0.86297334996570385</v>
+        <v>0.86616081924434918</v>
       </c>
       <c r="C6">
-        <v>2.6344747351444719E-2</v>
+        <v>2.6489969152673862E-2</v>
       </c>
       <c r="D6">
-        <v>220283961.18990496</v>
+        <v>218089556.17748302</v>
       </c>
       <c r="E6">
-        <v>27.385372260478452</v>
+        <v>27.379994746662383</v>
       </c>
       <c r="F6">
-        <v>62.484846405793988</v>
+        <v>62.477643732360505</v>
       </c>
       <c r="G6">
-        <v>5.1341982211688406E-3</v>
+        <v>1.4002408534976649E-4</v>
       </c>
       <c r="H6">
-        <v>1.0689880108764041E-5</v>
+        <v>2.9633673625127334E-4</v>
       </c>
       <c r="I6">
-        <v>1.70599990405285E-4</v>
+        <v>1.9306776972237686E-6</v>
       </c>
       <c r="J6">
-        <v>5.7371436298185564E-4</v>
+        <v>1.3778705849564515E-2</v>
       </c>
       <c r="K6">
-        <v>0.99284636329150489</v>
+        <v>0.99284844596591471</v>
       </c>
       <c r="L6">
-        <v>0.9961313371698316</v>
+        <v>0.99599211269779064</v>
       </c>
       <c r="M6">
-        <v>0.96572359980665112</v>
+        <v>0.96556318489159554</v>
       </c>
       <c r="N6">
-        <v>8.4155215770682495E-2</v>
+        <v>8.4142964612286153E-2</v>
       </c>
       <c r="O6">
-        <v>6.1886801515886339E-2</v>
+        <v>6.2990542378894107E-2</v>
       </c>
       <c r="P6">
-        <v>0.1842108471057429</v>
+        <v>0.18464140098396259</v>
       </c>
       <c r="Q6">
         <v>0.08</v>
@@ -2699,507 +2699,507 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.7814969175240036E-2</v>
+        <v>2.8004753945631164E-2</v>
       </c>
       <c r="B7">
-        <v>0.55104786884348655</v>
+        <v>0.47929352061486274</v>
       </c>
       <c r="C7">
-        <v>2.6350601727476927E-2</v>
+        <v>2.6639964837221225E-2</v>
       </c>
       <c r="D7">
-        <v>934291287.93717039</v>
+        <v>850494288.10236335</v>
       </c>
       <c r="E7">
-        <v>39.28707048040372</v>
+        <v>39.291611540134738</v>
       </c>
       <c r="F7">
-        <v>54.636363329700018</v>
+        <v>54.626947219309592</v>
       </c>
       <c r="G7">
-        <v>1.7319841808989835</v>
+        <v>1.5681073173291431</v>
       </c>
       <c r="H7">
-        <v>1.8500203987033524E-2</v>
+        <v>4.8670053882550463E-4</v>
       </c>
       <c r="I7">
-        <v>0.89594548732232437</v>
+        <v>0.72513082298064113</v>
       </c>
       <c r="J7">
-        <v>2.8928409993310563E-6</v>
+        <v>2.0526369158031475E-5</v>
       </c>
       <c r="K7">
-        <v>0.99707944425867268</v>
+        <v>0.99707942419027928</v>
       </c>
       <c r="L7">
-        <v>0.94434036691829126</v>
+        <v>0.94438799314792765</v>
       </c>
       <c r="M7">
-        <v>0.79032025575929366</v>
+        <v>0.79219960802438982</v>
       </c>
       <c r="N7">
-        <v>5.3771276569503562E-2</v>
+        <v>5.3771461311958771E-2</v>
       </c>
       <c r="O7">
-        <v>0.23474036029386103</v>
+        <v>0.23463990876138607</v>
       </c>
       <c r="P7">
-        <v>0.45561271579961338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.45356629951513605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.5703100976456124E-2</v>
+        <v>3.0922808887962727E-2</v>
       </c>
       <c r="B8">
-        <v>0.31167992720347504</v>
+        <v>0.41028094322544967</v>
       </c>
       <c r="C8">
-        <v>2.9393195059055827E-2</v>
+        <v>3.3099651908804754E-2</v>
       </c>
       <c r="D8">
-        <v>999396107.8119067</v>
+        <v>978238929.84571648</v>
       </c>
       <c r="E8">
-        <v>34.542454048738776</v>
+        <v>34.542270063380002</v>
       </c>
       <c r="F8">
-        <v>62.650369110883283</v>
+        <v>62.649070033422412</v>
       </c>
       <c r="G8">
-        <v>1.1976583717168294</v>
+        <v>1.1644784579225431</v>
       </c>
       <c r="H8">
-        <v>4.6811716265920981E-3</v>
+        <v>0.39563440853459181</v>
       </c>
       <c r="I8">
-        <v>0.29810716284998812</v>
+        <v>0.22531590423535042</v>
       </c>
       <c r="J8">
-        <v>9.0615415146892114E-8</v>
+        <v>1.4976692194087671E-2</v>
       </c>
       <c r="K8">
-        <v>0.99752262698515248</v>
+        <v>0.99752251000971381</v>
       </c>
       <c r="L8">
-        <v>0.98071965788080173</v>
+        <v>0.97922154560332886</v>
       </c>
       <c r="M8">
-        <v>0.88003964109000599</v>
+        <v>0.87103297218412612</v>
       </c>
       <c r="N8">
-        <v>4.9526200835072927E-2</v>
+        <v>4.9527370073747308E-2</v>
       </c>
       <c r="O8">
-        <v>0.13816456724779552</v>
+        <v>0.1434319599162508</v>
       </c>
       <c r="P8">
-        <v>0.3446340560422787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.35733755267305761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.1255734514533118E-3</v>
+        <v>6.3617820373952673E-3</v>
       </c>
       <c r="B9">
-        <v>0.47538706960793403</v>
+        <v>0.49848711685585184</v>
       </c>
       <c r="C9">
-        <v>5.258670666395629E-2</v>
+        <v>9.8228773413969864E-2</v>
       </c>
       <c r="D9">
-        <v>997214452.99972153</v>
+        <v>961702450.56976891</v>
       </c>
       <c r="E9">
-        <v>32.97889125690358</v>
+        <v>32.966737669604761</v>
       </c>
       <c r="F9">
-        <v>68.828488158881854</v>
+        <v>68.828754114591078</v>
       </c>
       <c r="G9">
-        <v>0.40223830042938258</v>
+        <v>0.37485924097062845</v>
       </c>
       <c r="H9">
-        <v>0.93224490884288458</v>
+        <v>0.8873000495428004</v>
       </c>
       <c r="I9">
-        <v>3.9916348057140581E-14</v>
+        <v>0.13521577505062485</v>
       </c>
       <c r="J9">
-        <v>3.9987820833624092E-3</v>
+        <v>4.7073808755844163E-3</v>
       </c>
       <c r="K9">
-        <v>0.99565546655475778</v>
+        <v>0.99565581660816604</v>
       </c>
       <c r="L9">
-        <v>0.93873162621762507</v>
+        <v>0.93862480771937273</v>
       </c>
       <c r="M9">
-        <v>0.973122667106468</v>
+        <v>0.9730503286682588</v>
       </c>
       <c r="N9">
-        <v>6.5582681485204214E-2</v>
+        <v>6.5580039325358844E-2</v>
       </c>
       <c r="O9">
-        <v>0.24628375919770104</v>
+        <v>0.24649835771830406</v>
       </c>
       <c r="P9">
-        <v>0.1631213032212431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.16334067043582182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.5242940401677674E-3</v>
+        <v>4.6032373937723737E-3</v>
       </c>
       <c r="B10">
-        <v>0.41444434239166855</v>
+        <v>0.61577932650159772</v>
       </c>
       <c r="C10">
-        <v>2.7203574844276712E-2</v>
+        <v>2.6407714102896503E-2</v>
       </c>
       <c r="D10">
-        <v>946020071.96062279</v>
+        <v>885954560.85841548</v>
       </c>
       <c r="E10">
-        <v>40.702741912507385</v>
+        <v>40.70284895349419</v>
       </c>
       <c r="F10">
-        <v>46.00783620549867</v>
+        <v>46.007322949468119</v>
       </c>
       <c r="G10">
-        <v>2.7986650544906229</v>
+        <v>2.6190720262200178</v>
       </c>
       <c r="H10">
-        <v>1.308133649476105E-3</v>
+        <v>4.433727626252789E-6</v>
       </c>
       <c r="I10">
-        <v>3.0308465528381136E-3</v>
+        <v>0.28649271546123956</v>
       </c>
       <c r="J10">
-        <v>4.6361659021882853E-3</v>
+        <v>1.6931205818653976E-2</v>
       </c>
       <c r="K10">
-        <v>0.99087489193466494</v>
+        <v>0.99087493932233717</v>
       </c>
       <c r="L10">
-        <v>0.99331153179057219</v>
+        <v>0.99318373784462921</v>
       </c>
       <c r="M10">
-        <v>0.96134424901816062</v>
+        <v>0.95823211736897196</v>
       </c>
       <c r="N10">
-        <v>9.5046604277489441E-2</v>
+        <v>9.5046357483525648E-2</v>
       </c>
       <c r="O10">
-        <v>8.1373113049296272E-2</v>
+        <v>8.2146816942697876E-2</v>
       </c>
       <c r="P10">
-        <v>0.19562513507221158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.20334749520148454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4.2418355067693599E-2</v>
+        <v>2.7916116131415213E-2</v>
       </c>
       <c r="B11">
-        <v>0.89129782709755345</v>
+        <v>0.63504482524393069</v>
       </c>
       <c r="C11">
-        <v>4.913815001194978E-2</v>
+        <v>3.651470557599279E-2</v>
       </c>
       <c r="D11">
-        <v>842238714.84136331</v>
+        <v>839392771.60937309</v>
       </c>
       <c r="E11">
-        <v>20.001120632920255</v>
+        <v>20.000179786272319</v>
       </c>
       <c r="F11">
-        <v>71.115256756157066</v>
+        <v>71.116837918329097</v>
       </c>
       <c r="G11">
-        <v>9.9680762264950893</v>
+        <v>9.9487113593667686</v>
       </c>
       <c r="H11">
-        <v>1.3604551793670192</v>
+        <v>0.38064611240875074</v>
       </c>
       <c r="I11">
-        <v>0.56607153986661818</v>
+        <v>0.81300811565552278</v>
       </c>
       <c r="J11">
-        <v>1.5795247902816193E-3</v>
+        <v>9.808894077171081E-4</v>
       </c>
       <c r="K11">
-        <v>0.98366164941327594</v>
+        <v>0.98366205808494112</v>
       </c>
       <c r="L11">
-        <v>0.95226262565760122</v>
+        <v>0.95451208705446156</v>
       </c>
       <c r="M11">
-        <v>0.86722456957405569</v>
+        <v>0.87286741074673624</v>
       </c>
       <c r="N11">
-        <v>0.12718084400119686</v>
+        <v>0.12717925340207153</v>
       </c>
       <c r="O11">
-        <v>0.21739365353886214</v>
+        <v>0.21220988152318221</v>
       </c>
       <c r="P11">
-        <v>0.3625571349755578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.35476931006039847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5.042241771151016E-2</v>
+        <v>3.8939417420704989E-2</v>
       </c>
       <c r="B12">
-        <v>1.2137656288722338</v>
+        <v>1.1259175783151714</v>
       </c>
       <c r="C12">
-        <v>3.607207044550402E-2</v>
+        <v>3.4759250943900415E-2</v>
       </c>
       <c r="D12">
-        <v>1481939197.4083221</v>
+        <v>1562488199.1757636</v>
       </c>
       <c r="E12">
-        <v>20.000238382081928</v>
+        <v>20.000199026347023</v>
       </c>
       <c r="F12">
-        <v>69.194784193675389</v>
+        <v>69.231072856196576</v>
       </c>
       <c r="G12">
-        <v>1.1229159598214458</v>
+        <v>1.2054110979561823</v>
       </c>
       <c r="H12">
-        <v>2.2495359208808985</v>
+        <v>1.5025939329941174</v>
       </c>
       <c r="I12">
-        <v>1.87220879834473E-4</v>
+        <v>0.54510675129103137</v>
       </c>
       <c r="J12">
-        <v>4.9982942411450022E-5</v>
+        <v>1.9336128063128125E-2</v>
       </c>
       <c r="K12">
-        <v>0.91689095183777636</v>
+        <v>0.91691247631611572</v>
       </c>
       <c r="L12">
-        <v>0.9107362457797018</v>
+        <v>0.90925068644685114</v>
       </c>
       <c r="M12">
-        <v>0.98050072487381523</v>
+        <v>0.97776154031950768</v>
       </c>
       <c r="N12">
-        <v>0.28684134583529175</v>
+        <v>0.28680419879605229</v>
       </c>
       <c r="O12">
-        <v>0.29727279841602594</v>
+        <v>0.29973625142384319</v>
       </c>
       <c r="P12">
-        <v>0.13893985164423836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.14837814894278534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.8161402303727852E-2</v>
+        <v>1.8121558181642083E-2</v>
       </c>
       <c r="B13">
-        <v>0.29768615002318066</v>
+        <v>0.36730408010344845</v>
       </c>
       <c r="C13">
-        <v>2.6815875178212798E-2</v>
+        <v>2.6337779433521433E-2</v>
       </c>
       <c r="D13">
-        <v>492855589.35860401</v>
+        <v>491932663.1469745</v>
       </c>
       <c r="E13">
-        <v>33.011665073474873</v>
+        <v>33.001532232437391</v>
       </c>
       <c r="F13">
-        <v>63.143880638923228</v>
+        <v>63.153021219949579</v>
       </c>
       <c r="G13">
-        <v>1.1279517962478399E-3</v>
+        <v>1.5005211465519787E-4</v>
       </c>
       <c r="H13">
-        <v>9.0448712362826405E-3</v>
+        <v>4.4040272064952712E-5</v>
       </c>
       <c r="I13">
-        <v>0.60102695522390481</v>
+        <v>0.89881708004695327</v>
       </c>
       <c r="J13">
-        <v>2.8734711070142958E-6</v>
+        <v>2.4883226664670555E-6</v>
       </c>
       <c r="K13">
-        <v>0.99779842035800714</v>
+        <v>0.99779870383366964</v>
       </c>
       <c r="L13">
-        <v>0.98224323259105983</v>
+        <v>0.98249950330489311</v>
       </c>
       <c r="M13">
-        <v>0.7564785955631903</v>
+        <v>0.75388030451173627</v>
       </c>
       <c r="N13">
-        <v>4.6685799185329745E-2</v>
+        <v>4.6682793453980749E-2</v>
       </c>
       <c r="O13">
-        <v>0.13258657448946634</v>
+        <v>0.13162633371843116</v>
       </c>
       <c r="P13">
-        <v>0.49100528550356926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.49361776561767012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.8095268557853303E-2</v>
+        <v>1.8142895515613836E-2</v>
       </c>
       <c r="B14">
-        <v>0.3157258596425993</v>
+        <v>0.309320574663764</v>
       </c>
       <c r="C14">
-        <v>2.9096184713078666E-2</v>
+        <v>2.6494583886230945E-2</v>
       </c>
       <c r="D14">
-        <v>1146799888.9335432</v>
+        <v>1076094624.6490915</v>
       </c>
       <c r="E14">
-        <v>33.310876663586349</v>
+        <v>33.20328060123181</v>
       </c>
       <c r="F14">
-        <v>59.364682503964353</v>
+        <v>59.509600970555439</v>
       </c>
       <c r="G14">
-        <v>0.55811545058347567</v>
+        <v>0.50310096547441852</v>
       </c>
       <c r="H14">
-        <v>3.7924734959255552E-2</v>
+        <v>9.281001198616301E-3</v>
       </c>
       <c r="I14">
-        <v>0.83781188451790078</v>
+        <v>0.85491556464061103</v>
       </c>
       <c r="J14">
-        <v>4.5986091883456993E-4</v>
+        <v>2.1696650491124831E-3</v>
       </c>
       <c r="K14">
-        <v>0.99716999440744558</v>
+        <v>0.99717303389472167</v>
       </c>
       <c r="L14">
-        <v>0.92145542703057903</v>
+        <v>0.92239197104973125</v>
       </c>
       <c r="M14">
-        <v>0.66324152723977903</v>
+        <v>0.66509913595177084</v>
       </c>
       <c r="N14">
-        <v>5.2931139574251378E-2</v>
+        <v>5.2902707343060802E-2</v>
       </c>
       <c r="O14">
-        <v>0.27885323602161544</v>
+        <v>0.27718576561715091</v>
       </c>
       <c r="P14">
-        <v>0.57740011086993981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.57580539716795542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.4964693400963234E-2</v>
+        <v>2.3057922220385479E-2</v>
       </c>
       <c r="B15">
-        <v>0.35337765057996651</v>
+        <v>0.29763891621874083</v>
       </c>
       <c r="C15">
-        <v>4.1409677904350399E-2</v>
+        <v>2.631586104154568E-2</v>
       </c>
       <c r="D15">
-        <v>505562080.06205565</v>
+        <v>500303318.75941634</v>
       </c>
       <c r="E15">
-        <v>23.311738782413769</v>
+        <v>23.301558935821973</v>
       </c>
       <c r="F15">
-        <v>73.531399846732299</v>
+        <v>73.532210613128171</v>
       </c>
       <c r="G15">
-        <v>3.6134982773081098E-3</v>
+        <v>4.570436813555175E-8</v>
       </c>
       <c r="H15">
-        <v>0.12884805991454981</v>
+        <v>2.599674194243467E-7</v>
       </c>
       <c r="I15">
-        <v>1.5890966837976868E-3</v>
+        <v>1.2353193439006049E-8</v>
       </c>
       <c r="J15">
-        <v>4.1593658086928869E-3</v>
+        <v>5.653230833110674E-6</v>
       </c>
       <c r="K15">
-        <v>0.99724616386640075</v>
+        <v>0.99724728654402184</v>
       </c>
       <c r="L15">
-        <v>0.99443910669687763</v>
+        <v>0.99465477727297158</v>
       </c>
       <c r="M15">
-        <v>0.77735570342480309</v>
+        <v>0.78558858519362329</v>
       </c>
       <c r="N15">
-        <v>5.2213961468780483E-2</v>
+        <v>5.2203317149567573E-2</v>
       </c>
       <c r="O15">
-        <v>7.4197603533342857E-2</v>
+        <v>7.274455649571443E-2</v>
       </c>
       <c r="P15">
-        <v>0.4694867981205062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.46072475585572015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.0437760019427022E-2</v>
+        <v>5.4233265264149195E-3</v>
       </c>
       <c r="B16">
-        <v>1.2144742270629458</v>
+        <v>0.46389156939242931</v>
       </c>
       <c r="C16">
-        <v>5.3568119488334245E-2</v>
+        <v>4.9541287463422255E-2</v>
       </c>
       <c r="D16">
-        <v>1063009032.3709875</v>
+        <v>1039184357.4247274</v>
       </c>
       <c r="E16">
-        <v>42.550377053656106</v>
+        <v>42.546397959278828</v>
       </c>
       <c r="F16">
-        <v>67.313604245222635</v>
+        <v>67.317485684241831</v>
       </c>
       <c r="G16">
-        <v>0.87188440550080648</v>
+        <v>0.85249630594140069</v>
       </c>
       <c r="H16">
-        <v>6.1895791725902916</v>
+        <v>1.936895817256175</v>
       </c>
       <c r="I16">
-        <v>3.9113098006434108E-14</v>
+        <v>0.12582125414557505</v>
       </c>
       <c r="J16">
-        <v>1.3523072512673408E-2</v>
+        <v>9.2765466974365429E-4</v>
       </c>
       <c r="K16">
-        <v>0.99375153430378216</v>
+        <v>0.99375137388203361</v>
       </c>
       <c r="L16">
-        <v>0.96427442125304763</v>
+        <v>0.96448339085105939</v>
       </c>
       <c r="M16">
-        <v>0.89643729705960273</v>
+        <v>0.90057419165718589</v>
       </c>
       <c r="N16">
-        <v>7.8651007871836168E-2</v>
+        <v>7.8652017499786647E-2</v>
       </c>
       <c r="O16">
-        <v>0.18806467759651954</v>
+        <v>0.18751384764185083</v>
       </c>
       <c r="P16">
-        <v>0.32019849454829319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0.31373802807340079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -3256,25 +3256,25 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>6.8022337945321011E-3</v>
+        <v>1.1550560550268181E-2</v>
       </c>
       <c r="C18">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>1.881363600084706E-2</v>
+        <v>2.1377594092198759E-2</v>
       </c>
       <c r="D18">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>2.6168118403753497E-2</v>
+        <v>2.2791352636146955E-2</v>
       </c>
       <c r="E18">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>1.7914781070492852E-2</v>
+        <v>1.618642561101408E-2</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
@@ -3320,22 +3320,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>4.2118466964478522E-4</v>
+        <v>4.2666771363197775E-3</v>
       </c>
       <c r="C19">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>5.2946617313018246E-3</v>
+        <v>5.9392984180439623E-3</v>
       </c>
       <c r="D19">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>7.5838168193029416E-3</v>
+        <v>5.7185710840118907E-3</v>
       </c>
       <c r="E19">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>2.9678907413511688E-3</v>
+        <v>3.7708783250834685E-3</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
@@ -3381,7 +3381,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N20" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -3426,7 +3426,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -3483,25 +3483,25 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>0.58083466364087666</v>
+        <v>0.9306280512786107</v>
       </c>
       <c r="D22">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.9743881286951358</v>
+        <v>1.1202397866771421</v>
       </c>
       <c r="E22">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>0.64293711066939185</v>
+        <v>0.62746721845947739</v>
       </c>
       <c r="F22">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.54531597182717306</v>
+        <v>0.35953878509459564</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
@@ -3547,22 +3547,22 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>0.11093798793100179</v>
+        <v>0.41503778125067359</v>
       </c>
       <c r="D23">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>7.4306607486337189E-2</v>
+        <v>0.22931976591253844</v>
       </c>
       <c r="E23">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>0.13975993207811596</v>
+        <v>0.10557903479951711</v>
       </c>
       <c r="F23">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.22335421008885226</v>
+        <v>3.7972869506846606E-2</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="P23" t="str">
         <f t="shared" si="2"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="3"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="8"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="9"/>
@@ -3608,7 +3608,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N24" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -3653,7 +3653,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>13</v>
       </c>
@@ -3710,25 +3710,25 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>5.3668906202146836E-2</v>
+        <v>3.6774471752475606E-2</v>
       </c>
       <c r="E26">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>5.0371553635937642E-2</v>
+        <v>4.9484988325115421E-2</v>
       </c>
       <c r="F26">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>3.6790716458703264E-2</v>
+        <v>4.2608343463797584E-2</v>
       </c>
       <c r="G26">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>3.7722464320994027E-2</v>
+        <v>3.2172377956180082E-2</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="3"/>
@@ -3774,22 +3774,22 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>1.7641000930574063E-2</v>
+        <v>6.0099572496040881E-3</v>
       </c>
       <c r="E27">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>1.3331476336776308E-2</v>
+        <v>2.2853264738212871E-2</v>
       </c>
       <c r="F27">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>4.6837359618259614E-3</v>
+        <v>1.1254980566656709E-2</v>
       </c>
       <c r="G27">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>6.1782327455275942E-3</v>
+        <v>5.7897732631448616E-3</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -3835,7 +3835,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N28" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -3880,7 +3880,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>13</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="3"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="8"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="9"/>
@@ -3937,25 +3937,25 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>1207370080.4879677</v>
+        <v>1086300054.0899765</v>
       </c>
       <c r="F30">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>1058466120.0816994</v>
+        <v>1081414604.0426738</v>
       </c>
       <c r="G30">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>1033516638.8265177</v>
+        <v>1013045200.0269003</v>
       </c>
       <c r="H30">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>802056647.68129754</v>
+        <v>776878740.99505246</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="P30" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="3"/>
@@ -4001,22 +4001,22 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E31">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>208350996.57961234</v>
+        <v>95607678.506041348</v>
       </c>
       <c r="F31">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>513817917.51023734</v>
+        <v>537717653.93461156</v>
       </c>
       <c r="G31">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>92673875.14901875</v>
+        <v>112318766.47982673</v>
       </c>
       <c r="H31">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>175702962.54378095</v>
+        <v>162281292.0279789</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="3"/>
@@ -4062,7 +4062,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N32" t="str">
         <f t="shared" si="0"/>
         <v>Ok</v>
@@ -4107,7 +4107,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:26" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>13</v>
       </c>
@@ -4160,46 +4160,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>4</v>
       </c>
       <c r="F34">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>22.716998814584159</v>
+        <v>22.688436513473032</v>
       </c>
       <c r="G34">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>27.799367252622787</v>
+        <v>27.797571247615007</v>
       </c>
       <c r="H34">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>31.252086118925941</v>
+        <v>31.250641173205508</v>
       </c>
       <c r="I34">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>33.046164393282773</v>
-      </c>
-    </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.3">
+        <v>33.013192432192497</v>
+      </c>
+    </row>
+    <row r="35" spans="5:26" x14ac:dyDescent="0.25">
       <c r="F35">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.3191169154758013</v>
+        <v>1.3443243087077896</v>
       </c>
       <c r="G35">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>4.6271042381947707</v>
+        <v>4.6271834993434044</v>
       </c>
       <c r="H35">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>3.7455420060673283</v>
+        <v>3.7457824025511415</v>
       </c>
       <c r="I35">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>3.9281077193336191</v>
-      </c>
-    </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.3">
+        <v>3.9288898162814796</v>
+      </c>
+    </row>
+    <row r="37" spans="5:26" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>13</v>
       </c>
@@ -4213,46 +4213,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:26" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>65.676135417728617</v>
+        <v>65.706622451075432</v>
       </c>
       <c r="H38">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>63.749952370899585</v>
+        <v>63.749479510621576</v>
       </c>
       <c r="I38">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>62.072182959132711</v>
+        <v>62.076667515219476</v>
       </c>
       <c r="J38">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>65.838391808710625</v>
-      </c>
-    </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.3">
+        <v>65.878079621968752</v>
+      </c>
+    </row>
+    <row r="39" spans="5:26" x14ac:dyDescent="0.25">
       <c r="G39">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.9333402185008477</v>
+        <v>1.9523066952852781</v>
       </c>
       <c r="H39">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>1.2561023667236075</v>
+        <v>1.2564987871327638</v>
       </c>
       <c r="I39">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>4.049054380985857</v>
+        <v>4.0519570664418927</v>
       </c>
       <c r="J39">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>3.0349070141215928</v>
-      </c>
-    </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.3">
+        <v>3.0088906409430756</v>
+      </c>
+    </row>
+    <row r="41" spans="5:26" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>13</v>
       </c>
@@ -4266,46 +4266,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:26" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>9</v>
       </c>
       <c r="H42">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>2.3832999173646634</v>
+        <v>2.2064853937151985</v>
       </c>
       <c r="I42">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>1.265991670353938</v>
+        <v>1.2895639279597451</v>
       </c>
       <c r="J42">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>2.8702563489753921</v>
+        <v>2.8134399166275474</v>
       </c>
       <c r="K42">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.3586853265394595</v>
-      </c>
-    </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.3">
+        <v>0.33893684230871068</v>
+      </c>
+    </row>
+    <row r="43" spans="5:26" x14ac:dyDescent="0.25">
       <c r="H43">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.53870474088573417</v>
+        <v>0.57031766292761832</v>
       </c>
       <c r="I43">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.68503757840939317</v>
+        <v>0.71081560742748151</v>
       </c>
       <c r="J43">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>1.4562707094129634</v>
+        <v>1.4577635497218122</v>
       </c>
       <c r="K43">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.21545860942063225</v>
-      </c>
-    </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.3">
+        <v>0.20823620869176954</v>
+      </c>
+    </row>
+    <row r="45" spans="5:26" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>13</v>
       </c>
@@ -4319,46 +4319,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:26" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
         <v>10</v>
       </c>
       <c r="I46">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>3.0752775069472055E-3</v>
+        <v>0.85439767663890043</v>
       </c>
       <c r="J46">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.35489149138054127</v>
+        <v>0.57321905178854216</v>
       </c>
       <c r="K46">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>0.76112091972565066</v>
+        <v>0.52777760629111869</v>
       </c>
       <c r="L46">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>1.591349209675095</v>
-      </c>
-    </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.3">
+        <v>0.48655527967356893</v>
+      </c>
+    </row>
+    <row r="47" spans="5:26" x14ac:dyDescent="0.25">
       <c r="I47">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>2.5557803975796412E-3</v>
+        <v>0.71143728350624769</v>
       </c>
       <c r="J47">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>0.17869757017239454</v>
+        <v>0.40134959995646874</v>
       </c>
       <c r="K47">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>0.37880805517343397</v>
+        <v>0.2363058032987885</v>
       </c>
       <c r="L47">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>1.5329558327783637</v>
-      </c>
-    </row>
-    <row r="49" spans="9:16" x14ac:dyDescent="0.3">
+        <v>0.48345177156175806</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>13</v>
       </c>
@@ -4372,46 +4372,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>11</v>
       </c>
       <c r="J50">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>0.29437772080502456</v>
+        <v>9.119724398422728E-2</v>
       </c>
       <c r="K50">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>2.3491592783168716E-2</v>
+        <v>1.3108535145699173E-5</v>
       </c>
       <c r="L50">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>0.29389037624527392</v>
+        <v>0.45504501411240167</v>
       </c>
       <c r="M50">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>0.36010698410641057</v>
-      </c>
-    </row>
-    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+        <v>0.46988847779658316</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J51">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>0.15676675182160196</v>
+        <v>6.2119809712719069E-2</v>
       </c>
       <c r="K51">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>2.3406344597954085E-2</v>
+        <v>7.0145148268745807E-6</v>
       </c>
       <c r="L51">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>0.15207488140470185</v>
+        <v>0.11440733166866866</v>
       </c>
       <c r="M51">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>0.21300557894973979</v>
-      </c>
-    </row>
-    <row r="53" spans="9:16" x14ac:dyDescent="0.3">
+        <v>0.23653805680054096</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K53" t="s">
         <v>13</v>
       </c>
@@ -4425,46 +4425,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
         <v>12</v>
       </c>
       <c r="K54">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>1.0416339362802319E-3</v>
+        <v>2.8044433975093759E-3</v>
       </c>
       <c r="L54">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>9.8969721956532163E-3</v>
+        <v>6.6572478412918155E-3</v>
       </c>
       <c r="M54">
         <f>AVERAGE(J$7:J$12)</f>
-        <v>1.7112398624430402E-3</v>
+        <v>9.4921371213882218E-3</v>
       </c>
       <c r="N54">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>4.5362931778269696E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+        <v>7.7636531808892878E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K55">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>1.0216804432701572E-3</v>
+        <v>2.5299696640065168E-3</v>
       </c>
       <c r="L55">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>9.4865826620168028E-3</v>
+        <v>3.9226768112732829E-3</v>
       </c>
       <c r="M55">
         <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
-        <v>8.6432336649997659E-4</v>
+        <v>3.499385114112491E-3</v>
       </c>
       <c r="N55">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>3.1367907067343008E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="9:16" x14ac:dyDescent="0.3">
+        <v>5.1292099244431492E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
         <v>13</v>
       </c>
@@ -4478,46 +4478,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
         <v>6</v>
       </c>
       <c r="L58">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.9929894621838099</v>
+        <v>0.99299664503984086</v>
       </c>
       <c r="M58">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.986013839031183</v>
+        <v>0.9860146927932959</v>
       </c>
       <c r="N58">
         <f>AVERAGE(K$7:K$12)</f>
-        <v>0.98028083849738323</v>
+        <v>0.98028453742192545</v>
       </c>
       <c r="O58">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99649152823390885</v>
-      </c>
-    </row>
-    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+        <v>0.99649259953861158</v>
+      </c>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L59">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.3699161840742028E-3</v>
+        <v>1.3664509751602817E-3</v>
       </c>
       <c r="M59">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>5.4846004762299852E-3</v>
+        <v>5.4848850631106436E-3</v>
       </c>
       <c r="N59">
         <f>STDEV(K$7:K$12)/SQRT(COUNT(K$7:K$12))</f>
-        <v>1.2855340258794673E-2</v>
+        <v>1.2851815087579843E-2</v>
       </c>
       <c r="O59">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>9.2400058836657325E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="9:16" x14ac:dyDescent="0.3">
+        <v>9.2433624468951235E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M61" t="s">
         <v>13</v>
       </c>
@@ -4531,46 +4531,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
         <v>7</v>
       </c>
       <c r="M62">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.96101238191547578</v>
+        <v>0.95816438073601617</v>
       </c>
       <c r="N62">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.98077032988160651</v>
+        <v>0.9808374143822064</v>
       </c>
       <c r="O62">
         <f>AVERAGE(L$7:L$12)</f>
-        <v>0.95335034237409877</v>
+        <v>0.95319680963609521</v>
       </c>
       <c r="P62">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.965603046892891</v>
-      </c>
-    </row>
-    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+        <v>0.96600741061966389</v>
+      </c>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>1.5425173159295947E-2</v>
+        <v>1.7749849893559329E-2</v>
       </c>
       <c r="N63">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>7.6805069803776429E-3</v>
+        <v>7.5774425082649217E-3</v>
       </c>
       <c r="O63">
         <f>STDEV(L$7:L$12)/SQRT(COUNT(L$7:L$12))</f>
-        <v>1.2190169491403665E-2</v>
+        <v>1.2246321210270091E-2</v>
       </c>
       <c r="P63">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>1.5966610240036046E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="13:17" x14ac:dyDescent="0.3">
+        <v>1.5804245058529842E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="13:17" x14ac:dyDescent="0.25">
       <c r="N65" t="s">
         <v>13</v>
       </c>
@@ -4584,43 +4584,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
         <v>8</v>
       </c>
       <c r="N66">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.8359111538247822</v>
+        <v>0.82798813596508847</v>
       </c>
       <c r="O66">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.98272977810415807</v>
+        <v>0.98296697770755237</v>
       </c>
       <c r="P66">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.90875868457029985</v>
+        <v>0.90752399621866509</v>
       </c>
       <c r="Q66">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.77337828082184379</v>
-      </c>
-    </row>
-    <row r="67" spans="13:17" x14ac:dyDescent="0.3">
+        <v>0.77628555432857915</v>
+      </c>
+    </row>
+    <row r="67" spans="13:17" x14ac:dyDescent="0.25">
       <c r="N67">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>1.7710251015318045E-2</v>
+        <v>1.2788909883030211E-2</v>
       </c>
       <c r="O67">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>8.7088734111098482E-3</v>
+        <v>8.900509956897007E-3</v>
       </c>
       <c r="P67">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.0893587128125007E-2</v>
+        <v>3.0348374289382175E-2</v>
       </c>
       <c r="Q67">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>4.7936629365762005E-2</v>
+        <v>4.8647222088466793E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B76AAA-2D1F-4C77-BB32-360C2D905B57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25822149-1B45-43B6-9B09-A056096A8005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
@@ -237,16 +237,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.2666771363197775E-3</c:v>
+                    <c:v>1.2838111942432915E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.9392984180439623E-3</c:v>
+                    <c:v>1.3290597039919189E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.7185710840118907E-3</c:v>
+                    <c:v>1.0846538483147174E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7708783250834685E-3</c:v>
+                    <c:v>4.7165855585969851E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -258,16 +258,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.2666771363197775E-3</c:v>
+                    <c:v>1.2838111942432915E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.9392984180439623E-3</c:v>
+                    <c:v>1.3290597039919189E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.7185710840118907E-3</c:v>
+                    <c:v>1.0846538483147174E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7708783250834685E-3</c:v>
+                    <c:v>4.7165855585969851E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -313,16 +313,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1550560550268181E-2</c:v>
+                  <c:v>2.5519104362731592E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1377594092198759E-2</c:v>
+                  <c:v>7.9834572402070758E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2791352636146955E-2</c:v>
+                  <c:v>2.0309674525471191E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.618642561101408E-2</c:v>
+                  <c:v>5.8335689063559694E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,16 +591,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.41503778125067359</c:v>
+                    <c:v>4.6447130352127719E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22931976591253844</c:v>
+                    <c:v>0.15025403432410567</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.10557903479951711</c:v>
+                    <c:v>0.45348824505752722</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7972869506846606E-2</c:v>
+                    <c:v>0.12808954102472717</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -612,16 +612,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.41503778125067359</c:v>
+                    <c:v>4.6447130352127719E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.22931976591253844</c:v>
+                    <c:v>0.15025403432410567</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.10557903479951711</c:v>
+                    <c:v>0.45348824505752722</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.7972869506846606E-2</c:v>
+                    <c:v>0.12808954102472717</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -667,16 +667,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9306280512786107</c:v>
+                  <c:v>0.13803459407225505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1202397866771421</c:v>
+                  <c:v>0.42136808391779712</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62746721845947739</c:v>
+                  <c:v>0.86515401290292993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35953878509459564</c:v>
+                  <c:v>0.22117619949735057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,252 +2333,252 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.0083537461702335E-2</v>
+        <v>2.583590109171508E-3</v>
       </c>
       <c r="B1">
-        <v>1.7520409173765616</v>
+        <v>0.22450516033341442</v>
       </c>
       <c r="C1">
-        <v>4.8772518781053681E-2</v>
+        <v>3.3406571180494206E-2</v>
       </c>
       <c r="D1">
-        <v>1042001816.0722967</v>
+        <v>1702923759.0648959</v>
       </c>
       <c r="E1">
-        <v>24.133423092011881</v>
+        <v>24.103239925754583</v>
       </c>
       <c r="F1">
-        <v>61.89926138989793</v>
+        <v>61.906298724315057</v>
       </c>
       <c r="G1">
-        <v>1.7749106169855366</v>
+        <v>1.4815618181521617</v>
       </c>
       <c r="H1">
-        <v>2.2694660889443252</v>
+        <v>0.1339412586800211</v>
       </c>
       <c r="I1">
-        <v>0.20986370632692153</v>
+        <v>0.12971451147337348</v>
       </c>
       <c r="J1">
-        <v>7.8609807320098764E-3</v>
+        <v>2.9227491954527795E-4</v>
       </c>
       <c r="K1">
-        <v>0.99158378035703953</v>
+        <v>0.99157802793400718</v>
       </c>
       <c r="L1">
-        <v>0.92328399814140283</v>
+        <v>0.9804600787103569</v>
       </c>
       <c r="M1">
-        <v>0.8483400771693872</v>
+        <v>0.96409860083051457</v>
       </c>
       <c r="N1">
-        <v>9.1280104330192444E-2</v>
+        <v>9.1311293635195495E-2</v>
       </c>
       <c r="O1">
-        <v>0.27558817434717919</v>
+        <v>0.13908458605016816</v>
       </c>
       <c r="P1">
-        <v>0.38748332041819128</v>
+        <v>0.18852688184391778</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7.2145729687972636E-3</v>
+        <v>2.7567342221492832E-3</v>
       </c>
       <c r="B2">
-        <v>0.6235061593205159</v>
+        <v>0.12419554593356635</v>
       </c>
       <c r="C2">
-        <v>3.1403069980343527E-2</v>
+        <v>5.9659632426979928E-2</v>
       </c>
       <c r="D2">
-        <v>947356857.48649359</v>
+        <v>111276065.80316089</v>
       </c>
       <c r="E2">
-        <v>23.929520032436475</v>
+        <v>21.555589845471292</v>
       </c>
       <c r="F2">
-        <v>66.8602992418474</v>
+        <v>65.607868836919152</v>
       </c>
       <c r="G2">
-        <v>3.3366546055048589</v>
+        <v>0.14403898585796754</v>
       </c>
       <c r="H2">
-        <v>0.2757629136960012</v>
+        <v>1.2985964835549101E-2</v>
       </c>
       <c r="I2">
-        <v>5.7584184494687918E-14</v>
+        <v>2.9919470451312647E-2</v>
       </c>
       <c r="J2">
-        <v>4.3683630308126534E-4</v>
+        <v>9.9997380305439393E-2</v>
       </c>
       <c r="K2">
-        <v>0.99572901539698111</v>
+        <v>0.99596590938570562</v>
       </c>
       <c r="L2">
-        <v>0.98132214986591138</v>
+        <v>0.981056423605146</v>
       </c>
       <c r="M2">
-        <v>0.8312292259538947</v>
+        <v>0.99249399061620269</v>
       </c>
       <c r="N2">
-        <v>6.5025185559048362E-2</v>
+        <v>6.3196120989752746E-2</v>
       </c>
       <c r="O2">
-        <v>0.13598187979560988</v>
+        <v>0.13694575798799141</v>
       </c>
       <c r="P2">
-        <v>0.40875795564813683</v>
+        <v>8.6202954067476065E-2</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.3535712203049476E-3</v>
+        <v>2.3154069774986869E-3</v>
       </c>
       <c r="B3">
-        <v>0.41633707713875429</v>
+        <v>6.5403075949784339E-2</v>
       </c>
       <c r="C3">
-        <v>3.0147826496029609E-2</v>
+        <v>9.1808154677587295E-2</v>
       </c>
       <c r="D3">
-        <v>1269541488.7111399</v>
+        <v>5607878499.6337252</v>
       </c>
       <c r="E3">
-        <v>20.002366415970741</v>
+        <v>20.00000023348478</v>
       </c>
       <c r="F3">
-        <v>68.360306721480967</v>
+        <v>68.3671492458123</v>
       </c>
       <c r="G3">
-        <v>1.5078909586551996</v>
+        <v>3.4386133971393478</v>
       </c>
       <c r="H3">
-        <v>1.7964027276374795E-2</v>
+        <v>8.8113527046864357E-3</v>
       </c>
       <c r="I3">
-        <v>6.3728025625702719E-2</v>
+        <v>2.1308771954786178E-6</v>
       </c>
       <c r="J3">
-        <v>1.1551315743698435E-4</v>
+        <v>2.3825165736796207E-4</v>
       </c>
       <c r="K3">
-        <v>0.99167713936550184</v>
+        <v>0.99167945642397681</v>
       </c>
       <c r="L3">
-        <v>0.96988699420073454</v>
+        <v>0.98396917368718118</v>
       </c>
       <c r="M3">
-        <v>0.80439510477198328</v>
+        <v>0.99347695496770083</v>
       </c>
       <c r="N3">
-        <v>9.0772418873538846E-2</v>
+        <v>9.0759782614674697E-2</v>
       </c>
       <c r="O3">
-        <v>0.17266115875110061</v>
+        <v>0.12597824435072369</v>
       </c>
       <c r="P3">
-        <v>0.44005550363077678</v>
+        <v>8.0360528756200963E-2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.5865503354066031E-2</v>
+        <v>6.219993463453798E-3</v>
       </c>
       <c r="B4">
-        <v>1.5779536931204228</v>
+        <v>0.24801043170691783</v>
       </c>
       <c r="C4">
-        <v>2.6773771721534632E-2</v>
+        <v>2.6315800670382895E-2</v>
       </c>
       <c r="D4">
-        <v>957718484.97486377</v>
+        <v>86484931.937112123</v>
       </c>
       <c r="E4">
-        <v>36.012713462860596</v>
+        <v>30.918687078151844</v>
       </c>
       <c r="F4">
-        <v>66.262414427125492</v>
+        <v>57.966886880386461</v>
       </c>
       <c r="G4">
-        <v>1.4158012128441702</v>
+        <v>1.0000302748376918E-8</v>
       </c>
       <c r="H4">
-        <v>1.3465727753346182</v>
+        <v>0.16283343655828802</v>
       </c>
       <c r="I4">
-        <v>1.1355673767005428E-5</v>
+        <v>3.4064915543379019E-4</v>
       </c>
       <c r="J4">
-        <v>5.9470989490642461E-3</v>
+        <v>9.9999984517138554E-2</v>
       </c>
       <c r="K4">
-        <v>0.99002928683186231</v>
+        <v>0.993557602544343</v>
       </c>
       <c r="L4">
-        <v>0.97332521214223489</v>
+        <v>0.94203999241307812</v>
       </c>
       <c r="M4">
-        <v>0.99490742768045848</v>
+        <v>0.93472658027620892</v>
       </c>
       <c r="N4">
-        <v>9.9352936727890862E-2</v>
+        <v>7.9862215603503331E-2</v>
       </c>
       <c r="O4">
-        <v>0.16250550753493687</v>
+        <v>0.23954207879003775</v>
       </c>
       <c r="P4">
-        <v>7.1004553349388155E-2</v>
+        <v>0.25420599034356606</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9.608945243670881E-3</v>
+        <v>7.1427357267801837E-3</v>
       </c>
       <c r="B5">
-        <v>0.91660484766665473</v>
+        <v>0.7206243495763498</v>
       </c>
       <c r="C5">
-        <v>9.519122410113777E-2</v>
+        <v>7.2173823772331114E-2</v>
       </c>
       <c r="D5">
-        <v>2068435770.9756751</v>
+        <v>8137474713.1687441</v>
       </c>
       <c r="E5">
-        <v>20.000005533322046</v>
+        <v>20.000000015465741</v>
       </c>
       <c r="F5">
-        <v>62.508380372378724</v>
+        <v>62.508056205982264</v>
       </c>
       <c r="G5">
-        <v>2.4527505469497157</v>
+        <v>4.9171857106578116</v>
       </c>
       <c r="H5">
-        <v>0.37278804329475718</v>
+        <v>0.50053088843021765</v>
       </c>
       <c r="I5">
-        <v>2.6039253972868322E-5</v>
+        <v>6.3810218861264632E-4</v>
       </c>
       <c r="J5">
-        <v>2.4593872524668699E-4</v>
+        <v>2.1496169506006899E-6</v>
       </c>
       <c r="K5">
-        <v>0.97516634558211046</v>
+        <v>0.97516774176720966</v>
       </c>
       <c r="L5">
-        <v>0.97319491830659366</v>
+        <v>0.9704936575323263</v>
       </c>
       <c r="M5">
-        <v>0.98843032055060298</v>
+        <v>0.99271497094975425</v>
       </c>
       <c r="N5">
-        <v>0.15679705951869968</v>
+        <v>0.15679265177444529</v>
       </c>
       <c r="O5">
-        <v>0.16290190568704935</v>
+        <v>0.17091307452327029</v>
       </c>
       <c r="P5">
-        <v>0.1070232809014143</v>
+        <v>8.4924547450918111E-2</v>
       </c>
       <c r="Q5">
         <f>0.0001</f>
@@ -2618,52 +2618,52 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.8658333678859355E-2</v>
+        <v>1.0587642530387248E-2</v>
       </c>
       <c r="B6">
-        <v>0.86616081924434918</v>
+        <v>0.29546947047012367</v>
       </c>
       <c r="C6">
-        <v>2.6489969152673862E-2</v>
+        <v>2.6315789473707319E-2</v>
       </c>
       <c r="D6">
-        <v>218089556.17748302</v>
+        <v>98250895.172953367</v>
       </c>
       <c r="E6">
-        <v>27.379994746662383</v>
+        <v>23.123587382408896</v>
       </c>
       <c r="F6">
-        <v>62.477643732360505</v>
+        <v>54.451608345139121</v>
       </c>
       <c r="G6">
-        <v>1.4002408534976649E-4</v>
+        <v>1.2318508141694512E-8</v>
       </c>
       <c r="H6">
-        <v>2.9633673625127334E-4</v>
+        <v>0.11700918147769053</v>
       </c>
       <c r="I6">
-        <v>1.9306776972237686E-6</v>
+        <v>7.3716978079432841E-10</v>
       </c>
       <c r="J6">
-        <v>1.3778705849564515E-2</v>
+        <v>9.9999999987408703E-2</v>
       </c>
       <c r="K6">
-        <v>0.99284844596591471</v>
+        <v>0.99563205175572012</v>
       </c>
       <c r="L6">
-        <v>0.99599211269779064</v>
+        <v>0.98882192694623805</v>
       </c>
       <c r="M6">
-        <v>0.96556318489159554</v>
+        <v>0.99025614846583454</v>
       </c>
       <c r="N6">
-        <v>8.4142964612286153E-2</v>
+        <v>6.5759172454016634E-2</v>
       </c>
       <c r="O6">
-        <v>6.2990542378894107E-2</v>
+        <v>0.10519644634313621</v>
       </c>
       <c r="P6">
-        <v>0.18464140098396259</v>
+        <v>9.8216154571556358E-2</v>
       </c>
       <c r="Q6">
         <v>0.08</v>
@@ -2701,502 +2701,502 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.8004753945631164E-2</v>
+        <v>7.2758926950189798E-3</v>
       </c>
       <c r="B7">
-        <v>0.47929352061486274</v>
+        <v>5.9768927163375972E-2</v>
       </c>
       <c r="C7">
-        <v>2.6639964837221225E-2</v>
+        <v>3.1910254925987015E-2</v>
       </c>
       <c r="D7">
-        <v>850494288.10236335</v>
+        <v>3003049382.4512954</v>
       </c>
       <c r="E7">
-        <v>39.291611540134738</v>
+        <v>39.292057938300999</v>
       </c>
       <c r="F7">
-        <v>54.626947219309592</v>
+        <v>54.602041982835068</v>
       </c>
       <c r="G7">
-        <v>1.5681073173291431</v>
+        <v>2.8805367730142892</v>
       </c>
       <c r="H7">
-        <v>4.8670053882550463E-4</v>
+        <v>3.7616915036789988E-2</v>
       </c>
       <c r="I7">
-        <v>0.72513082298064113</v>
+        <v>2.1953399015254435E-2</v>
       </c>
       <c r="J7">
-        <v>2.0526369158031475E-5</v>
+        <v>1.141148209718008E-3</v>
       </c>
       <c r="K7">
-        <v>0.99707942419027928</v>
+        <v>0.99708060514501162</v>
       </c>
       <c r="L7">
-        <v>0.94438799314792765</v>
+        <v>0.99601709575477226</v>
       </c>
       <c r="M7">
-        <v>0.79219960802438982</v>
+        <v>0.99663691652278619</v>
       </c>
       <c r="N7">
-        <v>5.3771461311958771E-2</v>
+        <v>5.3760588784335844E-2</v>
       </c>
       <c r="O7">
-        <v>0.23463990876138607</v>
+        <v>6.2793910554889379E-2</v>
       </c>
       <c r="P7">
-        <v>0.45356629951513605</v>
+        <v>5.7701409362698013E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.0922808887962727E-2</v>
+        <v>9.3736262847779334E-3</v>
       </c>
       <c r="B8">
-        <v>0.41028094322544967</v>
+        <v>9.73880549041196E-2</v>
       </c>
       <c r="C8">
-        <v>3.3099651908804754E-2</v>
+        <v>4.691787225081228E-2</v>
       </c>
       <c r="D8">
-        <v>978238929.84571648</v>
+        <v>1610956688.1891892</v>
       </c>
       <c r="E8">
-        <v>34.542270063380002</v>
+        <v>34.426764956648483</v>
       </c>
       <c r="F8">
-        <v>62.649070033422412</v>
+        <v>62.634223535252936</v>
       </c>
       <c r="G8">
-        <v>1.1644784579225431</v>
+        <v>0.99948174956480107</v>
       </c>
       <c r="H8">
-        <v>0.39563440853459181</v>
+        <v>0.16208283450012889</v>
       </c>
       <c r="I8">
-        <v>0.22531590423535042</v>
+        <v>3.8010311562705697E-3</v>
       </c>
       <c r="J8">
-        <v>1.4976692194087671E-2</v>
+        <v>2.3012100426870728E-3</v>
       </c>
       <c r="K8">
-        <v>0.99752251000971381</v>
+        <v>0.99751210239115207</v>
       </c>
       <c r="L8">
-        <v>0.97922154560332886</v>
+        <v>0.9946123919503691</v>
       </c>
       <c r="M8">
-        <v>0.87103297218412612</v>
+        <v>0.98586754878487748</v>
       </c>
       <c r="N8">
-        <v>4.9527370073747308E-2</v>
+        <v>4.9631290122818167E-2</v>
       </c>
       <c r="O8">
-        <v>0.1434319599162508</v>
+        <v>7.3036055449854212E-2</v>
       </c>
       <c r="P8">
-        <v>0.35733755267305761</v>
+        <v>0.11829000784329538</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.3617820373952673E-3</v>
+        <v>1.9540493196898229E-2</v>
       </c>
       <c r="B9">
-        <v>0.49848711685585184</v>
+        <v>2.5609266808643398</v>
       </c>
       <c r="C9">
-        <v>9.8228773413969864E-2</v>
+        <v>3.2943066639092605E-2</v>
       </c>
       <c r="D9">
-        <v>961702450.56976891</v>
+        <v>509126772.29940283</v>
       </c>
       <c r="E9">
-        <v>32.966737669604761</v>
+        <v>29.565923205216947</v>
       </c>
       <c r="F9">
-        <v>68.828754114591078</v>
+        <v>66.927356178728161</v>
       </c>
       <c r="G9">
-        <v>0.37485924097062845</v>
+        <v>6.9928692718891808E-2</v>
       </c>
       <c r="H9">
-        <v>0.8873000495428004</v>
+        <v>7.3874514568008021</v>
       </c>
       <c r="I9">
-        <v>0.13521577505062485</v>
+        <v>7.4099507909442031E-2</v>
       </c>
       <c r="J9">
-        <v>4.7073808755844163E-3</v>
+        <v>8.0411998076253405E-2</v>
       </c>
       <c r="K9">
-        <v>0.99565581660816604</v>
+        <v>0.99576744112776483</v>
       </c>
       <c r="L9">
-        <v>0.93862480771937273</v>
+        <v>0.93773446649967385</v>
       </c>
       <c r="M9">
-        <v>0.9730503286682588</v>
+        <v>0.9732604961234389</v>
       </c>
       <c r="N9">
-        <v>6.5580039325358844E-2</v>
+        <v>6.4732011273502352E-2</v>
       </c>
       <c r="O9">
-        <v>0.24649835771830406</v>
+        <v>0.24827983841891571</v>
       </c>
       <c r="P9">
-        <v>0.16334067043582182</v>
+        <v>0.16270251638433725</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.6032373937723737E-3</v>
+        <v>3.8036032387453464E-3</v>
       </c>
       <c r="B10">
-        <v>0.61577932650159772</v>
+        <v>0.37195996491835076</v>
       </c>
       <c r="C10">
-        <v>2.6407714102896503E-2</v>
+        <v>9.9999999637821593E-2</v>
       </c>
       <c r="D10">
-        <v>885954560.85841548</v>
+        <v>62410803.675238349</v>
       </c>
       <c r="E10">
-        <v>40.70284895349419</v>
+        <v>37.495106261947257</v>
       </c>
       <c r="F10">
-        <v>46.007322949468119</v>
+        <v>40.000000236204144</v>
       </c>
       <c r="G10">
-        <v>2.6190720262200178</v>
+        <v>2.9644860022929383E-2</v>
       </c>
       <c r="H10">
-        <v>4.433727626252789E-6</v>
+        <v>0.35314266690379142</v>
       </c>
       <c r="I10">
-        <v>0.28649271546123956</v>
+        <v>1.294473898507452E-4</v>
       </c>
       <c r="J10">
-        <v>1.6931205818653976E-2</v>
+        <v>7.6211746567622114E-7</v>
       </c>
       <c r="K10">
-        <v>0.99087493932233717</v>
+        <v>0.99451148692993929</v>
       </c>
       <c r="L10">
-        <v>0.99318373784462921</v>
+        <v>0.98768377963571941</v>
       </c>
       <c r="M10">
-        <v>0.95823211736897196</v>
+        <v>0.98919683047713969</v>
       </c>
       <c r="N10">
-        <v>9.5046357483525648E-2</v>
+        <v>7.3713146312988767E-2</v>
       </c>
       <c r="O10">
-        <v>8.2146816942697876E-2</v>
+        <v>0.11042218147020012</v>
       </c>
       <c r="P10">
-        <v>0.20334749520148454</v>
+        <v>0.10341729946015665</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.7916116131415213E-2</v>
+        <v>8.4028073287223896E-3</v>
       </c>
       <c r="B11">
-        <v>0.63504482524393069</v>
+        <v>0.1166600904457168</v>
       </c>
       <c r="C11">
-        <v>3.651470557599279E-2</v>
+        <v>4.0047967399890354E-2</v>
       </c>
       <c r="D11">
-        <v>839392771.60937309</v>
+        <v>942731660.24045897</v>
       </c>
       <c r="E11">
-        <v>20.000179786272319</v>
+        <v>20.002116691183289</v>
       </c>
       <c r="F11">
-        <v>71.116837918329097</v>
+        <v>71.086458881782406</v>
       </c>
       <c r="G11">
-        <v>9.9487113593667686</v>
+        <v>5.6545471526227615</v>
       </c>
       <c r="H11">
-        <v>0.38064611240875074</v>
+        <v>0.10452863041031761</v>
       </c>
       <c r="I11">
-        <v>0.81300811565552278</v>
+        <v>8.9816331974506308E-2</v>
       </c>
       <c r="J11">
-        <v>9.808894077171081E-4</v>
+        <v>3.2073332988358358E-4</v>
       </c>
       <c r="K11">
-        <v>0.98366205808494112</v>
+        <v>0.98366154117277504</v>
       </c>
       <c r="L11">
-        <v>0.95451208705446156</v>
+        <v>0.98275326931085361</v>
       </c>
       <c r="M11">
-        <v>0.87286741074673624</v>
+        <v>0.97778999512078257</v>
       </c>
       <c r="N11">
-        <v>0.12717925340207153</v>
+        <v>0.1271812652828738</v>
       </c>
       <c r="O11">
-        <v>0.21220988152318221</v>
+        <v>0.13066852483385177</v>
       </c>
       <c r="P11">
-        <v>0.35476931006039847</v>
+        <v>0.1482831913280305</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3.8939417420704989E-2</v>
+        <v>7.3461624408664258E-2</v>
       </c>
       <c r="B12">
-        <v>1.1259175783151714</v>
+        <v>1.9842203591216769</v>
       </c>
       <c r="C12">
-        <v>3.4759250943900415E-2</v>
+        <v>5.4786696261334158E-2</v>
       </c>
       <c r="D12">
-        <v>1562488199.1757636</v>
+        <v>7381794606.4774818</v>
       </c>
       <c r="E12">
-        <v>20.000199026347023</v>
+        <v>20.000004176841792</v>
       </c>
       <c r="F12">
-        <v>69.231072856196576</v>
+        <v>69.211374949099664</v>
       </c>
       <c r="G12">
-        <v>1.2054110979561823</v>
+        <v>2.9868444715319749</v>
       </c>
       <c r="H12">
-        <v>1.5025939329941174</v>
+        <v>3.8540059795593451</v>
       </c>
       <c r="I12">
-        <v>0.54510675129103137</v>
+        <v>7.3271566887395695E-2</v>
       </c>
       <c r="J12">
-        <v>1.9336128063128125E-2</v>
+        <v>7.5469696251304029E-3</v>
       </c>
       <c r="K12">
-        <v>0.91691247631611572</v>
+        <v>0.91700456112922901</v>
       </c>
       <c r="L12">
-        <v>0.90925068644685114</v>
+        <v>0.91125658749485106</v>
       </c>
       <c r="M12">
-        <v>0.97776154031950768</v>
+        <v>0.980898715958477</v>
       </c>
       <c r="N12">
-        <v>0.28680419879605229</v>
+        <v>0.28664522406986526</v>
       </c>
       <c r="O12">
-        <v>0.29973625142384319</v>
+        <v>0.29640509169057389</v>
       </c>
       <c r="P12">
-        <v>0.14837814894278534</v>
+        <v>0.13751462177204216</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.8121558181642083E-2</v>
+        <v>6.1472968183924918E-3</v>
       </c>
       <c r="B13">
-        <v>0.36730408010344845</v>
+        <v>2.9488514872599444E-2</v>
       </c>
       <c r="C13">
-        <v>2.6337779433521433E-2</v>
+        <v>9.4116212204346281E-2</v>
       </c>
       <c r="D13">
-        <v>491932663.1469745</v>
+        <v>233026575.988653</v>
       </c>
       <c r="E13">
-        <v>33.001532232437391</v>
+        <v>28.472108708206903</v>
       </c>
       <c r="F13">
-        <v>63.153021219949579</v>
+        <v>55.787599410864452</v>
       </c>
       <c r="G13">
-        <v>1.5005211465519787E-4</v>
+        <v>5.7827721784636712E-3</v>
       </c>
       <c r="H13">
-        <v>4.4040272064952712E-5</v>
+        <v>6.374453567613461E-3</v>
       </c>
       <c r="I13">
-        <v>0.89881708004695327</v>
+        <v>2.377266798841355E-2</v>
       </c>
       <c r="J13">
-        <v>2.4883226664670555E-6</v>
+        <v>4.6312504698191259E-2</v>
       </c>
       <c r="K13">
-        <v>0.99779870383366964</v>
+        <v>0.9986000281703824</v>
       </c>
       <c r="L13">
-        <v>0.98249950330489311</v>
+        <v>0.99555401997336235</v>
       </c>
       <c r="M13">
-        <v>0.75388030451173627</v>
+        <v>0.98442498077786644</v>
       </c>
       <c r="N13">
-        <v>4.6682793453980749E-2</v>
+        <v>3.722864638046184E-2</v>
       </c>
       <c r="O13">
-        <v>0.13162633371843116</v>
+        <v>6.6343953954910398E-2</v>
       </c>
       <c r="P13">
-        <v>0.49361776561767012</v>
+        <v>0.12417434932349035</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.8142895515613836E-2</v>
+        <v>5.7314129873587772E-3</v>
       </c>
       <c r="B14">
-        <v>0.309320574663764</v>
+        <v>0.23515491740594216</v>
       </c>
       <c r="C14">
-        <v>2.6494583886230945E-2</v>
+        <v>3.5297413573497589E-2</v>
       </c>
       <c r="D14">
-        <v>1076094624.6490915</v>
+        <v>1691250185.8522472</v>
       </c>
       <c r="E14">
-        <v>33.20328060123181</v>
+        <v>32.658161690555957</v>
       </c>
       <c r="F14">
-        <v>59.509600970555439</v>
+        <v>59.404061292045135</v>
       </c>
       <c r="G14">
-        <v>0.50310096547441852</v>
+        <v>0.47501963729883889</v>
       </c>
       <c r="H14">
-        <v>9.281001198616301E-3</v>
+        <v>0.25924582795433365</v>
       </c>
       <c r="I14">
-        <v>0.85491556464061103</v>
+        <v>0.72131539050587989</v>
       </c>
       <c r="J14">
-        <v>2.1696650491124831E-3</v>
+        <v>5.2501441995392618E-3</v>
       </c>
       <c r="K14">
-        <v>0.99717303389472167</v>
+        <v>0.99713502959267497</v>
       </c>
       <c r="L14">
-        <v>0.92239197104973125</v>
+        <v>0.9884092174525777</v>
       </c>
       <c r="M14">
-        <v>0.66509913595177084</v>
+        <v>0.85132338189348156</v>
       </c>
       <c r="N14">
-        <v>5.2902707343060802E-2</v>
+        <v>5.3257118803515163E-2</v>
       </c>
       <c r="O14">
-        <v>0.27718576561715091</v>
+        <v>0.1071208416786764</v>
       </c>
       <c r="P14">
-        <v>0.57580539716795542</v>
+        <v>0.38365329651321028</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.3057922220385479E-2</v>
+        <v>6.8543482943328278E-3</v>
       </c>
       <c r="B15">
-        <v>0.29763891621874083</v>
+        <v>4.1559683656006069E-2</v>
       </c>
       <c r="C15">
-        <v>2.631586104154568E-2</v>
+        <v>3.2750554425330633E-2</v>
       </c>
       <c r="D15">
-        <v>500303318.75941634</v>
+        <v>367615451.77347285</v>
       </c>
       <c r="E15">
-        <v>23.301558935821973</v>
+        <v>20.000000000000021</v>
       </c>
       <c r="F15">
-        <v>73.532210613128171</v>
+        <v>69.72275718871245</v>
       </c>
       <c r="G15">
-        <v>4.570436813555175E-8</v>
+        <v>5.1487710985286504E-2</v>
       </c>
       <c r="H15">
-        <v>2.599674194243467E-7</v>
+        <v>4.2443765622314554E-4</v>
       </c>
       <c r="I15">
-        <v>1.2353193439006049E-8</v>
+        <v>4.1011407543536162E-9</v>
       </c>
       <c r="J15">
-        <v>5.653230833110674E-6</v>
+        <v>9.9999999999977801E-2</v>
       </c>
       <c r="K15">
-        <v>0.99724728654402184</v>
+        <v>0.99820818161378644</v>
       </c>
       <c r="L15">
-        <v>0.99465477727297158</v>
+        <v>0.99249257185058015</v>
       </c>
       <c r="M15">
-        <v>0.78558858519362329</v>
+        <v>0.99383549225321077</v>
       </c>
       <c r="N15">
-        <v>5.2203317149567573E-2</v>
+        <v>4.2117694646685903E-2</v>
       </c>
       <c r="O15">
-        <v>7.274455649571443E-2</v>
+        <v>8.6211100607321123E-2</v>
       </c>
       <c r="P15">
-        <v>0.46072475585572015</v>
+        <v>7.8120820971884997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5.4233265264149195E-3</v>
+        <v>4.6012175253397798E-3</v>
       </c>
       <c r="B16">
-        <v>0.46389156939242931</v>
+        <v>0.57850168205485464</v>
       </c>
       <c r="C16">
-        <v>4.9541287463422255E-2</v>
+        <v>4.9767381979135175E-2</v>
       </c>
       <c r="D16">
-        <v>1039184357.4247274</v>
+        <v>1284265025.990176</v>
       </c>
       <c r="E16">
-        <v>42.546397959278828</v>
+        <v>42.080190814755888</v>
       </c>
       <c r="F16">
-        <v>67.317485684241831</v>
+        <v>67.21844081828678</v>
       </c>
       <c r="G16">
-        <v>0.85249630594140069</v>
+        <v>0.54350074196304199</v>
       </c>
       <c r="H16">
-        <v>1.936895817256175</v>
+        <v>2.741307479266712</v>
       </c>
       <c r="I16">
-        <v>0.12582125414557505</v>
+        <v>0.2170884332006974</v>
       </c>
       <c r="J16">
-        <v>9.2765466974365429E-4</v>
+        <v>7.0826550469041297E-4</v>
       </c>
       <c r="K16">
-        <v>0.99375137388203361</v>
+        <v>0.99370833357624733</v>
       </c>
       <c r="L16">
-        <v>0.96448339085105939</v>
+        <v>0.96439010369613221</v>
       </c>
       <c r="M16">
-        <v>0.90057419165718589</v>
+        <v>0.91716758095454043</v>
       </c>
       <c r="N16">
-        <v>7.8652017499786647E-2</v>
+        <v>7.8922428748202836E-2</v>
       </c>
       <c r="O16">
-        <v>0.18751384764185083</v>
+        <v>0.18775994605034665</v>
       </c>
       <c r="P16">
-        <v>0.31373802807340079</v>
+        <v>0.28636357110324806</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -3262,19 +3262,19 @@
       </c>
       <c r="B18">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>1.1550560550268181E-2</v>
+        <v>2.5519104362731592E-3</v>
       </c>
       <c r="C18">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>2.1377594092198759E-2</v>
+        <v>7.9834572402070758E-3</v>
       </c>
       <c r="D18">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>2.2791352636146955E-2</v>
+        <v>2.0309674525471191E-2</v>
       </c>
       <c r="E18">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>1.618642561101408E-2</v>
+        <v>5.8335689063559694E-3</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="9"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -3323,19 +3323,19 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>4.2666771363197775E-3</v>
+        <v>1.2838111942432915E-4</v>
       </c>
       <c r="C19">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>5.9392984180439623E-3</v>
+        <v>1.3290597039919189E-3</v>
       </c>
       <c r="D19">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>5.7185710840118907E-3</v>
+        <v>1.0846538483147174E-2</v>
       </c>
       <c r="E19">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>3.7708783250834685E-3</v>
+        <v>4.7165855585969851E-4</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="P20" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="3"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="6"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="W20" t="str">
         <f t="shared" si="9"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -3489,19 +3489,19 @@
       </c>
       <c r="C22">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>0.9306280512786107</v>
+        <v>0.13803459407225505</v>
       </c>
       <c r="D22">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>1.1202397866771421</v>
+        <v>0.42136808391779712</v>
       </c>
       <c r="E22">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>0.62746721845947739</v>
+        <v>0.86515401290292993</v>
       </c>
       <c r="F22">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.35953878509459564</v>
+        <v>0.22117619949735057</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W22" t="str">
         <f t="shared" si="9"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -3550,19 +3550,19 @@
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>0.41503778125067359</v>
+        <v>4.6447130352127719E-2</v>
       </c>
       <c r="D23">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>0.22931976591253844</v>
+        <v>0.15025403432410567</v>
       </c>
       <c r="E23">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>0.10557903479951711</v>
+        <v>0.45348824505752722</v>
       </c>
       <c r="F23">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>3.7972869506846606E-2</v>
+        <v>0.12808954102472717</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -3716,19 +3716,19 @@
       </c>
       <c r="D26">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>3.6774471752475606E-2</v>
+        <v>6.1624786095020478E-2</v>
       </c>
       <c r="E26">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>4.9484988325115421E-2</v>
+        <v>4.1601804638807104E-2</v>
       </c>
       <c r="F26">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>4.2608343463797584E-2</v>
+        <v>5.1100976185822995E-2</v>
       </c>
       <c r="G26">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>3.2172377956180082E-2</v>
+        <v>5.2982890545577421E-2</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="2"/>
-        <v>Lower</v>
+        <v>Upper</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="3"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" si="5"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="6"/>
@@ -3777,19 +3777,19 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>6.0099572496040881E-3</v>
+        <v>1.6887693847357634E-2</v>
       </c>
       <c r="E27">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>2.2853264738212871E-2</v>
+        <v>1.528600956676235E-2</v>
       </c>
       <c r="F27">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>1.1254980566656709E-2</v>
+        <v>1.0396088768325498E-2</v>
       </c>
       <c r="G27">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>5.7897732631448616E-3</v>
+        <v>1.4213881614573176E-2</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="T27" t="str">
         <f t="shared" si="6"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="7"/>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="2"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="3"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="8"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="9"/>
@@ -3943,19 +3943,19 @@
       </c>
       <c r="E30">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>1086300054.0899765</v>
+        <v>2474026108.1672606</v>
       </c>
       <c r="F30">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>1081414604.0426738</v>
+        <v>2774070180.0929365</v>
       </c>
       <c r="G30">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>1013045200.0269003</v>
+        <v>2251678318.8888445</v>
       </c>
       <c r="H30">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>776878740.99505246</v>
+        <v>894039309.90113735</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="P30" t="str">
         <f t="shared" si="2"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="3"/>
@@ -4004,19 +4004,19 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E31">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>95607678.506041348</v>
+        <v>1632902191.7526078</v>
       </c>
       <c r="F31">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>537717653.93461156</v>
+        <v>2681704417.5011978</v>
       </c>
       <c r="G31">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>112318766.47982673</v>
+        <v>1108089877.6462915</v>
       </c>
       <c r="H31">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>162281292.0279789</v>
+        <v>353775023.02927995</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="P31" t="str">
         <f t="shared" si="2"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="3"/>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" si="4"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="5"/>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="9"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -4166,37 +4166,37 @@
       </c>
       <c r="F34">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>22.688436513473032</v>
+        <v>21.886276668236885</v>
       </c>
       <c r="G34">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>27.797571247615007</v>
+        <v>24.680758158675491</v>
       </c>
       <c r="H34">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>31.250641173205508</v>
+        <v>30.130328871689795</v>
       </c>
       <c r="I34">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>33.013192432192497</v>
+        <v>30.802615303379696</v>
       </c>
     </row>
     <row r="35" spans="5:26" x14ac:dyDescent="0.25">
       <c r="F35">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.3443243087077896</v>
+        <v>1.1959876426504441</v>
       </c>
       <c r="G35">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>4.6271834993434044</v>
+        <v>3.246691516660273</v>
       </c>
       <c r="H35">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>3.7457824025511415</v>
+        <v>3.474475033166526</v>
       </c>
       <c r="I35">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>3.9288898162814796</v>
+        <v>4.5894309759191145</v>
       </c>
     </row>
     <row r="37" spans="5:26" x14ac:dyDescent="0.25">
@@ -4219,37 +4219,37 @@
       </c>
       <c r="G38">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>65.706622451075432</v>
+        <v>65.293772269015506</v>
       </c>
       <c r="H38">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>63.749479510621576</v>
+        <v>58.30885047716928</v>
       </c>
       <c r="I38">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>62.076667515219476</v>
+        <v>60.743575960650389</v>
       </c>
       <c r="J38">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>65.878079621968752</v>
+        <v>63.033214677477204</v>
       </c>
     </row>
     <row r="39" spans="5:26" x14ac:dyDescent="0.25">
       <c r="G39">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.9523066952852781</v>
+        <v>1.87168728297575</v>
       </c>
       <c r="H39">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>1.2564987871327638</v>
+        <v>2.3319728671780968</v>
       </c>
       <c r="I39">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>4.0519570664418927</v>
+        <v>4.790639853931725</v>
       </c>
       <c r="J39">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>3.0088906409430756</v>
+        <v>3.2651670675238069</v>
       </c>
     </row>
     <row r="41" spans="5:26" x14ac:dyDescent="0.25">
@@ -4272,37 +4272,37 @@
       </c>
       <c r="H42">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>2.2064853937151985</v>
+        <v>1.6880714003831592</v>
       </c>
       <c r="I42">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>1.2895639279597451</v>
+        <v>1.6390619109922075</v>
       </c>
       <c r="J42">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>2.8134399166275474</v>
+        <v>2.1034972832459413</v>
       </c>
       <c r="K42">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.33893684230871068</v>
+        <v>0.26894771560640773</v>
       </c>
     </row>
     <row r="43" spans="5:26" x14ac:dyDescent="0.25">
       <c r="H43">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.57031766292761832</v>
+        <v>0.95665037039530587</v>
       </c>
       <c r="I43">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.71081560742748151</v>
+        <v>1.6390618998328021</v>
       </c>
       <c r="J43">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>1.4577635497218122</v>
+        <v>0.88786566519207188</v>
       </c>
       <c r="K43">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.20823620869176954</v>
+        <v>0.13975861400132292</v>
       </c>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.25">
@@ -4325,37 +4325,37 @@
       </c>
       <c r="I46">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>0.85439767663890043</v>
+        <v>5.1912858740085548E-2</v>
       </c>
       <c r="J46">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.57321905178854216</v>
+        <v>0.26012450215539878</v>
       </c>
       <c r="K46">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>0.52777760629111869</v>
+        <v>1.9831380805351957</v>
       </c>
       <c r="L46">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.48655527967356893</v>
+        <v>0.75183804961122058</v>
       </c>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.25">
       <c r="I47">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>0.71143728350624769</v>
+        <v>4.1031900777079543E-2</v>
       </c>
       <c r="J47">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>0.40134959995646874</v>
+        <v>0.12092888889716823</v>
       </c>
       <c r="K47">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>0.2363058032987885</v>
+        <v>1.2381990024972351</v>
       </c>
       <c r="L47">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.48345177156175806</v>
+        <v>0.66589376640397979</v>
       </c>
     </row>
     <row r="49" spans="9:16" x14ac:dyDescent="0.25">
@@ -4378,37 +4378,37 @@
       </c>
       <c r="J50">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>9.119724398422728E-2</v>
+        <v>5.3212037600627204E-2</v>
       </c>
       <c r="K50">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>1.3108535145699173E-5</v>
+        <v>3.2625069373873908E-4</v>
       </c>
       <c r="L50">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>0.45504501411240167</v>
+        <v>4.3845214055453295E-2</v>
       </c>
       <c r="M50">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>0.46988847779658316</v>
+        <v>0.24054412394903291</v>
       </c>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J51">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>6.2119809712719069E-2</v>
+        <v>3.9214084133492699E-2</v>
       </c>
       <c r="K51">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>7.0145148268745807E-6</v>
+        <v>1.8434465217608098E-4</v>
       </c>
       <c r="L51">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>0.11440733166866866</v>
+        <v>1.621566385248106E-2</v>
       </c>
       <c r="M51">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>0.23653805680054096</v>
+        <v>0.16746704100803439</v>
       </c>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.25">
@@ -4431,37 +4431,37 @@
       </c>
       <c r="K54">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>2.8044433975093759E-3</v>
+        <v>3.3509302294117548E-2</v>
       </c>
       <c r="L54">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.6572478412918155E-3</v>
+        <v>6.6667378040499284E-2</v>
       </c>
       <c r="M54">
         <f>AVERAGE(J$7:J$12)</f>
-        <v>9.4921371213882218E-3</v>
+        <v>1.5287136900189692E-2</v>
       </c>
       <c r="N54">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>7.7636531808892878E-4</v>
+        <v>3.8067728600599683E-2</v>
       </c>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K55">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>2.5299696640065168E-3</v>
+        <v>3.3244042663600794E-2</v>
       </c>
       <c r="L55">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.9226768112732829E-3</v>
+        <v>3.333261421177465E-2</v>
       </c>
       <c r="M55">
         <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
-        <v>3.499385114112491E-3</v>
+        <v>1.3073596183216005E-2</v>
       </c>
       <c r="N55">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>5.1292099244431492E-4</v>
+        <v>2.3051221772249185E-2</v>
       </c>
     </row>
     <row r="57" spans="9:16" x14ac:dyDescent="0.25">
@@ -4484,37 +4484,37 @@
       </c>
       <c r="L58">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99299664503984086</v>
+        <v>0.99307446458122983</v>
       </c>
       <c r="M58">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.9860146927932959</v>
+        <v>0.9881191320224243</v>
       </c>
       <c r="N58">
         <f>AVERAGE(K$7:K$12)</f>
-        <v>0.98028453742192545</v>
+        <v>0.98092295631597859</v>
       </c>
       <c r="O58">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.99649259953861158</v>
+        <v>0.9969128932382727</v>
       </c>
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L59">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.3664509751602817E-3</v>
+        <v>1.4460188712048592E-3</v>
       </c>
       <c r="M59">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>5.4848850631106436E-3</v>
+        <v>6.5033252273944834E-3</v>
       </c>
       <c r="N59">
         <f>STDEV(K$7:K$12)/SQRT(COUNT(K$7:K$12))</f>
-        <v>1.2851815087579843E-2</v>
+        <v>1.2954197990133112E-2</v>
       </c>
       <c r="O59">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>9.2433624468951235E-4</v>
+        <v>1.1121579415080522E-3</v>
       </c>
     </row>
     <row r="61" spans="9:16" x14ac:dyDescent="0.25">
@@ -4537,37 +4537,37 @@
       </c>
       <c r="M62">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.95816438073601617</v>
+        <v>0.98182855866756136</v>
       </c>
       <c r="N62">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.9808374143822064</v>
+        <v>0.96711852563054757</v>
       </c>
       <c r="O62">
         <f>AVERAGE(L$7:L$12)</f>
-        <v>0.95319680963609521</v>
+        <v>0.96834293177437314</v>
       </c>
       <c r="P62">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.96600741061966389</v>
+        <v>0.98521147824316313</v>
       </c>
     </row>
     <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>1.7749849893559329E-2</v>
+        <v>1.084063544424668E-3</v>
       </c>
       <c r="N63">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>7.5774425082649217E-3</v>
+        <v>1.360981246726076E-2</v>
       </c>
       <c r="O63">
         <f>STDEV(L$7:L$12)/SQRT(COUNT(L$7:L$12))</f>
-        <v>1.2246321210270091E-2</v>
+        <v>1.441457475790377E-2</v>
       </c>
       <c r="P63">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>1.5804245058529842E-2</v>
+        <v>7.0930580360897919E-3</v>
       </c>
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.25">
@@ -4590,37 +4590,37 @@
       </c>
       <c r="N66">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.82798813596508847</v>
+        <v>0.98335651547147274</v>
       </c>
       <c r="O66">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.98296697770755237</v>
+        <v>0.97256589989726583</v>
       </c>
       <c r="P66">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.90752399621866509</v>
+        <v>0.98394175049791699</v>
       </c>
       <c r="Q66">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.77628555432857915</v>
+        <v>0.9366878589697748</v>
       </c>
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.25">
       <c r="N67">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>1.2788909883030211E-2</v>
+        <v>9.6331374599677392E-3</v>
       </c>
       <c r="O67">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>8.900509956897007E-3</v>
+        <v>1.8932969779727624E-2</v>
       </c>
       <c r="P67">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.0348374289382175E-2</v>
+        <v>3.4335848781786591E-3</v>
       </c>
       <c r="Q67">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>4.8647222088466793E-2</v>
+        <v>3.3182349711756515E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25822149-1B45-43B6-9B09-A056096A8005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8889EA-D9A7-4CDE-BFAC-A34C66A9525C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8889EA-D9A7-4CDE-BFAC-A34C66A9525C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F21C2E4-042E-4893-B291-B0FD8F20A3D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="-21516" yWindow="1152" windowWidth="21600" windowHeight="11328" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,16 +237,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2838111942432915E-4</c:v>
+                    <c:v>1.2183943132982477E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3290597039919189E-3</c:v>
+                    <c:v>3.4535423256334134E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0846538483147174E-2</c:v>
+                    <c:v>9.5897251503194916E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7165855585969851E-4</c:v>
+                    <c:v>6.2955249951320816E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -258,16 +258,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2838111942432915E-4</c:v>
+                    <c:v>1.2183943132982477E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3290597039919189E-3</c:v>
+                    <c:v>3.4535423256334134E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0846538483147174E-2</c:v>
+                    <c:v>9.5897251503194916E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7165855585969851E-4</c:v>
+                    <c:v>6.2955249951320816E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -313,16 +313,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.5519104362731592E-3</c:v>
+                  <c:v>2.3433547968436008E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9834572402070758E-3</c:v>
+                  <c:v>1.172658559552636E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0309674525471191E-2</c:v>
+                  <c:v>2.0636837032133568E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8335689063559694E-3</c:v>
+                  <c:v>5.505159377609003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,16 +591,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.6447130352127719E-2</c:v>
+                    <c:v>6.8718657161334643E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15025403432410567</c:v>
+                    <c:v>0.5646205071326994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.45348824505752722</c:v>
+                    <c:v>0.53798949910684946</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12808954102472717</c:v>
+                    <c:v>0.14537893810978889</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -612,16 +612,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.6447130352127719E-2</c:v>
+                    <c:v>6.8718657161334643E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15025403432410567</c:v>
+                    <c:v>0.5646205071326994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.45348824505752722</c:v>
+                    <c:v>0.53798949910684946</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.12808954102472717</c:v>
+                    <c:v>0.14537893810978889</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -667,16 +667,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13803459407225505</c:v>
+                  <c:v>0.19184299121272555</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42136808391779712</c:v>
+                  <c:v>0.84179800842162089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86515401290292993</c:v>
+                  <c:v>0.94106557163051041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22117619949735057</c:v>
+                  <c:v>0.17616464501507603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,252 +2333,252 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.583590109171508E-3</v>
+        <v>2.1097888071897361E-3</v>
       </c>
       <c r="B1">
-        <v>0.22450516033341442</v>
+        <v>0.19969781443587659</v>
       </c>
       <c r="C1">
-        <v>3.3406571180494206E-2</v>
+        <v>2.8866838732877646E-2</v>
       </c>
       <c r="D1">
-        <v>1702923759.0648959</v>
+        <v>818877554.49260378</v>
       </c>
       <c r="E1">
-        <v>24.103239925754583</v>
+        <v>23.824832878077498</v>
       </c>
       <c r="F1">
-        <v>61.906298724315057</v>
+        <v>61.845045926722669</v>
       </c>
       <c r="G1">
-        <v>1.4815618181521617</v>
+        <v>0.68957277751298429</v>
       </c>
       <c r="H1">
-        <v>0.1339412586800211</v>
+        <v>7.0567408858400738E-2</v>
       </c>
       <c r="I1">
-        <v>0.12971451147337348</v>
+        <v>0.14778064437536209</v>
       </c>
       <c r="J1">
-        <v>2.9227491954527795E-4</v>
+        <v>1.8567800421632464E-7</v>
       </c>
       <c r="K1">
-        <v>0.99157802793400718</v>
+        <v>0.99150332624430371</v>
       </c>
       <c r="L1">
-        <v>0.9804600787103569</v>
+        <v>0.98662767211449409</v>
       </c>
       <c r="M1">
-        <v>0.96409860083051457</v>
+        <v>0.97269733624408994</v>
       </c>
       <c r="N1">
-        <v>9.1311293635195495E-2</v>
+        <v>9.1715358681844147E-2</v>
       </c>
       <c r="O1">
-        <v>0.13908458605016816</v>
+        <v>0.11505913525944325</v>
       </c>
       <c r="P1">
-        <v>0.18852688184391778</v>
+        <v>0.16440692539656282</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.7567342221492832E-3</v>
+        <v>2.3999735378474928E-3</v>
       </c>
       <c r="B2">
-        <v>0.12419554593356635</v>
+        <v>0.30674523852631458</v>
       </c>
       <c r="C2">
-        <v>5.9659632426979928E-2</v>
+        <v>2.6315789624693837E-2</v>
       </c>
       <c r="D2">
-        <v>111276065.80316089</v>
+        <v>59991281.952788375</v>
       </c>
       <c r="E2">
-        <v>21.555589845471292</v>
+        <v>20.000000000765493</v>
       </c>
       <c r="F2">
-        <v>65.607868836919152</v>
+        <v>62.77548464302069</v>
       </c>
       <c r="G2">
-        <v>0.14403898585796754</v>
+        <v>4.6762112047392383E-2</v>
       </c>
       <c r="H2">
-        <v>1.2985964835549101E-2</v>
+        <v>1.2219467313599025E-8</v>
       </c>
       <c r="I2">
-        <v>2.9919470451312647E-2</v>
+        <v>0.24027361900235344</v>
       </c>
       <c r="J2">
-        <v>9.9997380305439393E-2</v>
+        <v>9.9999999999637254E-2</v>
       </c>
       <c r="K2">
-        <v>0.99596590938570562</v>
+        <v>0.99626937496544443</v>
       </c>
       <c r="L2">
-        <v>0.981056423605146</v>
+        <v>0.9587232081938093</v>
       </c>
       <c r="M2">
-        <v>0.99249399061620269</v>
+        <v>0.9820650985548256</v>
       </c>
       <c r="N2">
-        <v>6.3196120989752746E-2</v>
+        <v>6.0772681232689078E-2</v>
       </c>
       <c r="O2">
-        <v>0.13694575798799141</v>
+        <v>0.20214851938149031</v>
       </c>
       <c r="P2">
-        <v>8.6202954067476065E-2</v>
+        <v>0.13324996221659002</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.3154069774986869E-3</v>
+        <v>2.5203020454935741E-3</v>
       </c>
       <c r="B3">
-        <v>6.5403075949784339E-2</v>
+        <v>6.908592067598554E-2</v>
       </c>
       <c r="C3">
-        <v>9.1808154677587295E-2</v>
+        <v>9.9510365861983335E-2</v>
       </c>
       <c r="D3">
-        <v>5607878499.6337252</v>
+        <v>1041012019.957088</v>
       </c>
       <c r="E3">
-        <v>20.00000023348478</v>
+        <v>20.000000000227651</v>
       </c>
       <c r="F3">
-        <v>68.3671492458123</v>
+        <v>67.826297979498108</v>
       </c>
       <c r="G3">
-        <v>3.4386133971393478</v>
+        <v>0.60732182036244786</v>
       </c>
       <c r="H3">
-        <v>8.8113527046864357E-3</v>
+        <v>1.3304101090591923E-2</v>
       </c>
       <c r="I3">
-        <v>2.1308771954786178E-6</v>
+        <v>1.0750661675905394E-6</v>
       </c>
       <c r="J3">
-        <v>2.3825165736796207E-4</v>
+        <v>6.8956276972077998E-13</v>
       </c>
       <c r="K3">
-        <v>0.99167945642397681</v>
+        <v>0.99144688812041049</v>
       </c>
       <c r="L3">
-        <v>0.98396917368718118</v>
+        <v>0.98505815850502187</v>
       </c>
       <c r="M3">
-        <v>0.99347695496770083</v>
+        <v>0.99343822590965092</v>
       </c>
       <c r="N3">
-        <v>9.0759782614674697E-2</v>
+        <v>9.2019458598676815E-2</v>
       </c>
       <c r="O3">
-        <v>0.12597824435072369</v>
+        <v>0.1216241056700041</v>
       </c>
       <c r="P3">
-        <v>8.0360528756200963E-2</v>
+        <v>8.05987366491909E-2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6.219993463453798E-3</v>
+        <v>6.4071421325667833E-3</v>
       </c>
       <c r="B4">
-        <v>0.24801043170691783</v>
+        <v>0.25980706426117811</v>
       </c>
       <c r="C4">
-        <v>2.6315800670382895E-2</v>
+        <v>2.6315789480790875E-2</v>
       </c>
       <c r="D4">
-        <v>86484931.937112123</v>
+        <v>86708347.125568867</v>
       </c>
       <c r="E4">
-        <v>30.918687078151844</v>
+        <v>30.918362750177526</v>
       </c>
       <c r="F4">
-        <v>57.966886880386461</v>
+        <v>58.004475857179656</v>
       </c>
       <c r="G4">
-        <v>1.0000302748376918E-8</v>
+        <v>1.0000022218739533E-8</v>
       </c>
       <c r="H4">
-        <v>0.16283343655828802</v>
+        <v>0.17453852000111</v>
       </c>
       <c r="I4">
-        <v>3.4064915543379019E-4</v>
+        <v>4.6450674282675123E-10</v>
       </c>
       <c r="J4">
-        <v>9.9999984517138554E-2</v>
+        <v>9.9999999917342125E-2</v>
       </c>
       <c r="K4">
-        <v>0.993557602544343</v>
+        <v>0.9935565156363213</v>
       </c>
       <c r="L4">
-        <v>0.94203999241307812</v>
+        <v>0.94312540558446789</v>
       </c>
       <c r="M4">
-        <v>0.93472658027620892</v>
+        <v>0.93866074510170361</v>
       </c>
       <c r="N4">
-        <v>7.9862215603503331E-2</v>
+        <v>7.9868952165669124E-2</v>
       </c>
       <c r="O4">
-        <v>0.23954207879003775</v>
+        <v>0.23728853421810506</v>
       </c>
       <c r="P4">
-        <v>0.25420599034356606</v>
+        <v>0.24642618032448055</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7.1427357267801837E-3</v>
+        <v>1.8201868192476232E-2</v>
       </c>
       <c r="B5">
-        <v>0.7206243495763498</v>
+        <v>1.9708590250213547</v>
       </c>
       <c r="C5">
-        <v>7.2173823772331114E-2</v>
+        <v>7.5990278067578604E-2</v>
       </c>
       <c r="D5">
-        <v>8137474713.1687441</v>
+        <v>1103118534.2265716</v>
       </c>
       <c r="E5">
-        <v>20.000000015465741</v>
+        <v>20.001289286491811</v>
       </c>
       <c r="F5">
-        <v>62.508056205982264</v>
+        <v>62.022909125504256</v>
       </c>
       <c r="G5">
-        <v>4.9171857106578116</v>
+        <v>0.62163832419773746</v>
       </c>
       <c r="H5">
-        <v>0.50053088843021765</v>
+        <v>1.4687468885933381</v>
       </c>
       <c r="I5">
-        <v>6.3810218861264632E-4</v>
+        <v>4.2703010765250308E-4</v>
       </c>
       <c r="J5">
-        <v>2.1496169506006899E-6</v>
+        <v>1.7244618951913167E-3</v>
       </c>
       <c r="K5">
-        <v>0.97516774176720966</v>
+        <v>0.97307379874000466</v>
       </c>
       <c r="L5">
-        <v>0.9704936575323263</v>
+        <v>0.97032912497335466</v>
       </c>
       <c r="M5">
-        <v>0.99271497094975425</v>
+        <v>0.99000839728903078</v>
       </c>
       <c r="N5">
-        <v>0.15679265177444529</v>
+        <v>0.16326952945174861</v>
       </c>
       <c r="O5">
-        <v>0.17091307452327029</v>
+        <v>0.17138893277098996</v>
       </c>
       <c r="P5">
-        <v>8.4924547450918111E-2</v>
+        <v>9.9456958951395266E-2</v>
       </c>
       <c r="Q5">
         <f>0.0001</f>
@@ -2618,52 +2618,52 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.0587642530387248E-2</v>
+        <v>1.0570746461536065E-2</v>
       </c>
       <c r="B6">
-        <v>0.29546947047012367</v>
+        <v>0.29472793598232966</v>
       </c>
       <c r="C6">
-        <v>2.6315789473707319E-2</v>
+        <v>2.6316402995454225E-2</v>
       </c>
       <c r="D6">
-        <v>98250895.172953367</v>
+        <v>98228881.944859281</v>
       </c>
       <c r="E6">
-        <v>23.123587382408896</v>
+        <v>23.123651898412643</v>
       </c>
       <c r="F6">
-        <v>54.451608345139121</v>
+        <v>54.448437247405032</v>
       </c>
       <c r="G6">
-        <v>1.2318508141694512E-8</v>
+        <v>2.3180235490698976E-8</v>
       </c>
       <c r="H6">
-        <v>0.11700918147769053</v>
+        <v>0.11652082502789272</v>
       </c>
       <c r="I6">
-        <v>7.3716978079432841E-10</v>
+        <v>3.9204152073294536E-9</v>
       </c>
       <c r="J6">
-        <v>9.9999999987408703E-2</v>
+        <v>9.9999889435985811E-2</v>
       </c>
       <c r="K6">
-        <v>0.99563205175572012</v>
+        <v>0.99563208717212115</v>
       </c>
       <c r="L6">
-        <v>0.98882192694623805</v>
+        <v>0.98880646029675801</v>
       </c>
       <c r="M6">
-        <v>0.99025614846583454</v>
+        <v>0.99023107381598163</v>
       </c>
       <c r="N6">
-        <v>6.5759172454016634E-2</v>
+        <v>6.5758905857686359E-2</v>
       </c>
       <c r="O6">
-        <v>0.10519644634313621</v>
+        <v>0.10526919922849959</v>
       </c>
       <c r="P6">
-        <v>9.8216154571556358E-2</v>
+        <v>9.8342447204542494E-2</v>
       </c>
       <c r="Q6">
         <v>0.08</v>
@@ -2701,502 +2701,502 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7.2758926950189798E-3</v>
+        <v>8.7969082514614411E-3</v>
       </c>
       <c r="B7">
-        <v>5.9768927163375972E-2</v>
+        <v>5.809550120867029E-2</v>
       </c>
       <c r="C7">
-        <v>3.1910254925987015E-2</v>
+        <v>7.2854988985842833E-2</v>
       </c>
       <c r="D7">
-        <v>3003049382.4512954</v>
+        <v>869497827.19434929</v>
       </c>
       <c r="E7">
-        <v>39.292057938300999</v>
+        <v>39.086659225568162</v>
       </c>
       <c r="F7">
-        <v>54.602041982835068</v>
+        <v>54.557059569815017</v>
       </c>
       <c r="G7">
-        <v>2.8805367730142892</v>
+        <v>0.80314177116212115</v>
       </c>
       <c r="H7">
-        <v>3.7616915036789988E-2</v>
+        <v>1.1943425624645336E-4</v>
       </c>
       <c r="I7">
-        <v>2.1953399015254435E-2</v>
+        <v>5.5637136089204252E-2</v>
       </c>
       <c r="J7">
-        <v>1.141148209718008E-3</v>
+        <v>4.3013514913368757E-10</v>
       </c>
       <c r="K7">
-        <v>0.99708060514501162</v>
+        <v>0.99705613154973849</v>
       </c>
       <c r="L7">
-        <v>0.99601709575477226</v>
+        <v>0.9961715874489161</v>
       </c>
       <c r="M7">
-        <v>0.99663691652278619</v>
+        <v>0.99672869148871157</v>
       </c>
       <c r="N7">
-        <v>5.3760588784335844E-2</v>
+        <v>5.3985458836235956E-2</v>
       </c>
       <c r="O7">
-        <v>6.2793910554889379E-2</v>
+        <v>6.1564018919926543E-2</v>
       </c>
       <c r="P7">
-        <v>5.7701409362698013E-2</v>
+        <v>5.6908658622177449E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9.3736262847779334E-3</v>
+        <v>1.0293908569875911E-2</v>
       </c>
       <c r="B8">
-        <v>9.73880549041196E-2</v>
+        <v>6.2545996581536478E-2</v>
       </c>
       <c r="C8">
-        <v>4.691787225081228E-2</v>
+        <v>9.9999997765947368E-2</v>
       </c>
       <c r="D8">
-        <v>1610956688.1891892</v>
+        <v>1105943839.9989924</v>
       </c>
       <c r="E8">
-        <v>34.426764956648483</v>
+        <v>34.224737839072297</v>
       </c>
       <c r="F8">
-        <v>62.634223535252936</v>
+        <v>62.585372864441652</v>
       </c>
       <c r="G8">
-        <v>0.99948174956480107</v>
+        <v>0.66739486173893814</v>
       </c>
       <c r="H8">
-        <v>0.16208283450012889</v>
+        <v>7.8521634261090573E-2</v>
       </c>
       <c r="I8">
-        <v>3.8010311562705697E-3</v>
+        <v>8.0980355135467739E-7</v>
       </c>
       <c r="J8">
-        <v>2.3012100426870728E-3</v>
+        <v>5.8042029473927693E-11</v>
       </c>
       <c r="K8">
-        <v>0.99751210239115207</v>
+        <v>0.99748717120454367</v>
       </c>
       <c r="L8">
-        <v>0.9946123919503691</v>
+        <v>0.99501463086482556</v>
       </c>
       <c r="M8">
-        <v>0.98586754878487748</v>
+        <v>0.99238563291700888</v>
       </c>
       <c r="N8">
-        <v>4.9631290122818167E-2</v>
+        <v>4.987934745395102E-2</v>
       </c>
       <c r="O8">
-        <v>7.3036055449854212E-2</v>
+        <v>7.0256736650140608E-2</v>
       </c>
       <c r="P8">
-        <v>0.11829000784329538</v>
+        <v>8.6827284363224247E-2</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.9540493196898229E-2</v>
+        <v>2.5199604094165075E-2</v>
       </c>
       <c r="B9">
-        <v>2.5609266808643398</v>
+        <v>3.2940758033856365</v>
       </c>
       <c r="C9">
-        <v>3.2943066639092605E-2</v>
+        <v>5.2590670563293862E-2</v>
       </c>
       <c r="D9">
-        <v>509126772.29940283</v>
+        <v>488741322.03084129</v>
       </c>
       <c r="E9">
-        <v>29.565923205216947</v>
+        <v>29.432058148267789</v>
       </c>
       <c r="F9">
-        <v>66.927356178728161</v>
+        <v>66.759459284471447</v>
       </c>
       <c r="G9">
-        <v>6.9928692718891808E-2</v>
+        <v>5.8078974343964036E-2</v>
       </c>
       <c r="H9">
-        <v>7.3874514568008021</v>
+        <v>9.6064519794520962</v>
       </c>
       <c r="I9">
-        <v>7.4099507909442031E-2</v>
+        <v>1.1616304467309338E-3</v>
       </c>
       <c r="J9">
-        <v>8.0411998076253405E-2</v>
+        <v>8.5130223140294115E-2</v>
       </c>
       <c r="K9">
-        <v>0.99576744112776483</v>
+        <v>0.99576792421273841</v>
       </c>
       <c r="L9">
-        <v>0.93773446649967385</v>
+        <v>0.93831158973104345</v>
       </c>
       <c r="M9">
-        <v>0.9732604961234389</v>
+        <v>0.97353302689721166</v>
       </c>
       <c r="N9">
-        <v>6.4732011273502352E-2</v>
+        <v>6.4728317059761342E-2</v>
       </c>
       <c r="O9">
-        <v>0.24827983841891571</v>
+        <v>0.24712653877369592</v>
       </c>
       <c r="P9">
-        <v>0.16270251638433725</v>
+        <v>0.16187125554514148</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.8036032387453464E-3</v>
+        <v>4.3802661548073187E-3</v>
       </c>
       <c r="B10">
-        <v>0.37195996491835076</v>
+        <v>0.44237047636065913</v>
       </c>
       <c r="C10">
-        <v>9.9999999637821593E-2</v>
+        <v>8.7083200564253657E-2</v>
       </c>
       <c r="D10">
-        <v>62410803.675238349</v>
+        <v>63180115.750805609</v>
       </c>
       <c r="E10">
-        <v>37.495106261947257</v>
+        <v>37.459781793540159</v>
       </c>
       <c r="F10">
-        <v>40.000000236204144</v>
+        <v>40.161666358156182</v>
       </c>
       <c r="G10">
-        <v>2.9644860022929383E-2</v>
+        <v>3.0267711350570131E-2</v>
       </c>
       <c r="H10">
-        <v>0.35314266690379142</v>
+        <v>0.43153982247464184</v>
       </c>
       <c r="I10">
-        <v>1.294473898507452E-4</v>
+        <v>4.6296795348582222E-3</v>
       </c>
       <c r="J10">
-        <v>7.6211746567622114E-7</v>
+        <v>1.0495607472909202E-5</v>
       </c>
       <c r="K10">
-        <v>0.99451148692993929</v>
+        <v>0.99450862365726522</v>
       </c>
       <c r="L10">
-        <v>0.98768377963571941</v>
+        <v>0.98651909974957253</v>
       </c>
       <c r="M10">
-        <v>0.98919683047713969</v>
+        <v>0.98398951633829879</v>
       </c>
       <c r="N10">
-        <v>7.3713146312988767E-2</v>
+        <v>7.3732371312113965E-2</v>
       </c>
       <c r="O10">
-        <v>0.11042218147020012</v>
+        <v>0.11552528402009304</v>
       </c>
       <c r="P10">
-        <v>0.10341729946015665</v>
+        <v>0.12589828761775976</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.4028073287223896E-3</v>
+        <v>8.827856827243824E-3</v>
       </c>
       <c r="B11">
-        <v>0.1166600904457168</v>
+        <v>7.55417192547954E-2</v>
       </c>
       <c r="C11">
-        <v>4.0047967399890354E-2</v>
+        <v>4.5248107026542507E-2</v>
       </c>
       <c r="D11">
-        <v>942731660.24045897</v>
+        <v>110535998</v>
       </c>
       <c r="E11">
-        <v>20.002116691183289</v>
+        <v>20.000000000000021</v>
       </c>
       <c r="F11">
-        <v>71.086458881782406</v>
+        <v>70.574558882166301</v>
       </c>
       <c r="G11">
-        <v>5.6545471526227615</v>
+        <v>0.62548906338310539</v>
       </c>
       <c r="H11">
-        <v>0.10452863041031761</v>
+        <v>9.7814635328407312E-2</v>
       </c>
       <c r="I11">
-        <v>8.9816331974506308E-2</v>
+        <v>2.8165400896217941E-5</v>
       </c>
       <c r="J11">
-        <v>3.2073332988358358E-4</v>
+        <v>2.2690196750526574E-14</v>
       </c>
       <c r="K11">
-        <v>0.98366154117277504</v>
+        <v>0.98339886367076657</v>
       </c>
       <c r="L11">
-        <v>0.98275326931085361</v>
+        <v>0.98376764779690362</v>
       </c>
       <c r="M11">
-        <v>0.97778999512078257</v>
+        <v>0.97963641930253809</v>
       </c>
       <c r="N11">
-        <v>0.1271812652828738</v>
+        <v>0.12819955134843913</v>
       </c>
       <c r="O11">
-        <v>0.13066852483385177</v>
+        <v>0.12676761684699067</v>
       </c>
       <c r="P11">
-        <v>0.1482831913280305</v>
+        <v>0.14198572072742852</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7.3461624408664258E-2</v>
+        <v>6.632247829524783E-2</v>
       </c>
       <c r="B12">
-        <v>1.9842203591216769</v>
+        <v>1.7137639329917644</v>
       </c>
       <c r="C12">
-        <v>5.4786696261334158E-2</v>
+        <v>6.9866626416853858E-2</v>
       </c>
       <c r="D12">
-        <v>7381794606.4774818</v>
+        <v>1451042807.7431676</v>
       </c>
       <c r="E12">
-        <v>20.000004176841792</v>
+        <v>20.000023683794321</v>
       </c>
       <c r="F12">
-        <v>69.211374949099664</v>
+        <v>68.607190433600962</v>
       </c>
       <c r="G12">
-        <v>2.9868444715319749</v>
+        <v>0.50794113155111209</v>
       </c>
       <c r="H12">
-        <v>3.8540059795593451</v>
+        <v>3.3604547861156884</v>
       </c>
       <c r="I12">
-        <v>7.3271566887395695E-2</v>
+        <v>1.5720979459276606E-3</v>
       </c>
       <c r="J12">
-        <v>7.5469696251304029E-3</v>
+        <v>1.1075155570108483E-7</v>
       </c>
       <c r="K12">
-        <v>0.91700456112922901</v>
+        <v>0.91251201628020961</v>
       </c>
       <c r="L12">
-        <v>0.91125658749485106</v>
+        <v>0.90445659926885413</v>
       </c>
       <c r="M12">
-        <v>0.980898715958477</v>
+        <v>0.97619091556320547</v>
       </c>
       <c r="N12">
-        <v>0.28664522406986526</v>
+        <v>0.29430104295192794</v>
       </c>
       <c r="O12">
-        <v>0.29640509169057389</v>
+        <v>0.30755156758474572</v>
       </c>
       <c r="P12">
-        <v>0.13751462177204216</v>
+        <v>0.15352847811538617</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6.1472968183924918E-3</v>
+        <v>6.009484252225218E-3</v>
       </c>
       <c r="B13">
-        <v>2.9488514872599444E-2</v>
+        <v>2.3712350592520037E-2</v>
       </c>
       <c r="C13">
-        <v>9.4116212204346281E-2</v>
+        <v>9.9999999886581772E-2</v>
       </c>
       <c r="D13">
-        <v>233026575.988653</v>
+        <v>217678933.50945121</v>
       </c>
       <c r="E13">
-        <v>28.472108708206903</v>
+        <v>28.447336580513571</v>
       </c>
       <c r="F13">
-        <v>55.787599410864452</v>
+        <v>54.924844146080751</v>
       </c>
       <c r="G13">
-        <v>5.7827721784636712E-3</v>
+        <v>4.388135617570779E-4</v>
       </c>
       <c r="H13">
-        <v>6.374453567613461E-3</v>
+        <v>8.0096388493488026E-3</v>
       </c>
       <c r="I13">
-        <v>2.377266798841355E-2</v>
+        <v>1.7379072526304474E-9</v>
       </c>
       <c r="J13">
-        <v>4.6312504698191259E-2</v>
+        <v>3.5025895502838085E-2</v>
       </c>
       <c r="K13">
-        <v>0.9986000281703824</v>
+        <v>0.99860082644231662</v>
       </c>
       <c r="L13">
-        <v>0.99555401997336235</v>
+        <v>0.99561191590596565</v>
       </c>
       <c r="M13">
-        <v>0.98442498077786644</v>
+        <v>0.99032699534640034</v>
       </c>
       <c r="N13">
-        <v>3.722864638046184E-2</v>
+        <v>3.7218030873577709E-2</v>
       </c>
       <c r="O13">
-        <v>6.6343953954910398E-2</v>
+        <v>6.5910570116590336E-2</v>
       </c>
       <c r="P13">
-        <v>0.12417434932349035</v>
+        <v>9.7858441675021793E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5.7314129873587772E-3</v>
+        <v>3.8862277447454445E-3</v>
       </c>
       <c r="B14">
-        <v>0.23515491740594216</v>
+        <v>2.725596656686213E-2</v>
       </c>
       <c r="C14">
-        <v>3.5297413573497589E-2</v>
+        <v>4.2301835077202837E-2</v>
       </c>
       <c r="D14">
-        <v>1691250185.8522472</v>
+        <v>2505889729.8533902</v>
       </c>
       <c r="E14">
-        <v>32.658161690555957</v>
+        <v>33.024138056072623</v>
       </c>
       <c r="F14">
-        <v>59.404061292045135</v>
+        <v>59.464000620651539</v>
       </c>
       <c r="G14">
-        <v>0.47501963729883889</v>
+        <v>0.73479274856265109</v>
       </c>
       <c r="H14">
-        <v>0.25924582795433365</v>
+        <v>3.5911675585669334E-7</v>
       </c>
       <c r="I14">
-        <v>0.72131539050587989</v>
+        <v>3.0393711958913223E-2</v>
       </c>
       <c r="J14">
-        <v>5.2501441995392618E-3</v>
+        <v>1.3575856999693136E-10</v>
       </c>
       <c r="K14">
-        <v>0.99713502959267497</v>
+        <v>0.99716413806613691</v>
       </c>
       <c r="L14">
-        <v>0.9884092174525777</v>
+        <v>0.99370151489655978</v>
       </c>
       <c r="M14">
-        <v>0.85132338189348156</v>
+        <v>0.99165365355522117</v>
       </c>
       <c r="N14">
-        <v>5.3257118803515163E-2</v>
+        <v>5.2985878444397248E-2</v>
       </c>
       <c r="O14">
-        <v>0.1071208416786764</v>
+        <v>7.8965183798974159E-2</v>
       </c>
       <c r="P14">
-        <v>0.38365329651321028</v>
+        <v>9.0900401431077332E-2</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.8543482943328278E-3</v>
+        <v>6.8560554960869612E-3</v>
       </c>
       <c r="B15">
-        <v>4.1559683656006069E-2</v>
+        <v>4.1542035450387677E-2</v>
       </c>
       <c r="C15">
-        <v>3.2750554425330633E-2</v>
+        <v>3.2824140711530357E-2</v>
       </c>
       <c r="D15">
-        <v>367615451.77347285</v>
+        <v>367617109.83428496</v>
       </c>
       <c r="E15">
-        <v>20.000000000000021</v>
+        <v>20.000000000005215</v>
       </c>
       <c r="F15">
-        <v>69.72275718871245</v>
+        <v>69.722828941943575</v>
       </c>
       <c r="G15">
-        <v>5.1487710985286504E-2</v>
+        <v>5.1486536699527199E-2</v>
       </c>
       <c r="H15">
-        <v>4.2443765622314554E-4</v>
+        <v>3.9011309118147674E-4</v>
       </c>
       <c r="I15">
-        <v>4.1011407543536162E-9</v>
+        <v>3.7299730241668449E-10</v>
       </c>
       <c r="J15">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999999977676E-2</v>
       </c>
       <c r="K15">
-        <v>0.99820818161378644</v>
+        <v>0.99820817721960153</v>
       </c>
       <c r="L15">
-        <v>0.99249257185058015</v>
+        <v>0.99249749898466444</v>
       </c>
       <c r="M15">
-        <v>0.99383549225321077</v>
+        <v>0.99383472763390213</v>
       </c>
       <c r="N15">
-        <v>4.2117694646685903E-2</v>
+        <v>4.2117746290541561E-2</v>
       </c>
       <c r="O15">
-        <v>8.6211100607321123E-2</v>
+        <v>8.6182805739788912E-2</v>
       </c>
       <c r="P15">
-        <v>7.8120820971884997E-2</v>
+        <v>7.812566570875995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4.6012175253397798E-3</v>
+        <v>5.2688700173783897E-3</v>
       </c>
       <c r="B16">
-        <v>0.57850168205485464</v>
+        <v>0.61214822745053432</v>
       </c>
       <c r="C16">
-        <v>4.9767381979135175E-2</v>
+        <v>7.5473443836953563E-2</v>
       </c>
       <c r="D16">
-        <v>1284265025.990176</v>
+        <v>1519978906.0318289</v>
       </c>
       <c r="E16">
-        <v>42.080190814755888</v>
+        <v>42.233837038396345</v>
       </c>
       <c r="F16">
-        <v>67.21844081828678</v>
+        <v>67.258519619581634</v>
       </c>
       <c r="G16">
-        <v>0.54350074196304199</v>
+        <v>0.65344582250337191</v>
       </c>
       <c r="H16">
-        <v>2.741307479266712</v>
+        <v>3.1034722121742919</v>
       </c>
       <c r="I16">
-        <v>0.2170884332006974</v>
+        <v>2.7720831879434263E-3</v>
       </c>
       <c r="J16">
-        <v>7.0826550469041297E-4</v>
+        <v>2.3605345234617402E-5</v>
       </c>
       <c r="K16">
-        <v>0.99370833357624733</v>
+        <v>0.99372489602609093</v>
       </c>
       <c r="L16">
-        <v>0.96439010369613221</v>
+        <v>0.96468552283099351</v>
       </c>
       <c r="M16">
-        <v>0.91716758095454043</v>
+        <v>0.91289813590883506</v>
       </c>
       <c r="N16">
-        <v>7.8922428748202836E-2</v>
+        <v>7.8818480917675668E-2</v>
       </c>
       <c r="O16">
-        <v>0.18775994605034665</v>
+        <v>0.18697949726458349</v>
       </c>
       <c r="P16">
-        <v>0.28636357110324806</v>
+        <v>0.29365089042986631</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -3262,19 +3262,19 @@
       </c>
       <c r="B18">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.5519104362731592E-3</v>
+        <v>2.3433547968436008E-3</v>
       </c>
       <c r="C18">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>7.9834572402070758E-3</v>
+        <v>1.172658559552636E-2</v>
       </c>
       <c r="D18">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>2.0309674525471191E-2</v>
+        <v>2.0636837032133568E-2</v>
       </c>
       <c r="E18">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>5.8335689063559694E-3</v>
+        <v>5.505159377609003E-3</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="P18" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" si="4"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="5"/>
@@ -3323,19 +3323,19 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>1.2838111942432915E-4</v>
+        <v>1.2183943132982477E-4</v>
       </c>
       <c r="C19">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>1.3290597039919189E-3</v>
+        <v>3.4535423256334134E-3</v>
       </c>
       <c r="D19">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>1.0846538483147174E-2</v>
+        <v>9.5897251503194916E-3</v>
       </c>
       <c r="E19">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>4.7165855585969851E-4</v>
+        <v>6.2955249951320816E-4</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="P19" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="3"/>
@@ -3489,19 +3489,19 @@
       </c>
       <c r="C22">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>0.13803459407225505</v>
+        <v>0.19184299121272555</v>
       </c>
       <c r="D22">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.42136808391779712</v>
+        <v>0.84179800842162089</v>
       </c>
       <c r="E22">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>0.86515401290292993</v>
+        <v>0.94106557163051041</v>
       </c>
       <c r="F22">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.22117619949735057</v>
+        <v>0.17616464501507603</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
@@ -3550,19 +3550,19 @@
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>4.6447130352127719E-2</v>
+        <v>6.8718657161334643E-2</v>
       </c>
       <c r="D23">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>0.15025403432410567</v>
+        <v>0.5646205071326994</v>
       </c>
       <c r="E23">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>0.45348824505752722</v>
+        <v>0.53798949910684946</v>
       </c>
       <c r="F23">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.12808954102472717</v>
+        <v>0.14537893810978889</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="P24" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="3"/>
@@ -3716,19 +3716,19 @@
       </c>
       <c r="D26">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>6.1624786095020478E-2</v>
+        <v>5.1564331406518275E-2</v>
       </c>
       <c r="E26">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>4.1601804638807104E-2</v>
+        <v>4.2874156847941235E-2</v>
       </c>
       <c r="F26">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>5.1100976185822995E-2</v>
+        <v>7.1273931887122347E-2</v>
       </c>
       <c r="G26">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>5.2982890545577421E-2</v>
+        <v>6.2649854878067138E-2</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="P26" t="str">
         <f t="shared" si="2"/>
-        <v>Upper</v>
+        <v>Ok</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="3"/>
@@ -3777,19 +3777,19 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>1.6887693847357634E-2</v>
+        <v>2.3984325630791826E-2</v>
       </c>
       <c r="E27">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>1.528600956676235E-2</v>
+        <v>1.6558060610765861E-2</v>
       </c>
       <c r="F27">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>1.0396088768325498E-2</v>
+        <v>8.3785597421522275E-3</v>
       </c>
       <c r="G27">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.4213881614573176E-2</v>
+        <v>1.5446393595550232E-2</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="3"/>
@@ -3943,19 +3943,19 @@
       </c>
       <c r="E30">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>2474026108.1672606</v>
+        <v>639960285.46749341</v>
       </c>
       <c r="F30">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>2774070180.0929365</v>
+        <v>429351921.09899992</v>
       </c>
       <c r="G30">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>2251678318.8888445</v>
+        <v>681490318.45302594</v>
       </c>
       <c r="H30">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>894039309.90113735</v>
+        <v>1152791169.8072388</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -4004,19 +4004,19 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E31">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>1632902191.7526078</v>
+        <v>296989878.59587508</v>
       </c>
       <c r="F31">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>2681704417.5011978</v>
+        <v>336899721.68024516</v>
       </c>
       <c r="G31">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>1108089877.6462915</v>
+        <v>227535137.76264256</v>
       </c>
       <c r="H31">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>353775023.02927995</v>
+        <v>536705672.42522597</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -4166,37 +4166,37 @@
       </c>
       <c r="F34">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>21.886276668236885</v>
+        <v>21.274944293023548</v>
       </c>
       <c r="G34">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>24.680758158675491</v>
+        <v>24.681101311693993</v>
       </c>
       <c r="H34">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>30.130328871689795</v>
+        <v>30.033876781707125</v>
       </c>
       <c r="I34">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.802615303379696</v>
+        <v>30.926327918746939</v>
       </c>
     </row>
     <row r="35" spans="5:26" x14ac:dyDescent="0.25">
       <c r="F35">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.1959876426504441</v>
+        <v>1.2749442925269752</v>
       </c>
       <c r="G35">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>3.246691516660273</v>
+        <v>3.2462727221166308</v>
       </c>
       <c r="H35">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>3.474475033166526</v>
+        <v>3.446637629880827</v>
       </c>
       <c r="I35">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>4.5894309759191145</v>
+        <v>4.6349272711493885</v>
       </c>
     </row>
     <row r="37" spans="5:26" x14ac:dyDescent="0.25">
@@ -4219,37 +4219,37 @@
       </c>
       <c r="G38">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>65.293772269015506</v>
+        <v>64.148942849747144</v>
       </c>
       <c r="H38">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>58.30885047716928</v>
+        <v>58.158607410029646</v>
       </c>
       <c r="I38">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>60.743575960650389</v>
+        <v>60.540884565441928</v>
       </c>
       <c r="J38">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>63.033214677477204</v>
+        <v>62.842548332064382</v>
       </c>
     </row>
     <row r="39" spans="5:26" x14ac:dyDescent="0.25">
       <c r="G39">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.87168728297575</v>
+        <v>1.8581921872190554</v>
       </c>
       <c r="H39">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>2.3319728671780968</v>
+        <v>2.1879193662562124</v>
       </c>
       <c r="I39">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>4.790639853931725</v>
+        <v>4.6893823719552792</v>
       </c>
       <c r="J39">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>3.2651670675238069</v>
+        <v>3.4271427348192454</v>
       </c>
     </row>
     <row r="41" spans="5:26" x14ac:dyDescent="0.25">
@@ -4272,37 +4272,37 @@
       </c>
       <c r="H42">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>1.6880714003831592</v>
+        <v>0.44788556997427481</v>
       </c>
       <c r="I42">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>1.6390619109922075</v>
+        <v>0.20721278579266508</v>
       </c>
       <c r="J42">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>2.1034972832459413</v>
+        <v>0.44871891892163512</v>
       </c>
       <c r="K42">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.26894771560640773</v>
+        <v>0.36004098033182685</v>
       </c>
     </row>
     <row r="43" spans="5:26" x14ac:dyDescent="0.25">
       <c r="H43">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.95665037039530587</v>
+        <v>0.20196231196476522</v>
       </c>
       <c r="I43">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>1.6390618998328021</v>
+        <v>0.20721276920253626</v>
       </c>
       <c r="J43">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>0.88786566519207188</v>
+        <v>0.13365261688625313</v>
       </c>
       <c r="K43">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.13975861400132292</v>
+        <v>0.1938738533670811</v>
       </c>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.25">
@@ -4325,37 +4325,37 @@
       </c>
       <c r="I46">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>5.1912858740085548E-2</v>
+        <v>2.7957174056153323E-2</v>
       </c>
       <c r="J46">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.26012450215539878</v>
+        <v>0.58660207787411356</v>
       </c>
       <c r="K46">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>1.9831380805351957</v>
+        <v>2.2624837153146955</v>
       </c>
       <c r="L46">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.75183804961122058</v>
+        <v>0.77796808080789448</v>
       </c>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.25">
       <c r="I47">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>4.1031900777079543E-2</v>
+        <v>2.1648508629154174E-2</v>
       </c>
       <c r="J47">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>0.12092888889716823</v>
+        <v>0.44139027082679105</v>
       </c>
       <c r="K47">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>1.2381990024972351</v>
+        <v>1.5606146290616747</v>
       </c>
       <c r="L47">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.66589376640397979</v>
+        <v>0.77517023609963509</v>
       </c>
     </row>
     <row r="49" spans="9:16" x14ac:dyDescent="0.25">
@@ -4378,37 +4378,37 @@
       </c>
       <c r="J50">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>5.3212037600627204E-2</v>
+        <v>0.12935177948129437</v>
       </c>
       <c r="K50">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>3.2625069373873908E-4</v>
+        <v>1.4234483085815106E-4</v>
       </c>
       <c r="L50">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>4.3845214055453295E-2</v>
+        <v>1.0504919870194774E-2</v>
       </c>
       <c r="M50">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>0.24054412394903291</v>
+        <v>8.2914493144403013E-3</v>
       </c>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J51">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>3.9214084133492699E-2</v>
+        <v>6.997009155907126E-2</v>
       </c>
       <c r="K51">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>1.8434465217608098E-4</v>
+        <v>1.4234263840067203E-4</v>
       </c>
       <c r="L51">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>1.621566385248106E-2</v>
+        <v>9.0528567629612425E-3</v>
       </c>
       <c r="M51">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>0.16746704100803439</v>
+        <v>7.3963371841886272E-3</v>
       </c>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.25">
@@ -4431,37 +4431,37 @@
       </c>
       <c r="K54">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.3509302294117548E-2</v>
+        <v>3.3333395226110347E-2</v>
       </c>
       <c r="L54">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.6667378040499284E-2</v>
+        <v>6.724145041617309E-2</v>
       </c>
       <c r="M54">
         <f>AVERAGE(J$7:J$12)</f>
-        <v>1.5287136900189692E-2</v>
+        <v>1.4190138331253765E-2</v>
       </c>
       <c r="N54">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>3.8067728600599683E-2</v>
+        <v>3.3762375245952242E-2</v>
       </c>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K55">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.3244042663600794E-2</v>
+        <v>3.3333302386806547E-2</v>
       </c>
       <c r="L55">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.333261421177465E-2</v>
+        <v>3.2758494260506414E-2</v>
       </c>
       <c r="M55">
         <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
-        <v>1.3073596183216005E-2</v>
+        <v>1.4188017064792866E-2</v>
       </c>
       <c r="N55">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.3051221772249185E-2</v>
+        <v>2.3571207690721671E-2</v>
       </c>
     </row>
     <row r="57" spans="9:16" x14ac:dyDescent="0.25">
@@ -4484,37 +4484,37 @@
       </c>
       <c r="L58">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99307446458122983</v>
+        <v>0.99307319644338621</v>
       </c>
       <c r="M58">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.9881191320224243</v>
+        <v>0.987420800516149</v>
       </c>
       <c r="N58">
         <f>AVERAGE(K$7:K$12)</f>
-        <v>0.98092295631597859</v>
+        <v>0.98012178842921027</v>
       </c>
       <c r="O58">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.9969128932382727</v>
+        <v>0.9969245094385365</v>
       </c>
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L59">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.4460188712048592E-3</v>
+        <v>1.5981723075758412E-3</v>
       </c>
       <c r="M59">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>6.5033252273944834E-3</v>
+        <v>7.1984800310800129E-3</v>
       </c>
       <c r="N59">
         <f>STDEV(K$7:K$12)/SQRT(COUNT(K$7:K$12))</f>
-        <v>1.2954197990133112E-2</v>
+        <v>1.368932869168784E-2</v>
       </c>
       <c r="O59">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>1.1121579415080522E-3</v>
+        <v>1.1087827235897795E-3</v>
       </c>
     </row>
     <row r="61" spans="9:16" x14ac:dyDescent="0.25">
@@ -4537,37 +4537,37 @@
       </c>
       <c r="M62">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.98182855866756136</v>
+        <v>0.97680301293777516</v>
       </c>
       <c r="N62">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.96711852563054757</v>
+        <v>0.96742033028486019</v>
       </c>
       <c r="O62">
         <f>AVERAGE(L$7:L$12)</f>
-        <v>0.96834293177437314</v>
+        <v>0.96737352581001923</v>
       </c>
       <c r="P62">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98521147824316313</v>
+        <v>0.98662411315454579</v>
       </c>
     </row>
     <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>1.084063544424668E-3</v>
+        <v>9.0512494151825176E-3</v>
       </c>
       <c r="N63">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>1.360981246726076E-2</v>
+        <v>1.3266945199902791E-2</v>
       </c>
       <c r="O63">
         <f>STDEV(L$7:L$12)/SQRT(COUNT(L$7:L$12))</f>
-        <v>1.441457475790377E-2</v>
+        <v>1.5309926032968647E-2</v>
       </c>
       <c r="P63">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>7.0930580360897919E-3</v>
+        <v>7.340916270071429E-3</v>
       </c>
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.25">
@@ -4590,37 +4590,37 @@
       </c>
       <c r="N66">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98335651547147274</v>
+        <v>0.98273355356952219</v>
       </c>
       <c r="O66">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.97256589989726583</v>
+        <v>0.97296673873557216</v>
       </c>
       <c r="P66">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.98394175049791699</v>
+        <v>0.98374403375116237</v>
       </c>
       <c r="Q66">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.9366878589697748</v>
+        <v>0.97217837811108965</v>
       </c>
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.25">
       <c r="N67">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>9.6331374599677392E-3</v>
+        <v>5.9967004847040206E-3</v>
       </c>
       <c r="O67">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>1.8932969779727624E-2</v>
+        <v>1.7153117263966709E-2</v>
       </c>
       <c r="P67">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.4335848781786591E-3</v>
+        <v>3.7484467280740124E-3</v>
       </c>
       <c r="Q67">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>3.3182349711756515E-2</v>
+        <v>1.9773305345403593E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F21C2E4-042E-4893-B291-B0FD8F20A3D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BAEBF-C99D-4DAD-AF86-0FE520CB4CD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21516" yWindow="1152" windowWidth="21600" windowHeight="11328" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,16 +237,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2183943132982477E-4</c:v>
+                    <c:v>1.5736605921649015E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4535423256334134E-3</c:v>
+                    <c:v>1.4343228113481118E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.5897251503194916E-3</c:v>
+                    <c:v>1.1720490859283117E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.2955249951320816E-4</c:v>
+                    <c:v>5.9308911346223861E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -258,16 +258,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.2183943132982477E-4</c:v>
+                    <c:v>1.5736605921649015E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4535423256334134E-3</c:v>
+                    <c:v>1.4343228113481118E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.5897251503194916E-3</c:v>
+                    <c:v>1.1720490859283117E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.2955249951320816E-4</c:v>
+                    <c:v>5.9308911346223861E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -313,16 +313,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3433547968436008E-3</c:v>
+                  <c:v>2.4078861224911992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.172658559552636E-2</c:v>
+                  <c:v>7.5900905874670384E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0636837032133568E-2</c:v>
+                  <c:v>2.2654629147360703E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.505159377609003E-3</c:v>
+                  <c:v>5.4620209132648975E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,16 +591,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>6.8718657161334643E-2</c:v>
+                    <c:v>4.5642193890534699E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.5646205071326994</c:v>
+                    <c:v>8.8697391600276926E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.53798949910684946</c:v>
+                    <c:v>0.54382776962557089</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.14537893810978889</c:v>
+                    <c:v>0.14029286775012334</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -612,16 +612,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>6.8718657161334643E-2</c:v>
+                    <c:v>4.5642193890534699E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.5646205071326994</c:v>
+                    <c:v>8.8697391600276926E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.53798949910684946</c:v>
+                    <c:v>0.54382776962557089</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.14537893810978889</c:v>
+                    <c:v>0.14029286775012334</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -667,16 +667,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19184299121272555</c:v>
+                  <c:v>0.12876403055911056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84179800842162089</c:v>
+                  <c:v>0.36378887310536595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94106557163051041</c:v>
+                  <c:v>0.98365155612769539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17616464501507603</c:v>
+                  <c:v>0.17125333746427998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,16 +1949,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2322,7 +2322,7 @@
   <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,252 +2333,252 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.1097888071897361E-3</v>
+        <v>2.0976747697605286E-3</v>
       </c>
       <c r="B1">
-        <v>0.19969781443587659</v>
+        <v>0.21830223196459386</v>
       </c>
       <c r="C1">
-        <v>2.8866838732877646E-2</v>
+        <v>2.6694525643085745E-2</v>
       </c>
       <c r="D1">
-        <v>818877554.49260378</v>
+        <v>818894801.58891523</v>
       </c>
       <c r="E1">
-        <v>23.824832878077498</v>
+        <v>23.826290755224584</v>
       </c>
       <c r="F1">
-        <v>61.845045926722669</v>
+        <v>61.844884096191777</v>
       </c>
       <c r="G1">
-        <v>0.68957277751298429</v>
+        <v>0.68960196231331805</v>
       </c>
       <c r="H1">
-        <v>7.0567408858400738E-2</v>
+        <v>7.2283541040282104E-2</v>
       </c>
       <c r="I1">
-        <v>0.14778064437536209</v>
+        <v>0.17343917978454645</v>
       </c>
       <c r="J1">
-        <v>1.8567800421632464E-7</v>
+        <v>2.5558600341063397E-8</v>
       </c>
       <c r="K1">
-        <v>0.99150332624430371</v>
+        <v>0.99150333275266933</v>
       </c>
       <c r="L1">
-        <v>0.98662767211449409</v>
+        <v>0.98666916403361515</v>
       </c>
       <c r="M1">
-        <v>0.97269733624408994</v>
+        <v>0.97271058806381383</v>
       </c>
       <c r="N1">
-        <v>9.1715358681844147E-2</v>
+        <v>9.1715323555321596E-2</v>
       </c>
       <c r="O1">
-        <v>0.11505913525944325</v>
+        <v>0.11488049271621804</v>
       </c>
       <c r="P1">
-        <v>0.16440692539656282</v>
+        <v>0.16436702168264883</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.3999735378474928E-3</v>
+        <v>2.6090234972581719E-3</v>
       </c>
       <c r="B2">
-        <v>0.30674523852631458</v>
+        <v>9.9383641830631947E-2</v>
       </c>
       <c r="C2">
-        <v>2.6315789624693837E-2</v>
+        <v>3.1939465592960722E-2</v>
       </c>
       <c r="D2">
-        <v>59991281.952788375</v>
+        <v>35964502.504408099</v>
       </c>
       <c r="E2">
-        <v>20.000000000765493</v>
+        <v>18.690968957729648</v>
       </c>
       <c r="F2">
-        <v>62.77548464302069</v>
+        <v>58.097927702089322</v>
       </c>
       <c r="G2">
-        <v>4.6762112047392383E-2</v>
+        <v>4.5899922965319413E-8</v>
       </c>
       <c r="H2">
-        <v>1.2219467313599025E-8</v>
+        <v>2.1689353295952191E-2</v>
       </c>
       <c r="I2">
-        <v>0.24027361900235344</v>
+        <v>4.2665838329322683E-14</v>
       </c>
       <c r="J2">
-        <v>9.9999999999637254E-2</v>
+        <v>9.9999999999957276E-2</v>
       </c>
       <c r="K2">
-        <v>0.99626937496544443</v>
+        <v>0.99654358691681288</v>
       </c>
       <c r="L2">
-        <v>0.9587232081938093</v>
+        <v>0.98206709390663083</v>
       </c>
       <c r="M2">
-        <v>0.9820650985548256</v>
+        <v>0.99411266755798866</v>
       </c>
       <c r="N2">
-        <v>6.0772681232689078E-2</v>
+        <v>5.8496572141923678E-2</v>
       </c>
       <c r="O2">
-        <v>0.20214851938149031</v>
+        <v>0.13324254963199827</v>
       </c>
       <c r="P2">
-        <v>0.13324996221659002</v>
+        <v>7.6344345681859327E-2</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.5203020454935741E-3</v>
+        <v>2.5169601004548965E-3</v>
       </c>
       <c r="B3">
-        <v>6.908592067598554E-2</v>
+        <v>6.860621788210583E-2</v>
       </c>
       <c r="C3">
-        <v>9.9510365861983335E-2</v>
+        <v>9.998437689493507E-2</v>
       </c>
       <c r="D3">
-        <v>1041012019.957088</v>
+        <v>1041012019.99075</v>
       </c>
       <c r="E3">
-        <v>20.000000000227651</v>
+        <v>19.199057857294083</v>
       </c>
       <c r="F3">
-        <v>67.826297979498108</v>
+        <v>68.746264426576005</v>
       </c>
       <c r="G3">
-        <v>0.60732182036244786</v>
+        <v>0.6027179770289377</v>
       </c>
       <c r="H3">
-        <v>1.3304101090591923E-2</v>
+        <v>1.2612097058482806E-2</v>
       </c>
       <c r="I3">
-        <v>1.0750661675905394E-6</v>
+        <v>1.0044480710641203E-4</v>
       </c>
       <c r="J3">
-        <v>6.8956276972077998E-13</v>
+        <v>2.7834325179456459E-9</v>
       </c>
       <c r="K3">
-        <v>0.99144688812041049</v>
+        <v>0.99165914719327131</v>
       </c>
       <c r="L3">
-        <v>0.98505815850502187</v>
+        <v>0.98342369626019488</v>
       </c>
       <c r="M3">
-        <v>0.99343822590965092</v>
+        <v>0.99356096479937528</v>
       </c>
       <c r="N3">
-        <v>9.2019458598676815E-2</v>
+        <v>9.0870480788105376E-2</v>
       </c>
       <c r="O3">
-        <v>0.1216241056700041</v>
+        <v>0.12810363266670868</v>
       </c>
       <c r="P3">
-        <v>8.05987366491909E-2</v>
+        <v>7.9841373038159316E-2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6.4071421325667833E-3</v>
+        <v>6.4376366214473563E-3</v>
       </c>
       <c r="B4">
-        <v>0.25980706426117811</v>
+        <v>0.2620788004640151</v>
       </c>
       <c r="C4">
-        <v>2.6315789480790875E-2</v>
+        <v>2.6316432404313611E-2</v>
       </c>
       <c r="D4">
-        <v>86708347.125568867</v>
+        <v>86745320.190269634</v>
       </c>
       <c r="E4">
-        <v>30.918362750177526</v>
+        <v>30.918398324007768</v>
       </c>
       <c r="F4">
-        <v>58.004475857179656</v>
+        <v>58.010714733360942</v>
       </c>
       <c r="G4">
-        <v>1.0000022218739533E-8</v>
+        <v>1.7074825501052106E-8</v>
       </c>
       <c r="H4">
-        <v>0.17453852000111</v>
+        <v>0.17664645388472164</v>
       </c>
       <c r="I4">
-        <v>4.6450674282675123E-10</v>
+        <v>1.0181939267108847E-4</v>
       </c>
       <c r="J4">
-        <v>9.9999999917342125E-2</v>
+        <v>9.9999950105949711E-2</v>
       </c>
       <c r="K4">
-        <v>0.9935565156363213</v>
+        <v>0.99355632018103368</v>
       </c>
       <c r="L4">
-        <v>0.94312540558446789</v>
+        <v>0.94325516938387344</v>
       </c>
       <c r="M4">
-        <v>0.93866074510170361</v>
+        <v>0.93930558523131413</v>
       </c>
       <c r="N4">
-        <v>7.9868952165669124E-2</v>
+        <v>7.9870163520407517E-2</v>
       </c>
       <c r="O4">
-        <v>0.23728853421810506</v>
+        <v>0.23701768353851838</v>
       </c>
       <c r="P4">
-        <v>0.24642618032448055</v>
+        <v>0.2451274579091437</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.8201868192476232E-2</v>
+        <v>5.8912937961802725E-3</v>
       </c>
       <c r="B5">
-        <v>1.9708590250213547</v>
+        <v>0.54051280023130344</v>
       </c>
       <c r="C5">
-        <v>7.5990278067578604E-2</v>
+        <v>9.7373061303296551E-2</v>
       </c>
       <c r="D5">
-        <v>1103118534.2265716</v>
+        <v>1102668405.0599835</v>
       </c>
       <c r="E5">
-        <v>20.001289286491811</v>
+        <v>12.197463140152802</v>
       </c>
       <c r="F5">
-        <v>62.022909125504256</v>
+        <v>70.613160294083201</v>
       </c>
       <c r="G5">
-        <v>0.62163832419773746</v>
+        <v>0.58465138452348919</v>
       </c>
       <c r="H5">
-        <v>1.4687468885933381</v>
+        <v>0.34555365295427076</v>
       </c>
       <c r="I5">
-        <v>4.2703010765250308E-4</v>
+        <v>3.2718802373531441E-3</v>
       </c>
       <c r="J5">
-        <v>1.7244618951913167E-3</v>
+        <v>6.8480847480082026E-4</v>
       </c>
       <c r="K5">
-        <v>0.97307379874000466</v>
+        <v>0.99461529998841092</v>
       </c>
       <c r="L5">
-        <v>0.97032912497335466</v>
+        <v>0.97175279806317882</v>
       </c>
       <c r="M5">
-        <v>0.99000839728903078</v>
+        <v>0.98048884379718326</v>
       </c>
       <c r="N5">
-        <v>0.16326952945174861</v>
+        <v>7.301269075628665E-2</v>
       </c>
       <c r="O5">
-        <v>0.17138893277098996</v>
+        <v>0.16722658256824185</v>
       </c>
       <c r="P5">
-        <v>9.9456958951395266E-2</v>
+        <v>0.13898217382379849</v>
       </c>
       <c r="Q5">
         <f>0.0001</f>
@@ -2596,10 +2596,10 @@
         <v>100000000</v>
       </c>
       <c r="U5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="V5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W5">
         <f>0.00000001</f>
@@ -2618,52 +2618,52 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.0570746461536065E-2</v>
+        <v>1.0441341344773487E-2</v>
       </c>
       <c r="B6">
-        <v>0.29472793598232966</v>
+        <v>0.28877501862077926</v>
       </c>
       <c r="C6">
-        <v>2.6316402995454225E-2</v>
+        <v>2.6354041846969243E-2</v>
       </c>
       <c r="D6">
-        <v>98228881.944859281</v>
+        <v>98107091.005510435</v>
       </c>
       <c r="E6">
-        <v>23.123651898412643</v>
+        <v>23.123969326998903</v>
       </c>
       <c r="F6">
-        <v>54.448437247405032</v>
+        <v>54.432636292224281</v>
       </c>
       <c r="G6">
-        <v>2.3180235490698976E-8</v>
+        <v>3.7381899653105566E-5</v>
       </c>
       <c r="H6">
-        <v>0.11652082502789272</v>
+        <v>0.11265903651248121</v>
       </c>
       <c r="I6">
-        <v>3.9204152073294536E-9</v>
+        <v>1.3867253977914987E-4</v>
       </c>
       <c r="J6">
-        <v>9.9999889435985811E-2</v>
+        <v>9.9991358163501284E-2</v>
       </c>
       <c r="K6">
-        <v>0.99563208717212115</v>
+        <v>0.99563223635906439</v>
       </c>
       <c r="L6">
-        <v>0.98880646029675801</v>
+        <v>0.98868808828355204</v>
       </c>
       <c r="M6">
-        <v>0.99023107381598163</v>
+        <v>0.99001180672785483</v>
       </c>
       <c r="N6">
-        <v>6.5758905857686359E-2</v>
+        <v>6.5757782843753679E-2</v>
       </c>
       <c r="O6">
-        <v>0.10526919922849959</v>
+        <v>0.10582434785664172</v>
       </c>
       <c r="P6">
-        <v>9.8342447204542494E-2</v>
+        <v>9.9439988633465329E-2</v>
       </c>
       <c r="Q6">
         <v>0.08</v>
@@ -2701,502 +2701,502 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8.7969082514614411E-3</v>
+        <v>8.7908617390365634E-3</v>
       </c>
       <c r="B7">
-        <v>5.809550120867029E-2</v>
+        <v>5.812794556980927E-2</v>
       </c>
       <c r="C7">
-        <v>7.2854988985842833E-2</v>
+        <v>7.2605246558222009E-2</v>
       </c>
       <c r="D7">
-        <v>869497827.19434929</v>
+        <v>869498099.99999917</v>
       </c>
       <c r="E7">
-        <v>39.086659225568162</v>
+        <v>39.08664963604523</v>
       </c>
       <c r="F7">
-        <v>54.557059569815017</v>
+        <v>54.557075055905187</v>
       </c>
       <c r="G7">
-        <v>0.80314177116212115</v>
+        <v>0.80314728724811135</v>
       </c>
       <c r="H7">
-        <v>1.1943425624645336E-4</v>
+        <v>4.5755804523989489E-4</v>
       </c>
       <c r="I7">
-        <v>5.5637136089204252E-2</v>
+        <v>5.537491405461608E-2</v>
       </c>
       <c r="J7">
-        <v>4.3013514913368757E-10</v>
+        <v>2.3510905206197231E-14</v>
       </c>
       <c r="K7">
-        <v>0.99705613154973849</v>
+        <v>0.99705613157965645</v>
       </c>
       <c r="L7">
-        <v>0.9961715874489161</v>
+        <v>0.99617162019484617</v>
       </c>
       <c r="M7">
-        <v>0.99672869148871157</v>
+        <v>0.9967274503975786</v>
       </c>
       <c r="N7">
-        <v>5.3985458836235956E-2</v>
+        <v>5.3985458561913509E-2</v>
       </c>
       <c r="O7">
-        <v>6.1564018919926543E-2</v>
+        <v>6.1563755628634614E-2</v>
       </c>
       <c r="P7">
-        <v>5.6908658622177449E-2</v>
+        <v>5.6919452794252902E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.0293908569875911E-2</v>
+        <v>1.0293951049352714E-2</v>
       </c>
       <c r="B8">
-        <v>6.2545996581536478E-2</v>
+        <v>6.2547104618672966E-2</v>
       </c>
       <c r="C8">
-        <v>9.9999997765947368E-2</v>
+        <v>9.9999999999974581E-2</v>
       </c>
       <c r="D8">
-        <v>1105943839.9989924</v>
+        <v>1105943839.9999921</v>
       </c>
       <c r="E8">
-        <v>34.224737839072297</v>
+        <v>34.224737921323062</v>
       </c>
       <c r="F8">
-        <v>62.585372864441652</v>
+        <v>62.585372860611656</v>
       </c>
       <c r="G8">
-        <v>0.66739486173893814</v>
+        <v>0.66739481930938171</v>
       </c>
       <c r="H8">
-        <v>7.8521634261090573E-2</v>
+        <v>7.8523945239431417E-2</v>
       </c>
       <c r="I8">
-        <v>8.0980355135467739E-7</v>
+        <v>1.4107029589304943E-6</v>
       </c>
       <c r="J8">
-        <v>5.8042029473927693E-11</v>
+        <v>3.4232826451663243E-13</v>
       </c>
       <c r="K8">
-        <v>0.99748717120454367</v>
+        <v>0.99748717120454444</v>
       </c>
       <c r="L8">
-        <v>0.99501463086482556</v>
+        <v>0.99501463815378566</v>
       </c>
       <c r="M8">
-        <v>0.99238563291700888</v>
+        <v>0.99238551111894757</v>
       </c>
       <c r="N8">
-        <v>4.987934745395102E-2</v>
+        <v>4.9879347453943491E-2</v>
       </c>
       <c r="O8">
-        <v>7.0256736650140608E-2</v>
+        <v>7.025668528997768E-2</v>
       </c>
       <c r="P8">
-        <v>8.6827284363224247E-2</v>
+        <v>8.6827978797344663E-2</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.5199604094165075E-2</v>
+        <v>2.4511958540111359E-2</v>
       </c>
       <c r="B9">
-        <v>3.2940758033856365</v>
+        <v>3.1607754249708129</v>
       </c>
       <c r="C9">
-        <v>5.2590670563293862E-2</v>
+        <v>7.7496379089371639E-2</v>
       </c>
       <c r="D9">
-        <v>488741322.03084129</v>
+        <v>493797419.42122895</v>
       </c>
       <c r="E9">
-        <v>29.432058148267789</v>
+        <v>29.464892746626781</v>
       </c>
       <c r="F9">
-        <v>66.759459284471447</v>
+        <v>66.800762448182141</v>
       </c>
       <c r="G9">
-        <v>5.8078974343964036E-2</v>
+        <v>6.0409275714815788E-2</v>
       </c>
       <c r="H9">
-        <v>9.6064519794520962</v>
+        <v>9.2138899041441711</v>
       </c>
       <c r="I9">
-        <v>1.1616304467309338E-3</v>
+        <v>2.280917132737495E-3</v>
       </c>
       <c r="J9">
-        <v>8.5130223140294115E-2</v>
+        <v>9.8609998182038458E-2</v>
       </c>
       <c r="K9">
-        <v>0.99576792421273841</v>
+        <v>0.99576789536829735</v>
       </c>
       <c r="L9">
-        <v>0.93831158973104345</v>
+        <v>0.93827704032799741</v>
       </c>
       <c r="M9">
-        <v>0.97353302689721166</v>
+        <v>0.97351532112364514</v>
       </c>
       <c r="N9">
-        <v>6.4728317059761342E-2</v>
+        <v>6.4728537642878822E-2</v>
       </c>
       <c r="O9">
-        <v>0.24712653877369592</v>
+        <v>0.24719573231607897</v>
       </c>
       <c r="P9">
-        <v>0.16187125554514148</v>
+        <v>0.16192539049695467</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4.3802661548073187E-3</v>
+        <v>4.2009028522218403E-3</v>
       </c>
       <c r="B10">
-        <v>0.44237047636065913</v>
+        <v>0.42525034473613049</v>
       </c>
       <c r="C10">
-        <v>8.7083200564253657E-2</v>
+        <v>9.689993012594407E-2</v>
       </c>
       <c r="D10">
-        <v>63180115.750805609</v>
+        <v>61750253.00666526</v>
       </c>
       <c r="E10">
-        <v>37.459781793540159</v>
+        <v>37.507503529280598</v>
       </c>
       <c r="F10">
-        <v>40.161666358156182</v>
+        <v>39.880152962483614</v>
       </c>
       <c r="G10">
-        <v>3.0267711350570131E-2</v>
+        <v>2.8195154157564004E-2</v>
       </c>
       <c r="H10">
-        <v>0.43153982247464184</v>
+        <v>0.41249430534415882</v>
       </c>
       <c r="I10">
-        <v>4.6296795348582222E-3</v>
+        <v>1.3916310206295288E-3</v>
       </c>
       <c r="J10">
-        <v>1.0495607472909202E-5</v>
+        <v>3.8139010738438627E-4</v>
       </c>
       <c r="K10">
-        <v>0.99450862365726522</v>
+        <v>0.99451207522633489</v>
       </c>
       <c r="L10">
-        <v>0.98651909974957253</v>
+        <v>0.98873683527232881</v>
       </c>
       <c r="M10">
-        <v>0.98398951633829879</v>
+        <v>0.98688863521627967</v>
       </c>
       <c r="N10">
-        <v>7.3732371312113965E-2</v>
+        <v>7.370919566735519E-2</v>
       </c>
       <c r="O10">
-        <v>0.11552528402009304</v>
+        <v>0.1055960845883714</v>
       </c>
       <c r="P10">
-        <v>0.12589828761775976</v>
+        <v>0.11393090509551437</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.827856827243824E-3</v>
+        <v>8.6016550635072738E-3</v>
       </c>
       <c r="B11">
-        <v>7.55417192547954E-2</v>
+        <v>7.5405345236133819E-2</v>
       </c>
       <c r="C11">
-        <v>4.5248107026542507E-2</v>
+        <v>4.1123065906650699E-2</v>
       </c>
       <c r="D11">
-        <v>110535998</v>
+        <v>110535997.99305736</v>
       </c>
       <c r="E11">
-        <v>20.000000000000021</v>
+        <v>18.843520911008522</v>
       </c>
       <c r="F11">
-        <v>70.574558882166301</v>
+        <v>71.951949299766838</v>
       </c>
       <c r="G11">
-        <v>0.62548906338310539</v>
+        <v>0.61889884505403803</v>
       </c>
       <c r="H11">
-        <v>9.7814635328407312E-2</v>
+        <v>9.7368969553150164E-2</v>
       </c>
       <c r="I11">
-        <v>2.8165400896217941E-5</v>
+        <v>5.9567625396698073E-5</v>
       </c>
       <c r="J11">
-        <v>2.2690196750526574E-14</v>
+        <v>1.3517638185362625E-9</v>
       </c>
       <c r="K11">
-        <v>0.98339886367076657</v>
+        <v>0.98377993617027026</v>
       </c>
       <c r="L11">
-        <v>0.98376764779690362</v>
+        <v>0.98268567768594739</v>
       </c>
       <c r="M11">
-        <v>0.97963641930253809</v>
+        <v>0.98190458484546239</v>
       </c>
       <c r="N11">
-        <v>0.12819955134843913</v>
+        <v>0.12671962433432485</v>
       </c>
       <c r="O11">
-        <v>0.12676761684699067</v>
+        <v>0.13092432581805441</v>
       </c>
       <c r="P11">
-        <v>0.14198572072742852</v>
+        <v>0.13384491399747772</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6.632247829524783E-2</v>
+        <v>7.952844563993447E-2</v>
       </c>
       <c r="B12">
-        <v>1.7137639329917644</v>
+        <v>2.1198031716346124</v>
       </c>
       <c r="C12">
-        <v>6.9866626416853858E-2</v>
+        <v>6.3511739573210824E-2</v>
       </c>
       <c r="D12">
-        <v>1451042807.7431676</v>
+        <v>1451040814.2858675</v>
       </c>
       <c r="E12">
-        <v>20.000023683794321</v>
+        <v>12.000000184393709</v>
       </c>
       <c r="F12">
-        <v>68.607190433600962</v>
+        <v>77.207736745440201</v>
       </c>
       <c r="G12">
-        <v>0.50794113155111209</v>
+        <v>0.44839194616039557</v>
       </c>
       <c r="H12">
-        <v>3.3604547861156884</v>
+        <v>4.1388458947306335</v>
       </c>
       <c r="I12">
-        <v>1.5720979459276606E-3</v>
+        <v>6.2654385946094848E-2</v>
       </c>
       <c r="J12">
-        <v>1.1075155570108483E-7</v>
+        <v>3.6199192610896541E-7</v>
       </c>
       <c r="K12">
-        <v>0.91251201628020961</v>
+        <v>0.96577833373195054</v>
       </c>
       <c r="L12">
-        <v>0.90445659926885413</v>
+        <v>0.93030309011547752</v>
       </c>
       <c r="M12">
-        <v>0.97619091556320547</v>
+        <v>0.98715617099343334</v>
       </c>
       <c r="N12">
-        <v>0.29430104295192794</v>
+        <v>0.18406371072367575</v>
       </c>
       <c r="O12">
-        <v>0.30755156758474572</v>
+        <v>0.26267839801871268</v>
       </c>
       <c r="P12">
-        <v>0.15352847811538617</v>
+        <v>0.11276254128255983</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6.009484252225218E-3</v>
+        <v>6.0080670561642041E-3</v>
       </c>
       <c r="B13">
-        <v>2.3712350592520037E-2</v>
+        <v>2.3720800998433659E-2</v>
       </c>
       <c r="C13">
-        <v>9.9999999886581772E-2</v>
+        <v>9.9999994768493319E-2</v>
       </c>
       <c r="D13">
-        <v>217678933.50945121</v>
+        <v>217880910.8896521</v>
       </c>
       <c r="E13">
-        <v>28.447336580513571</v>
+        <v>28.447239773032198</v>
       </c>
       <c r="F13">
-        <v>54.924844146080751</v>
+        <v>54.937719695635849</v>
       </c>
       <c r="G13">
-        <v>4.388135617570779E-4</v>
+        <v>5.0644373799784337E-4</v>
       </c>
       <c r="H13">
-        <v>8.0096388493488026E-3</v>
+        <v>8.0402521761811282E-3</v>
       </c>
       <c r="I13">
-        <v>1.7379072526304474E-9</v>
+        <v>2.1618733124968318E-11</v>
       </c>
       <c r="J13">
-        <v>3.5025895502838085E-2</v>
+        <v>3.4969244036715252E-2</v>
       </c>
       <c r="K13">
-        <v>0.99860082644231662</v>
+        <v>0.99860082700518993</v>
       </c>
       <c r="L13">
-        <v>0.99561191590596565</v>
+        <v>0.99561097381343189</v>
       </c>
       <c r="M13">
-        <v>0.99032699534640034</v>
+        <v>0.99032553394496126</v>
       </c>
       <c r="N13">
-        <v>3.7218030873577709E-2</v>
+        <v>3.721802338735828E-2</v>
       </c>
       <c r="O13">
-        <v>6.5910570116590336E-2</v>
+        <v>6.5917645017874088E-2</v>
       </c>
       <c r="P13">
-        <v>9.7858441675021793E-2</v>
+        <v>9.7865833642228769E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3.8862277447454445E-3</v>
+        <v>3.8861284387073989E-3</v>
       </c>
       <c r="B14">
-        <v>2.725596656686213E-2</v>
+        <v>2.7261103456091763E-2</v>
       </c>
       <c r="C14">
-        <v>4.2301835077202837E-2</v>
+        <v>4.2298758750893048E-2</v>
       </c>
       <c r="D14">
-        <v>2505889729.8533902</v>
+        <v>2505929323.470655</v>
       </c>
       <c r="E14">
-        <v>33.024138056072623</v>
+        <v>33.024129535247937</v>
       </c>
       <c r="F14">
-        <v>59.464000620651539</v>
+        <v>59.464001351021935</v>
       </c>
       <c r="G14">
-        <v>0.73479274856265109</v>
+        <v>0.73480522575946383</v>
       </c>
       <c r="H14">
-        <v>3.5911675585669334E-7</v>
+        <v>1.0000022251351926E-8</v>
       </c>
       <c r="I14">
-        <v>3.0393711958913223E-2</v>
+        <v>3.041450990650171E-2</v>
       </c>
       <c r="J14">
-        <v>1.3575856999693136E-10</v>
+        <v>2.2206892376140339E-14</v>
       </c>
       <c r="K14">
-        <v>0.99716413806613691</v>
+        <v>0.99716413867670806</v>
       </c>
       <c r="L14">
-        <v>0.99370151489655978</v>
+        <v>0.99370163835341951</v>
       </c>
       <c r="M14">
-        <v>0.99165365355522117</v>
+        <v>0.99165198551059075</v>
       </c>
       <c r="N14">
-        <v>5.2985878444397248E-2</v>
+        <v>5.2985872740373724E-2</v>
       </c>
       <c r="O14">
-        <v>7.8965183798974159E-2</v>
+        <v>7.8964409895311283E-2</v>
       </c>
       <c r="P14">
-        <v>9.0900401431077332E-2</v>
+        <v>9.0909484348527594E-2</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.8560554960869612E-3</v>
+        <v>6.6511699845337082E-3</v>
       </c>
       <c r="B15">
-        <v>4.1542035450387677E-2</v>
+        <v>4.2068358440463874E-2</v>
       </c>
       <c r="C15">
-        <v>3.2824140711530357E-2</v>
+        <v>2.7167129482117646E-2</v>
       </c>
       <c r="D15">
-        <v>367617109.83428496</v>
+        <v>213652521.03069344</v>
       </c>
       <c r="E15">
-        <v>20.000000000005215</v>
+        <v>17.972511625971219</v>
       </c>
       <c r="F15">
-        <v>69.722828941943575</v>
+        <v>65.438672909354949</v>
       </c>
       <c r="G15">
-        <v>5.1486536699527199E-2</v>
+        <v>1.0090832417464212E-8</v>
       </c>
       <c r="H15">
-        <v>3.9011309118147674E-4</v>
+        <v>8.008286116214532E-4</v>
       </c>
       <c r="I15">
-        <v>3.7299730241668449E-10</v>
+        <v>4.0810812153425507E-10</v>
       </c>
       <c r="J15">
-        <v>9.9999999999977676E-2</v>
+        <v>9.9999999999969807E-2</v>
       </c>
       <c r="K15">
-        <v>0.99820817721960153</v>
+        <v>0.99871171861138264</v>
       </c>
       <c r="L15">
-        <v>0.99249749898466444</v>
+        <v>0.99125391452929767</v>
       </c>
       <c r="M15">
-        <v>0.99383472763390213</v>
+        <v>0.99261901907697347</v>
       </c>
       <c r="N15">
-        <v>4.2117746290541561E-2</v>
+        <v>3.5712722869184685E-2</v>
       </c>
       <c r="O15">
-        <v>8.6182805739788912E-2</v>
+        <v>9.3051730859749479E-2</v>
       </c>
       <c r="P15">
-        <v>7.812566570875995E-2</v>
+        <v>8.5481992921294908E-2</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5.2688700173783897E-3</v>
+        <v>5.3027181736542764E-3</v>
       </c>
       <c r="B16">
-        <v>0.61214822745053432</v>
+        <v>0.59196308696213062</v>
       </c>
       <c r="C16">
-        <v>7.5473443836953563E-2</v>
+        <v>9.9411400019638441E-2</v>
       </c>
       <c r="D16">
-        <v>1519978906.0318289</v>
+        <v>1520026805.6144135</v>
       </c>
       <c r="E16">
-        <v>42.233837038396345</v>
+        <v>42.233895011393415</v>
       </c>
       <c r="F16">
-        <v>67.258519619581634</v>
+        <v>67.258507248806296</v>
       </c>
       <c r="G16">
-        <v>0.65344582250337191</v>
+        <v>0.6534343612209651</v>
       </c>
       <c r="H16">
-        <v>3.1034722121742919</v>
+        <v>3.0051583837445994</v>
       </c>
       <c r="I16">
-        <v>2.7720831879434263E-3</v>
+        <v>2.0119874453073186E-3</v>
       </c>
       <c r="J16">
-        <v>2.3605345234617402E-5</v>
+        <v>9.8132869671576247E-10</v>
       </c>
       <c r="K16">
-        <v>0.99372489602609093</v>
+        <v>0.99372489857713808</v>
       </c>
       <c r="L16">
-        <v>0.96468552283099351</v>
+        <v>0.96468846996098367</v>
       </c>
       <c r="M16">
-        <v>0.91289813590883506</v>
+        <v>0.91292385028354683</v>
       </c>
       <c r="N16">
-        <v>7.8818480917675668E-2</v>
+        <v>7.8818464896452098E-2</v>
       </c>
       <c r="O16">
-        <v>0.18697949726458349</v>
+        <v>0.18697169501993111</v>
       </c>
       <c r="P16">
-        <v>0.29365089042986631</v>
+        <v>0.29360754114853488</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -3262,19 +3262,19 @@
       </c>
       <c r="B18">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>2.3433547968436008E-3</v>
+        <v>2.4078861224911992E-3</v>
       </c>
       <c r="C18">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>1.172658559552636E-2</v>
+        <v>7.5900905874670384E-3</v>
       </c>
       <c r="D18">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>2.0636837032133568E-2</v>
+        <v>2.2654629147360703E-2</v>
       </c>
       <c r="E18">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>5.505159377609003E-3</v>
+        <v>5.4620209132648975E-3</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="0"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="P18" t="str">
         <f t="shared" si="2"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="3"/>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" si="4"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="5"/>
@@ -3323,19 +3323,19 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>1.2183943132982477E-4</v>
+        <v>1.5736605921649015E-4</v>
       </c>
       <c r="C19">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>3.4535423256334134E-3</v>
+        <v>1.4343228113481118E-3</v>
       </c>
       <c r="D19">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>9.5897251503194916E-3</v>
+        <v>1.1720490859283117E-2</v>
       </c>
       <c r="E19">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>6.2955249951320816E-4</v>
+        <v>5.9308911346223861E-4</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="0"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="R19" t="str">
         <f t="shared" si="4"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="5"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="T20" t="str">
         <f t="shared" si="6"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" si="4"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="5"/>
@@ -3489,19 +3489,19 @@
       </c>
       <c r="C22">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>0.19184299121272555</v>
+        <v>0.12876403055911056</v>
       </c>
       <c r="D22">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>0.84179800842162089</v>
+        <v>0.36378887310536595</v>
       </c>
       <c r="E22">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>0.94106557163051041</v>
+        <v>0.98365155612769539</v>
       </c>
       <c r="F22">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>0.17616464501507603</v>
+        <v>0.17125333746427998</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="0"/>
@@ -3550,19 +3550,19 @@
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>6.8718657161334643E-2</v>
+        <v>4.5642193890534699E-2</v>
       </c>
       <c r="D23">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>0.5646205071326994</v>
+        <v>8.8697391600276926E-2</v>
       </c>
       <c r="E23">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>0.53798949910684946</v>
+        <v>0.54382776962557089</v>
       </c>
       <c r="F23">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>0.14537893810978889</v>
+        <v>0.14029286775012334</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -3716,19 +3716,19 @@
       </c>
       <c r="D26">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>5.1564331406518275E-2</v>
+        <v>5.2872789376993849E-2</v>
       </c>
       <c r="E26">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>4.2874156847941235E-2</v>
+        <v>5.0014511851526472E-2</v>
       </c>
       <c r="F26">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>7.1273931887122347E-2</v>
+        <v>7.5272726875562301E-2</v>
       </c>
       <c r="G26">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>6.2649854878067138E-2</v>
+        <v>6.7219320755285611E-2</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" si="5"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="6"/>
@@ -3777,19 +3777,19 @@
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.3984325630791826E-2</v>
+        <v>2.3604403597739448E-2</v>
       </c>
       <c r="E27">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>1.6558060610765861E-2</v>
+        <v>2.3679277214823356E-2</v>
       </c>
       <c r="F27">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>8.3785597421522275E-3</v>
+        <v>8.9363568334298801E-3</v>
       </c>
       <c r="G27">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>1.5446393595550232E-2</v>
+        <v>1.9009021964407177E-2</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="R27" t="str">
         <f t="shared" si="4"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="5"/>
@@ -3838,7 +3838,7 @@
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N28" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
@@ -3943,19 +3943,19 @@
       </c>
       <c r="E30">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>639960285.46749341</v>
+        <v>631957108.02802444</v>
       </c>
       <c r="F30">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>429351921.09899992</v>
+        <v>429173605.41858786</v>
       </c>
       <c r="G30">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>681490318.45302594</v>
+        <v>682094404.11780167</v>
       </c>
       <c r="H30">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>1152791169.8072388</v>
+        <v>1114372390.2513535</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="0"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="U30" t="str">
         <f t="shared" si="7"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="8"/>
@@ -4004,19 +4004,19 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E31">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>296989878.59587508</v>
+        <v>304816559.07379436</v>
       </c>
       <c r="F31">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>336899721.68024516</v>
+        <v>336763372.07650584</v>
       </c>
       <c r="G31">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>227535137.76264256</v>
+        <v>227523530.14679533</v>
       </c>
       <c r="H31">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>536705672.42522597</v>
+        <v>556475475.53563011</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="0"/>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" si="4"/>
-        <v>Lower</v>
+        <v>Ok</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="5"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="T31" t="str">
         <f t="shared" si="6"/>
-        <v>Ok</v>
+        <v>Lower</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="7"/>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="P32" t="str">
         <f t="shared" si="2"/>
-        <v>Ok</v>
+        <v>Upper</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="3"/>
@@ -4166,37 +4166,37 @@
       </c>
       <c r="F34">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>21.274944293023548</v>
+        <v>20.572105856749435</v>
       </c>
       <c r="G34">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>24.681101311693993</v>
+        <v>22.079943597053159</v>
       </c>
       <c r="H34">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>30.033876781707125</v>
+        <v>28.521217488112981</v>
       </c>
       <c r="I34">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>30.926327918746939</v>
+        <v>30.419443986411192</v>
       </c>
     </row>
     <row r="35" spans="5:26" x14ac:dyDescent="0.25">
       <c r="F35">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.2749442925269752</v>
+        <v>1.6336899030071994</v>
       </c>
       <c r="G35">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>3.2462727221166308</v>
+        <v>5.4294212654485898</v>
       </c>
       <c r="H35">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>3.446637629880827</v>
+        <v>4.4437626468532025</v>
       </c>
       <c r="I35">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>4.6349272711493885</v>
+        <v>5.0429931131774364</v>
       </c>
     </row>
     <row r="37" spans="5:26" x14ac:dyDescent="0.25">
@@ -4219,37 +4219,37 @@
       </c>
       <c r="G38">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>64.148942849747144</v>
+        <v>62.896358741619032</v>
       </c>
       <c r="H38">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>58.158607410029646</v>
+        <v>61.018837106556141</v>
       </c>
       <c r="I38">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>60.540884565441928</v>
+        <v>62.163841562064931</v>
       </c>
       <c r="J38">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>62.842548332064382</v>
+        <v>61.774725301204761</v>
       </c>
     </row>
     <row r="39" spans="5:26" x14ac:dyDescent="0.25">
       <c r="G39">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.8581921872190554</v>
+        <v>3.1185449570269803</v>
       </c>
       <c r="H39">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>2.1879193662562124</v>
+        <v>4.9071016361586057</v>
       </c>
       <c r="I39">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>4.6893823719552792</v>
+        <v>5.4718376973839229</v>
       </c>
       <c r="J39">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>3.4271427348192454</v>
+        <v>2.822240058131118</v>
       </c>
     </row>
     <row r="41" spans="5:26" x14ac:dyDescent="0.25">
@@ -4272,37 +4272,37 @@
       </c>
       <c r="H42">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>0.44788556997427481</v>
+        <v>0.43077332841405958</v>
       </c>
       <c r="I42">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>0.20721278579266508</v>
+        <v>0.19489626116598927</v>
       </c>
       <c r="J42">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>0.44871891892163512</v>
+        <v>0.4377395546073844</v>
       </c>
       <c r="K42">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>0.36004098033182685</v>
+        <v>0.34718651020231478</v>
       </c>
     </row>
     <row r="43" spans="5:26" x14ac:dyDescent="0.25">
       <c r="H43">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>0.20196231196476522</v>
+        <v>0.21684204882873256</v>
       </c>
       <c r="I43">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.20721276920253626</v>
+        <v>0.19487756197725581</v>
       </c>
       <c r="J43">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>0.13365261688625313</v>
+        <v>0.13282836907689832</v>
       </c>
       <c r="K43">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.1938738533670811</v>
+        <v>0.20098954144579248</v>
       </c>
     </row>
     <row r="45" spans="5:26" x14ac:dyDescent="0.25">
@@ -4325,37 +4325,37 @@
       </c>
       <c r="I46">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>2.7957174056153323E-2</v>
+        <v>3.5528330464905701E-2</v>
       </c>
       <c r="J46">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>0.58660207787411356</v>
+        <v>0.21161971445049121</v>
       </c>
       <c r="K46">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>2.2624837153146955</v>
+        <v>2.3235967628427976</v>
       </c>
       <c r="L46">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>0.77796808080789448</v>
+        <v>0.75349986863310603</v>
       </c>
     </row>
     <row r="47" spans="5:26" x14ac:dyDescent="0.25">
       <c r="I47">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>2.1648508629154174E-2</v>
+        <v>1.8563479141676411E-2</v>
       </c>
       <c r="J47">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>0.44139027082679105</v>
+        <v>6.9467791836320278E-2</v>
       </c>
       <c r="K47">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>1.5606146290616747</v>
+        <v>1.525527225756895</v>
       </c>
       <c r="L47">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>0.77517023609963509</v>
+        <v>0.75055501631856547</v>
       </c>
     </row>
     <row r="49" spans="9:16" x14ac:dyDescent="0.25">
@@ -4378,37 +4378,37 @@
       </c>
       <c r="J50">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>0.12935177948129437</v>
+        <v>5.7846541530565176E-2</v>
       </c>
       <c r="K50">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>1.4234483085815106E-4</v>
+        <v>1.1707907232677941E-3</v>
       </c>
       <c r="L50">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>1.0504919870194774E-2</v>
+        <v>2.0293804413738931E-2</v>
       </c>
       <c r="M50">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>8.2914493144403013E-3</v>
+        <v>8.1066244453839708E-3</v>
       </c>
     </row>
     <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J51">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>6.997009155907126E-2</v>
+        <v>5.7796326400492065E-2</v>
       </c>
       <c r="K51">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>1.4234263840067203E-4</v>
+        <v>1.0505986227325355E-3</v>
       </c>
       <c r="L51">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>9.0528567629612425E-3</v>
+        <v>1.2285580937961189E-2</v>
       </c>
       <c r="M51">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>7.3963371841886272E-3</v>
+        <v>7.4510685292937312E-3</v>
       </c>
     </row>
     <row r="53" spans="9:16" x14ac:dyDescent="0.25">
@@ -4431,37 +4431,37 @@
       </c>
       <c r="K54">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.3333395226110347E-2</v>
+        <v>3.3333342780663376E-2</v>
       </c>
       <c r="L54">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>6.724145041617309E-2</v>
+        <v>6.6892038914750609E-2</v>
       </c>
       <c r="M54">
         <f>AVERAGE(J$7:J$12)</f>
-        <v>1.4190138331253765E-2</v>
+        <v>1.6498625272246433E-2</v>
       </c>
       <c r="N54">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>3.3762375245952242E-2</v>
+        <v>3.3742311254508987E-2</v>
       </c>
     </row>
     <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K55">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>3.3333302386806547E-2</v>
+        <v>3.3333328609647599E-2</v>
       </c>
       <c r="L55">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>3.2758494260506414E-2</v>
+        <v>3.3103615312892076E-2</v>
       </c>
       <c r="M55">
         <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
-        <v>1.4188017064792866E-2</v>
+        <v>1.6422392623856231E-2</v>
       </c>
       <c r="N55">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>2.3571207690721671E-2</v>
+        <v>2.3573773833981716E-2</v>
       </c>
     </row>
     <row r="57" spans="9:16" x14ac:dyDescent="0.25">
@@ -4484,37 +4484,37 @@
       </c>
       <c r="L58">
         <f>AVERAGE(K$1:K$3)</f>
-        <v>0.99307319644338621</v>
+        <v>0.9932353556209178</v>
       </c>
       <c r="M58">
         <f>AVERAGE(K$4:K$6)</f>
-        <v>0.987420800516149</v>
+        <v>0.994601285509503</v>
       </c>
       <c r="N58">
         <f>AVERAGE(K$7:K$12)</f>
-        <v>0.98012178842921027</v>
+        <v>0.98906359054684234</v>
       </c>
       <c r="O58">
         <f>AVERAGE(K$13:K$16)</f>
-        <v>0.9969245094385365</v>
+        <v>0.99705039571760468</v>
       </c>
     </row>
     <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L59">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
-        <v>1.5981723075758412E-3</v>
+        <v>1.6547270938465533E-3</v>
       </c>
       <c r="M59">
         <f>STDEV(K$4:K$6)/SQRT(COUNT(K$4:K$6))</f>
-        <v>7.1984800310800129E-3</v>
+        <v>5.9930634869731015E-4</v>
       </c>
       <c r="N59">
         <f>STDEV(K$7:K$12)/SQRT(COUNT(K$7:K$12))</f>
-        <v>1.368932869168784E-2</v>
+        <v>5.0976834614891962E-3</v>
       </c>
       <c r="O59">
         <f>STDEV(K$13:K$16)/SQRT(COUNT(K$13:K$16))</f>
-        <v>1.1087827235897795E-3</v>
+        <v>1.163174522120073E-3</v>
       </c>
     </row>
     <row r="61" spans="9:16" x14ac:dyDescent="0.25">
@@ -4537,37 +4537,37 @@
       </c>
       <c r="M62">
         <f>AVERAGE(L$1:L$3)</f>
-        <v>0.97680301293777516</v>
+        <v>0.98405331806681362</v>
       </c>
       <c r="N62">
         <f>AVERAGE(L$4:L$6)</f>
-        <v>0.96742033028486019</v>
+        <v>0.96789868524353473</v>
       </c>
       <c r="O62">
         <f>AVERAGE(L$7:L$12)</f>
-        <v>0.96737352581001923</v>
+        <v>0.9718648169583971</v>
       </c>
       <c r="P62">
         <f>AVERAGE(L$13:L$16)</f>
-        <v>0.98662411315454579</v>
+        <v>0.98631374916428316</v>
       </c>
     </row>
     <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M63">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
-        <v>9.0512494151825176E-3</v>
+        <v>1.3652936287294596E-3</v>
       </c>
       <c r="N63">
         <f>STDEV(L$4:L$6)/SQRT(COUNT(L$4:L$6))</f>
-        <v>1.3266945199902791E-2</v>
+        <v>1.3256170502274298E-2</v>
       </c>
       <c r="O63">
         <f>STDEV(L$7:L$12)/SQRT(COUNT(L$7:L$12))</f>
-        <v>1.5309926032968647E-2</v>
+        <v>1.2088571477451593E-2</v>
       </c>
       <c r="P63">
         <f>STDEV(L$13:L$16)/SQRT(COUNT(L$13:L$16))</f>
-        <v>7.340916270071429E-3</v>
+        <v>7.2633625552152884E-3</v>
       </c>
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.25">
@@ -4590,37 +4590,37 @@
       </c>
       <c r="N66">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.98273355356952219</v>
+        <v>0.98679474014039259</v>
       </c>
       <c r="O66">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.97296673873557216</v>
+        <v>0.96993541191878407</v>
       </c>
       <c r="P66">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.98374403375116237</v>
+        <v>0.98642961228255777</v>
       </c>
       <c r="Q66">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.97217837811108965</v>
+        <v>0.97188009720401802</v>
       </c>
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.25">
       <c r="N67">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>5.9967004847040206E-3</v>
+        <v>7.0438767443932885E-3</v>
       </c>
       <c r="O67">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>1.7153117263966709E-2</v>
+        <v>1.555968527876952E-2</v>
       </c>
       <c r="P67">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.7484467280740124E-3</v>
+        <v>3.3141694779142477E-3</v>
       </c>
       <c r="Q67">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>1.9773305345403593E-2</v>
+        <v>1.9657703399201726E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_hptoolbox.xlsx
+++ b/Lacex_summary_hptoolbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BAEBF-C99D-4DAD-AF86-0FE520CB4CD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A492C-1777-49A5-BC13-63A5F4DE91D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{4027078A-84B0-4F52-96FB-34C97BB031FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99BAD5-59DB-4CD8-989F-B83D7F3C1D42}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
